--- a/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046638991351968</v>
+        <v>1.046638991351967</v>
       </c>
       <c r="J2">
         <v>1.023809094452202</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008669906943912</v>
+        <v>1.008669906943911</v>
       </c>
       <c r="D3">
         <v>1.025907995725039</v>
       </c>
       <c r="E3">
-        <v>0.9889369838330503</v>
+        <v>0.9889369838330497</v>
       </c>
       <c r="F3">
-        <v>1.018864250885958</v>
+        <v>1.018864250885957</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.049273145568149</v>
       </c>
       <c r="J3">
-        <v>1.028926979866909</v>
+        <v>1.028926979866908</v>
       </c>
       <c r="K3">
-        <v>1.036219772642202</v>
+        <v>1.036219772642201</v>
       </c>
       <c r="L3">
-        <v>0.9997134028305241</v>
+        <v>0.9997134028305237</v>
       </c>
       <c r="M3">
-        <v>1.029261318333268</v>
+        <v>1.029261318333267</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0130601452111</v>
+        <v>1.013060145211099</v>
       </c>
       <c r="D4">
         <v>1.02935052027004</v>
       </c>
       <c r="E4">
-        <v>0.9923376556840932</v>
+        <v>0.9923376556840936</v>
       </c>
       <c r="F4">
-        <v>1.022881735037329</v>
+        <v>1.022881735037328</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,10 +515,10 @@
         <v>1.050913579791626</v>
       </c>
       <c r="J4">
-        <v>1.032135570110396</v>
+        <v>1.032135570110395</v>
       </c>
       <c r="K4">
-        <v>1.039107159745131</v>
+        <v>1.03910715974513</v>
       </c>
       <c r="L4">
         <v>1.002529446711347</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014875493251956</v>
+        <v>1.014875493251957</v>
       </c>
       <c r="D5">
         <v>1.030774434984812</v>
       </c>
       <c r="E5">
-        <v>0.993747985377976</v>
+        <v>0.9937479853779765</v>
       </c>
       <c r="F5">
-        <v>1.024545311921051</v>
+        <v>1.024545311921052</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.051588548245231</v>
       </c>
       <c r="J5">
-        <v>1.033461011237625</v>
+        <v>1.033461011237626</v>
       </c>
       <c r="K5">
-        <v>1.040299447011777</v>
+        <v>1.040299447011778</v>
       </c>
       <c r="L5">
         <v>1.00369594601414</v>
       </c>
       <c r="M5">
-        <v>1.034138847438938</v>
+        <v>1.034138847438939</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015178567720868</v>
+        <v>1.015178567720869</v>
       </c>
       <c r="D6">
-        <v>1.031012182486518</v>
+        <v>1.031012182486519</v>
       </c>
       <c r="E6">
-        <v>0.9939836814276929</v>
+        <v>0.9939836814276933</v>
       </c>
       <c r="F6">
-        <v>1.024823183909315</v>
+        <v>1.024823183909316</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.051701036412035</v>
       </c>
       <c r="J6">
-        <v>1.033682217020607</v>
+        <v>1.033682217020608</v>
       </c>
       <c r="K6">
-        <v>1.040498402331694</v>
+        <v>1.040498402331695</v>
       </c>
       <c r="L6">
-        <v>1.003890812301608</v>
+        <v>1.003890812301609</v>
       </c>
       <c r="M6">
-        <v>1.03437715268953</v>
+        <v>1.034377152689531</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.013084518926961</v>
       </c>
       <c r="D7">
-        <v>1.029369636791482</v>
+        <v>1.029369636791481</v>
       </c>
       <c r="E7">
-        <v>0.9923565751829009</v>
+        <v>0.9923565751829005</v>
       </c>
       <c r="F7">
         <v>1.022904061792918</v>
@@ -629,13 +629,13 @@
         <v>1.050922655560451</v>
       </c>
       <c r="J7">
-        <v>1.032153371328301</v>
+        <v>1.0321533713283</v>
       </c>
       <c r="K7">
         <v>1.039123174531772</v>
       </c>
       <c r="L7">
-        <v>1.002545100656935</v>
+        <v>1.002545100656934</v>
       </c>
       <c r="M7">
         <v>1.032730784456079</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004070006592921</v>
+        <v>1.004070006592922</v>
       </c>
       <c r="D8">
-        <v>1.022302896083382</v>
+        <v>1.022302896083383</v>
       </c>
       <c r="E8">
-        <v>0.9853889470169411</v>
+        <v>0.9853889470169414</v>
       </c>
       <c r="F8">
-        <v>1.014663448569689</v>
+        <v>1.01466344856969</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.047542891064223</v>
       </c>
       <c r="J8">
-        <v>1.025560801776507</v>
+        <v>1.025560801776508</v>
       </c>
       <c r="K8">
-        <v>1.033189002927463</v>
+        <v>1.033189002927464</v>
       </c>
       <c r="L8">
         <v>0.9967705404781408</v>
       </c>
       <c r="M8">
-        <v>1.025648390940391</v>
+        <v>1.025648390940392</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -693,16 +693,16 @@
         <v>1.009005172833116</v>
       </c>
       <c r="E9">
-        <v>0.9724113007511519</v>
+        <v>0.9724113007511517</v>
       </c>
       <c r="F9">
-        <v>0.9992187265092944</v>
+        <v>0.9992187265092942</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041064097741588</v>
+        <v>1.041064097741587</v>
       </c>
       <c r="J9">
         <v>1.013094670408425</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9748714821718545</v>
+        <v>0.9748714821718547</v>
       </c>
       <c r="D10">
         <v>0.9994776500974636</v>
       </c>
       <c r="E10">
-        <v>0.9632120356055408</v>
+        <v>0.9632120356055413</v>
       </c>
       <c r="F10">
-        <v>0.9881950657273029</v>
+        <v>0.9881950657273033</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>1.004118821238714</v>
       </c>
       <c r="K10">
-        <v>1.013856342142099</v>
+        <v>1.0138563421421</v>
       </c>
       <c r="L10">
-        <v>0.9782788691940161</v>
+        <v>0.9782788691940163</v>
       </c>
       <c r="M10">
         <v>1.002780784006046</v>
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9693437614907928</v>
+        <v>0.9693437614907929</v>
       </c>
       <c r="D11">
-        <v>0.9951705801614719</v>
+        <v>0.9951705801614721</v>
       </c>
       <c r="E11">
-        <v>0.9590790014079958</v>
+        <v>0.9590790014079957</v>
       </c>
       <c r="F11">
-        <v>0.9832217005495498</v>
+        <v>0.9832217005495497</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>0.9748162117131354</v>
       </c>
       <c r="M11">
-        <v>0.9984671225783719</v>
+        <v>0.9984671225783717</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672506862567949</v>
+        <v>0.9672506862567957</v>
       </c>
       <c r="D12">
-        <v>0.9935410676958704</v>
+        <v>0.9935410676958715</v>
       </c>
       <c r="E12">
-        <v>0.957519398124996</v>
+        <v>0.9575193981249961</v>
       </c>
       <c r="F12">
-        <v>0.9813416254704692</v>
+        <v>0.9813416254704702</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033370547981013</v>
+        <v>1.033370547981014</v>
       </c>
       <c r="J12">
-        <v>0.9985087656709115</v>
+        <v>0.9985087656709124</v>
       </c>
       <c r="K12">
-        <v>1.008793065711341</v>
+        <v>1.008793065711342</v>
       </c>
       <c r="L12">
         <v>0.9735083680591393</v>
       </c>
       <c r="M12">
-        <v>0.9968352385973765</v>
+        <v>0.9968352385973773</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9677015197695507</v>
+        <v>0.9677015197695508</v>
       </c>
       <c r="D13">
-        <v>0.9938919882187821</v>
+        <v>0.9938919882187822</v>
       </c>
       <c r="E13">
-        <v>0.9578550762690123</v>
+        <v>0.9578550762690125</v>
       </c>
       <c r="F13">
-        <v>0.981746436647549</v>
+        <v>0.9817464366475492</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.033546758181649</v>
       </c>
       <c r="J13">
-        <v>0.9988407396355717</v>
+        <v>0.9988407396355719</v>
       </c>
       <c r="K13">
         <v>1.009092720410643</v>
       </c>
       <c r="L13">
-        <v>0.9737899140909664</v>
+        <v>0.9737899140909666</v>
       </c>
       <c r="M13">
-        <v>0.9971866640660991</v>
+        <v>0.9971866640660996</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9691715809899873</v>
+        <v>0.9691715809899869</v>
       </c>
       <c r="D14">
-        <v>0.9950365044191128</v>
+        <v>0.9950365044191127</v>
       </c>
       <c r="E14">
-        <v>0.958950593991321</v>
+        <v>0.9589505939913208</v>
       </c>
       <c r="F14">
-        <v>0.9830669777130859</v>
+        <v>0.9830669777130856</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034120975530177</v>
+        <v>1.034120975530176</v>
       </c>
       <c r="J14">
-        <v>0.9999231552273807</v>
+        <v>0.9999231552273805</v>
       </c>
       <c r="K14">
         <v>1.010069728629468</v>
       </c>
       <c r="L14">
-        <v>0.974708557154774</v>
+        <v>0.9747085571547739</v>
       </c>
       <c r="M14">
-        <v>0.9983328491406332</v>
+        <v>0.9983328491406329</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9700719470883212</v>
+        <v>0.9700719470883223</v>
       </c>
       <c r="D15">
-        <v>0.9957376697404983</v>
+        <v>0.9957376697404995</v>
       </c>
       <c r="E15">
-        <v>0.9596222827139906</v>
+        <v>0.9596222827139911</v>
       </c>
       <c r="F15">
-        <v>0.9838761813498011</v>
+        <v>0.9838761813498017</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.034472386390366</v>
       </c>
       <c r="J15">
-        <v>1.000586042638209</v>
+        <v>1.00058604263821</v>
       </c>
       <c r="K15">
-        <v>1.010668040087303</v>
+        <v>1.010668040087304</v>
       </c>
       <c r="L15">
-        <v>0.9752716401062559</v>
+        <v>0.9752716401062564</v>
       </c>
       <c r="M15">
-        <v>0.9990350533917154</v>
+        <v>0.9990350533917159</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9752329483936414</v>
+        <v>0.9752329483936406</v>
       </c>
       <c r="D16">
-        <v>0.9997594726549642</v>
+        <v>0.9997594726549636</v>
       </c>
       <c r="E16">
-        <v>0.9634830187164899</v>
+        <v>0.9634830187164892</v>
       </c>
       <c r="F16">
-        <v>0.9885206945649458</v>
+        <v>0.9885206945649447</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>1.014096380736462</v>
       </c>
       <c r="L16">
-        <v>0.9785057332800837</v>
+        <v>0.9785057332800831</v>
       </c>
       <c r="M16">
-        <v>1.003063053924405</v>
+        <v>1.003063053924404</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784031024965897</v>
+        <v>0.9784031024965898</v>
       </c>
       <c r="D17">
         <v>1.002232027586001</v>
       </c>
       <c r="E17">
-        <v>0.9658633919475573</v>
+        <v>0.9658633919475571</v>
       </c>
       <c r="F17">
-        <v>0.9913787176808134</v>
+        <v>0.9913787176808136</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>1.016201034129786</v>
       </c>
       <c r="L17">
-        <v>0.9804976583760953</v>
+        <v>0.980497658376095</v>
       </c>
       <c r="M17">
-        <v>1.005539616869201</v>
+        <v>1.005539616869202</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802290451848905</v>
+        <v>0.98022904518489</v>
       </c>
       <c r="D18">
-        <v>1.003656882742189</v>
+        <v>1.003656882742188</v>
       </c>
       <c r="E18">
-        <v>0.9672375212691571</v>
+        <v>0.9672375212691572</v>
       </c>
       <c r="F18">
-        <v>0.9930266508364336</v>
+        <v>0.9930266508364333</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.03842069658025</v>
       </c>
       <c r="J18">
-        <v>1.008060360221243</v>
+        <v>1.008060360221242</v>
       </c>
       <c r="K18">
-        <v>1.017412790774249</v>
+        <v>1.017412790774248</v>
       </c>
       <c r="L18">
-        <v>0.9816468021501276</v>
+        <v>0.9816468021501278</v>
       </c>
       <c r="M18">
-        <v>1.006966848891351</v>
+        <v>1.00696684889135</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,10 +1073,10 @@
         <v>1.004139847581468</v>
       </c>
       <c r="E19">
-        <v>0.9677036927309186</v>
+        <v>0.9677036927309185</v>
       </c>
       <c r="F19">
-        <v>0.993585389643156</v>
+        <v>0.9935853896431556</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>1.017823340432434</v>
       </c>
       <c r="L19">
-        <v>0.9820365218859379</v>
+        <v>0.9820365218859378</v>
       </c>
       <c r="M19">
         <v>1.007450630438267</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780653930742931</v>
+        <v>0.9780653930742923</v>
       </c>
       <c r="D20">
-        <v>1.001968556199414</v>
+        <v>1.001968556199413</v>
       </c>
       <c r="E20">
-        <v>0.9656094929341784</v>
+        <v>0.9656094929341783</v>
       </c>
       <c r="F20">
-        <v>0.991074073199867</v>
+        <v>0.9910740731998664</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037582240492701</v>
+        <v>1.0375822404927</v>
       </c>
       <c r="J20">
         <v>1.006468851117746</v>
       </c>
       <c r="K20">
-        <v>1.0159768790149</v>
+        <v>1.015976879014899</v>
       </c>
       <c r="L20">
-        <v>0.9802852700354916</v>
+        <v>0.9802852700354915</v>
       </c>
       <c r="M20">
-        <v>1.00527571133071</v>
+        <v>1.005275711330709</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9687398136192779</v>
+        <v>0.9687398136192772</v>
       </c>
       <c r="D21">
-        <v>0.9947003128231664</v>
+        <v>0.9947003128231658</v>
       </c>
       <c r="E21">
-        <v>0.9586286817359378</v>
+        <v>0.9586286817359377</v>
       </c>
       <c r="F21">
-        <v>0.9826790385176125</v>
+        <v>0.9826790385176116</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.033952381943982</v>
       </c>
       <c r="J21">
-        <v>0.999605254002483</v>
+        <v>0.9996052540024821</v>
       </c>
       <c r="K21">
         <v>1.009782789851098</v>
       </c>
       <c r="L21">
-        <v>0.9744386519802247</v>
+        <v>0.9744386519802246</v>
       </c>
       <c r="M21">
-        <v>0.9979961638458803</v>
+        <v>0.9979961638458796</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1187,16 +1187,16 @@
         <v>0.9899573748908749</v>
       </c>
       <c r="E22">
-        <v>0.9540972136369371</v>
+        <v>0.9540972136369364</v>
       </c>
       <c r="F22">
-        <v>0.9772097012411951</v>
+        <v>0.977209701241195</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031567134751141</v>
+        <v>1.031567134751142</v>
       </c>
       <c r="J22">
         <v>0.9951160564729359</v>
@@ -1205,10 +1205,10 @@
         <v>1.005730438295429</v>
       </c>
       <c r="L22">
-        <v>0.9706363615583825</v>
+        <v>0.970636361558382</v>
       </c>
       <c r="M22">
-        <v>0.9932465735809886</v>
+        <v>0.9932465735809883</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9658987801579483</v>
+        <v>0.9658987801579477</v>
       </c>
       <c r="D23">
-        <v>0.9924889848943516</v>
+        <v>0.9924889848943508</v>
       </c>
       <c r="E23">
-        <v>0.9565136269688063</v>
+        <v>0.9565136269688057</v>
       </c>
       <c r="F23">
-        <v>0.9801281986163518</v>
+        <v>0.9801281986163509</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032841843884542</v>
+        <v>1.032841843884541</v>
       </c>
       <c r="J23">
-        <v>0.9975132224990773</v>
+        <v>0.9975132224990766</v>
       </c>
       <c r="K23">
-        <v>1.007894419732999</v>
+        <v>1.007894419732998</v>
       </c>
       <c r="L23">
-        <v>0.9726646108214927</v>
+        <v>0.972664610821492</v>
       </c>
       <c r="M23">
-        <v>0.9957816610746086</v>
+        <v>0.9957816610746077</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,31 +1257,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782180607290721</v>
+        <v>0.9782180607290708</v>
       </c>
       <c r="D24">
-        <v>1.002087660999917</v>
+        <v>1.002087660999916</v>
       </c>
       <c r="E24">
-        <v>0.9657242630252378</v>
+        <v>0.9657242630252373</v>
       </c>
       <c r="F24">
-        <v>0.9912117877635024</v>
+        <v>0.9912117877635016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037641450856722</v>
+        <v>1.03764145085672</v>
       </c>
       <c r="J24">
-        <v>1.006581161340982</v>
+        <v>1.006581161340981</v>
       </c>
       <c r="K24">
-        <v>1.016078213891726</v>
+        <v>1.016078213891725</v>
       </c>
       <c r="L24">
-        <v>0.9803812783460082</v>
+        <v>0.9803812783460074</v>
       </c>
       <c r="M24">
         <v>1.005395012186099</v>
@@ -1295,10 +1295,10 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9916142510854135</v>
+        <v>0.9916142510854133</v>
       </c>
       <c r="D25">
-        <v>1.012552183611031</v>
+        <v>1.01255218361103</v>
       </c>
       <c r="E25">
         <v>0.9758567138351986</v>
@@ -1322,7 +1322,7 @@
         <v>0.9888417543190191</v>
       </c>
       <c r="M25">
-        <v>1.015878077393155</v>
+        <v>1.015878077393156</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046638991351967</v>
+        <v>1.046638991351968</v>
       </c>
       <c r="J2">
         <v>1.023809094452202</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008669906943911</v>
+        <v>1.008669906943912</v>
       </c>
       <c r="D3">
         <v>1.025907995725039</v>
       </c>
       <c r="E3">
-        <v>0.9889369838330497</v>
+        <v>0.9889369838330503</v>
       </c>
       <c r="F3">
-        <v>1.018864250885957</v>
+        <v>1.018864250885958</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.049273145568149</v>
       </c>
       <c r="J3">
-        <v>1.028926979866908</v>
+        <v>1.028926979866909</v>
       </c>
       <c r="K3">
-        <v>1.036219772642201</v>
+        <v>1.036219772642202</v>
       </c>
       <c r="L3">
-        <v>0.9997134028305237</v>
+        <v>0.9997134028305241</v>
       </c>
       <c r="M3">
-        <v>1.029261318333267</v>
+        <v>1.029261318333268</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013060145211099</v>
+        <v>1.0130601452111</v>
       </c>
       <c r="D4">
         <v>1.02935052027004</v>
       </c>
       <c r="E4">
-        <v>0.9923376556840936</v>
+        <v>0.9923376556840932</v>
       </c>
       <c r="F4">
-        <v>1.022881735037328</v>
+        <v>1.022881735037329</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,10 +515,10 @@
         <v>1.050913579791626</v>
       </c>
       <c r="J4">
-        <v>1.032135570110395</v>
+        <v>1.032135570110396</v>
       </c>
       <c r="K4">
-        <v>1.03910715974513</v>
+        <v>1.039107159745131</v>
       </c>
       <c r="L4">
         <v>1.002529446711347</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014875493251957</v>
+        <v>1.014875493251956</v>
       </c>
       <c r="D5">
         <v>1.030774434984812</v>
       </c>
       <c r="E5">
-        <v>0.9937479853779765</v>
+        <v>0.993747985377976</v>
       </c>
       <c r="F5">
-        <v>1.024545311921052</v>
+        <v>1.024545311921051</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.051588548245231</v>
       </c>
       <c r="J5">
-        <v>1.033461011237626</v>
+        <v>1.033461011237625</v>
       </c>
       <c r="K5">
-        <v>1.040299447011778</v>
+        <v>1.040299447011777</v>
       </c>
       <c r="L5">
         <v>1.00369594601414</v>
       </c>
       <c r="M5">
-        <v>1.034138847438939</v>
+        <v>1.034138847438938</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015178567720869</v>
+        <v>1.015178567720868</v>
       </c>
       <c r="D6">
-        <v>1.031012182486519</v>
+        <v>1.031012182486518</v>
       </c>
       <c r="E6">
-        <v>0.9939836814276933</v>
+        <v>0.9939836814276929</v>
       </c>
       <c r="F6">
-        <v>1.024823183909316</v>
+        <v>1.024823183909315</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.051701036412035</v>
       </c>
       <c r="J6">
-        <v>1.033682217020608</v>
+        <v>1.033682217020607</v>
       </c>
       <c r="K6">
-        <v>1.040498402331695</v>
+        <v>1.040498402331694</v>
       </c>
       <c r="L6">
-        <v>1.003890812301609</v>
+        <v>1.003890812301608</v>
       </c>
       <c r="M6">
-        <v>1.034377152689531</v>
+        <v>1.03437715268953</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.013084518926961</v>
       </c>
       <c r="D7">
-        <v>1.029369636791481</v>
+        <v>1.029369636791482</v>
       </c>
       <c r="E7">
-        <v>0.9923565751829005</v>
+        <v>0.9923565751829009</v>
       </c>
       <c r="F7">
         <v>1.022904061792918</v>
@@ -629,13 +629,13 @@
         <v>1.050922655560451</v>
       </c>
       <c r="J7">
-        <v>1.0321533713283</v>
+        <v>1.032153371328301</v>
       </c>
       <c r="K7">
         <v>1.039123174531772</v>
       </c>
       <c r="L7">
-        <v>1.002545100656934</v>
+        <v>1.002545100656935</v>
       </c>
       <c r="M7">
         <v>1.032730784456079</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004070006592922</v>
+        <v>1.004070006592921</v>
       </c>
       <c r="D8">
-        <v>1.022302896083383</v>
+        <v>1.022302896083382</v>
       </c>
       <c r="E8">
-        <v>0.9853889470169414</v>
+        <v>0.9853889470169411</v>
       </c>
       <c r="F8">
-        <v>1.01466344856969</v>
+        <v>1.014663448569689</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.047542891064223</v>
       </c>
       <c r="J8">
-        <v>1.025560801776508</v>
+        <v>1.025560801776507</v>
       </c>
       <c r="K8">
-        <v>1.033189002927464</v>
+        <v>1.033189002927463</v>
       </c>
       <c r="L8">
         <v>0.9967705404781408</v>
       </c>
       <c r="M8">
-        <v>1.025648390940392</v>
+        <v>1.025648390940391</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -693,16 +693,16 @@
         <v>1.009005172833116</v>
       </c>
       <c r="E9">
-        <v>0.9724113007511517</v>
+        <v>0.9724113007511519</v>
       </c>
       <c r="F9">
-        <v>0.9992187265092942</v>
+        <v>0.9992187265092944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041064097741587</v>
+        <v>1.041064097741588</v>
       </c>
       <c r="J9">
         <v>1.013094670408425</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9748714821718547</v>
+        <v>0.9748714821718545</v>
       </c>
       <c r="D10">
         <v>0.9994776500974636</v>
       </c>
       <c r="E10">
-        <v>0.9632120356055413</v>
+        <v>0.9632120356055408</v>
       </c>
       <c r="F10">
-        <v>0.9881950657273033</v>
+        <v>0.9881950657273029</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>1.004118821238714</v>
       </c>
       <c r="K10">
-        <v>1.0138563421421</v>
+        <v>1.013856342142099</v>
       </c>
       <c r="L10">
-        <v>0.9782788691940163</v>
+        <v>0.9782788691940161</v>
       </c>
       <c r="M10">
         <v>1.002780784006046</v>
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9693437614907929</v>
+        <v>0.9693437614907928</v>
       </c>
       <c r="D11">
-        <v>0.9951705801614721</v>
+        <v>0.9951705801614719</v>
       </c>
       <c r="E11">
-        <v>0.9590790014079957</v>
+        <v>0.9590790014079958</v>
       </c>
       <c r="F11">
-        <v>0.9832217005495497</v>
+        <v>0.9832217005495498</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>0.9748162117131354</v>
       </c>
       <c r="M11">
-        <v>0.9984671225783717</v>
+        <v>0.9984671225783719</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672506862567957</v>
+        <v>0.9672506862567949</v>
       </c>
       <c r="D12">
-        <v>0.9935410676958715</v>
+        <v>0.9935410676958704</v>
       </c>
       <c r="E12">
-        <v>0.9575193981249961</v>
+        <v>0.957519398124996</v>
       </c>
       <c r="F12">
-        <v>0.9813416254704702</v>
+        <v>0.9813416254704692</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033370547981014</v>
+        <v>1.033370547981013</v>
       </c>
       <c r="J12">
-        <v>0.9985087656709124</v>
+        <v>0.9985087656709115</v>
       </c>
       <c r="K12">
-        <v>1.008793065711342</v>
+        <v>1.008793065711341</v>
       </c>
       <c r="L12">
         <v>0.9735083680591393</v>
       </c>
       <c r="M12">
-        <v>0.9968352385973773</v>
+        <v>0.9968352385973765</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9677015197695508</v>
+        <v>0.9677015197695507</v>
       </c>
       <c r="D13">
-        <v>0.9938919882187822</v>
+        <v>0.9938919882187821</v>
       </c>
       <c r="E13">
-        <v>0.9578550762690125</v>
+        <v>0.9578550762690123</v>
       </c>
       <c r="F13">
-        <v>0.9817464366475492</v>
+        <v>0.981746436647549</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.033546758181649</v>
       </c>
       <c r="J13">
-        <v>0.9988407396355719</v>
+        <v>0.9988407396355717</v>
       </c>
       <c r="K13">
         <v>1.009092720410643</v>
       </c>
       <c r="L13">
-        <v>0.9737899140909666</v>
+        <v>0.9737899140909664</v>
       </c>
       <c r="M13">
-        <v>0.9971866640660996</v>
+        <v>0.9971866640660991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9691715809899869</v>
+        <v>0.9691715809899873</v>
       </c>
       <c r="D14">
-        <v>0.9950365044191127</v>
+        <v>0.9950365044191128</v>
       </c>
       <c r="E14">
-        <v>0.9589505939913208</v>
+        <v>0.958950593991321</v>
       </c>
       <c r="F14">
-        <v>0.9830669777130856</v>
+        <v>0.9830669777130859</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034120975530176</v>
+        <v>1.034120975530177</v>
       </c>
       <c r="J14">
-        <v>0.9999231552273805</v>
+        <v>0.9999231552273807</v>
       </c>
       <c r="K14">
         <v>1.010069728629468</v>
       </c>
       <c r="L14">
-        <v>0.9747085571547739</v>
+        <v>0.974708557154774</v>
       </c>
       <c r="M14">
-        <v>0.9983328491406329</v>
+        <v>0.9983328491406332</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9700719470883223</v>
+        <v>0.9700719470883212</v>
       </c>
       <c r="D15">
-        <v>0.9957376697404995</v>
+        <v>0.9957376697404983</v>
       </c>
       <c r="E15">
-        <v>0.9596222827139911</v>
+        <v>0.9596222827139906</v>
       </c>
       <c r="F15">
-        <v>0.9838761813498017</v>
+        <v>0.9838761813498011</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.034472386390366</v>
       </c>
       <c r="J15">
-        <v>1.00058604263821</v>
+        <v>1.000586042638209</v>
       </c>
       <c r="K15">
-        <v>1.010668040087304</v>
+        <v>1.010668040087303</v>
       </c>
       <c r="L15">
-        <v>0.9752716401062564</v>
+        <v>0.9752716401062559</v>
       </c>
       <c r="M15">
-        <v>0.9990350533917159</v>
+        <v>0.9990350533917154</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9752329483936406</v>
+        <v>0.9752329483936414</v>
       </c>
       <c r="D16">
-        <v>0.9997594726549636</v>
+        <v>0.9997594726549642</v>
       </c>
       <c r="E16">
-        <v>0.9634830187164892</v>
+        <v>0.9634830187164899</v>
       </c>
       <c r="F16">
-        <v>0.9885206945649447</v>
+        <v>0.9885206945649458</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>1.014096380736462</v>
       </c>
       <c r="L16">
-        <v>0.9785057332800831</v>
+        <v>0.9785057332800837</v>
       </c>
       <c r="M16">
-        <v>1.003063053924404</v>
+        <v>1.003063053924405</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784031024965898</v>
+        <v>0.9784031024965897</v>
       </c>
       <c r="D17">
         <v>1.002232027586001</v>
       </c>
       <c r="E17">
-        <v>0.9658633919475571</v>
+        <v>0.9658633919475573</v>
       </c>
       <c r="F17">
-        <v>0.9913787176808136</v>
+        <v>0.9913787176808134</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>1.016201034129786</v>
       </c>
       <c r="L17">
-        <v>0.980497658376095</v>
+        <v>0.9804976583760953</v>
       </c>
       <c r="M17">
-        <v>1.005539616869202</v>
+        <v>1.005539616869201</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.98022904518489</v>
+        <v>0.9802290451848905</v>
       </c>
       <c r="D18">
-        <v>1.003656882742188</v>
+        <v>1.003656882742189</v>
       </c>
       <c r="E18">
-        <v>0.9672375212691572</v>
+        <v>0.9672375212691571</v>
       </c>
       <c r="F18">
-        <v>0.9930266508364333</v>
+        <v>0.9930266508364336</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.03842069658025</v>
       </c>
       <c r="J18">
-        <v>1.008060360221242</v>
+        <v>1.008060360221243</v>
       </c>
       <c r="K18">
-        <v>1.017412790774248</v>
+        <v>1.017412790774249</v>
       </c>
       <c r="L18">
-        <v>0.9816468021501278</v>
+        <v>0.9816468021501276</v>
       </c>
       <c r="M18">
-        <v>1.00696684889135</v>
+        <v>1.006966848891351</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,10 +1073,10 @@
         <v>1.004139847581468</v>
       </c>
       <c r="E19">
-        <v>0.9677036927309185</v>
+        <v>0.9677036927309186</v>
       </c>
       <c r="F19">
-        <v>0.9935853896431556</v>
+        <v>0.993585389643156</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>1.017823340432434</v>
       </c>
       <c r="L19">
-        <v>0.9820365218859378</v>
+        <v>0.9820365218859379</v>
       </c>
       <c r="M19">
         <v>1.007450630438267</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780653930742923</v>
+        <v>0.9780653930742931</v>
       </c>
       <c r="D20">
-        <v>1.001968556199413</v>
+        <v>1.001968556199414</v>
       </c>
       <c r="E20">
-        <v>0.9656094929341783</v>
+        <v>0.9656094929341784</v>
       </c>
       <c r="F20">
-        <v>0.9910740731998664</v>
+        <v>0.991074073199867</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0375822404927</v>
+        <v>1.037582240492701</v>
       </c>
       <c r="J20">
         <v>1.006468851117746</v>
       </c>
       <c r="K20">
-        <v>1.015976879014899</v>
+        <v>1.0159768790149</v>
       </c>
       <c r="L20">
-        <v>0.9802852700354915</v>
+        <v>0.9802852700354916</v>
       </c>
       <c r="M20">
-        <v>1.005275711330709</v>
+        <v>1.00527571133071</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9687398136192772</v>
+        <v>0.9687398136192779</v>
       </c>
       <c r="D21">
-        <v>0.9947003128231658</v>
+        <v>0.9947003128231664</v>
       </c>
       <c r="E21">
-        <v>0.9586286817359377</v>
+        <v>0.9586286817359378</v>
       </c>
       <c r="F21">
-        <v>0.9826790385176116</v>
+        <v>0.9826790385176125</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.033952381943982</v>
       </c>
       <c r="J21">
-        <v>0.9996052540024821</v>
+        <v>0.999605254002483</v>
       </c>
       <c r="K21">
         <v>1.009782789851098</v>
       </c>
       <c r="L21">
-        <v>0.9744386519802246</v>
+        <v>0.9744386519802247</v>
       </c>
       <c r="M21">
-        <v>0.9979961638458796</v>
+        <v>0.9979961638458803</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1187,16 +1187,16 @@
         <v>0.9899573748908749</v>
       </c>
       <c r="E22">
-        <v>0.9540972136369364</v>
+        <v>0.9540972136369371</v>
       </c>
       <c r="F22">
-        <v>0.977209701241195</v>
+        <v>0.9772097012411951</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031567134751142</v>
+        <v>1.031567134751141</v>
       </c>
       <c r="J22">
         <v>0.9951160564729359</v>
@@ -1205,10 +1205,10 @@
         <v>1.005730438295429</v>
       </c>
       <c r="L22">
-        <v>0.970636361558382</v>
+        <v>0.9706363615583825</v>
       </c>
       <c r="M22">
-        <v>0.9932465735809883</v>
+        <v>0.9932465735809886</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9658987801579477</v>
+        <v>0.9658987801579483</v>
       </c>
       <c r="D23">
-        <v>0.9924889848943508</v>
+        <v>0.9924889848943516</v>
       </c>
       <c r="E23">
-        <v>0.9565136269688057</v>
+        <v>0.9565136269688063</v>
       </c>
       <c r="F23">
-        <v>0.9801281986163509</v>
+        <v>0.9801281986163518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032841843884541</v>
+        <v>1.032841843884542</v>
       </c>
       <c r="J23">
-        <v>0.9975132224990766</v>
+        <v>0.9975132224990773</v>
       </c>
       <c r="K23">
-        <v>1.007894419732998</v>
+        <v>1.007894419732999</v>
       </c>
       <c r="L23">
-        <v>0.972664610821492</v>
+        <v>0.9726646108214927</v>
       </c>
       <c r="M23">
-        <v>0.9957816610746077</v>
+        <v>0.9957816610746086</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,31 +1257,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782180607290708</v>
+        <v>0.9782180607290721</v>
       </c>
       <c r="D24">
-        <v>1.002087660999916</v>
+        <v>1.002087660999917</v>
       </c>
       <c r="E24">
-        <v>0.9657242630252373</v>
+        <v>0.9657242630252378</v>
       </c>
       <c r="F24">
-        <v>0.9912117877635016</v>
+        <v>0.9912117877635024</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03764145085672</v>
+        <v>1.037641450856722</v>
       </c>
       <c r="J24">
-        <v>1.006581161340981</v>
+        <v>1.006581161340982</v>
       </c>
       <c r="K24">
-        <v>1.016078213891725</v>
+        <v>1.016078213891726</v>
       </c>
       <c r="L24">
-        <v>0.9803812783460074</v>
+        <v>0.9803812783460082</v>
       </c>
       <c r="M24">
         <v>1.005395012186099</v>
@@ -1295,10 +1295,10 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9916142510854133</v>
+        <v>0.9916142510854135</v>
       </c>
       <c r="D25">
-        <v>1.01255218361103</v>
+        <v>1.012552183611031</v>
       </c>
       <c r="E25">
         <v>0.9758567138351986</v>
@@ -1322,7 +1322,7 @@
         <v>0.9888417543190191</v>
       </c>
       <c r="M25">
-        <v>1.015878077393156</v>
+        <v>1.015878077393155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001678470511162</v>
+        <v>1.001685255444189</v>
       </c>
       <c r="D2">
-        <v>1.02042938813555</v>
+        <v>1.020435036774211</v>
       </c>
       <c r="E2">
-        <v>0.9835502741235418</v>
+        <v>0.9835592238349909</v>
       </c>
       <c r="F2">
-        <v>1.012482814829188</v>
+        <v>1.012489342311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046638991351968</v>
+        <v>1.046642274446451</v>
       </c>
       <c r="J2">
-        <v>1.023809094452202</v>
+        <v>1.023815677384763</v>
       </c>
       <c r="K2">
-        <v>1.031611260980326</v>
+        <v>1.031616834829842</v>
       </c>
       <c r="L2">
-        <v>0.995243638594227</v>
+        <v>0.9952524582800123</v>
       </c>
       <c r="M2">
-        <v>1.023770940901806</v>
+        <v>1.023777380244403</v>
+      </c>
+      <c r="N2">
+        <v>1.017165888004589</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008669906943912</v>
+        <v>1.008671872782288</v>
       </c>
       <c r="D3">
-        <v>1.025907995725039</v>
+        <v>1.025909710734038</v>
       </c>
       <c r="E3">
-        <v>0.9889369838330503</v>
+        <v>0.988943555414959</v>
       </c>
       <c r="F3">
-        <v>1.018864250885958</v>
+        <v>1.01886713915493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049273145568149</v>
+        <v>1.049274160355575</v>
       </c>
       <c r="J3">
-        <v>1.028926979866909</v>
+        <v>1.028928893358354</v>
       </c>
       <c r="K3">
-        <v>1.036219772642202</v>
+        <v>1.036221467061653</v>
       </c>
       <c r="L3">
-        <v>0.9997134028305241</v>
+        <v>0.9997198879538416</v>
       </c>
       <c r="M3">
-        <v>1.029261318333268</v>
+        <v>1.029264171328661</v>
+      </c>
+      <c r="N3">
+        <v>1.020776722886326</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0130601452111</v>
+        <v>1.013059133389371</v>
       </c>
       <c r="D4">
-        <v>1.02935052027004</v>
+        <v>1.029349799504165</v>
       </c>
       <c r="E4">
-        <v>0.9923376556840932</v>
+        <v>0.9923427738077253</v>
       </c>
       <c r="F4">
-        <v>1.022881735037329</v>
+        <v>1.022882379484013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050913579791626</v>
+        <v>1.050913187461661</v>
       </c>
       <c r="J4">
-        <v>1.032135570110396</v>
+        <v>1.032134583280367</v>
       </c>
       <c r="K4">
-        <v>1.039107159745131</v>
+        <v>1.03910644707769</v>
       </c>
       <c r="L4">
-        <v>1.002529446711347</v>
+        <v>1.00253450187174</v>
       </c>
       <c r="M4">
-        <v>1.032711623868084</v>
+        <v>1.032712260960446</v>
+      </c>
+      <c r="N4">
+        <v>1.023037650193768</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014875493251956</v>
+        <v>1.014873260432827</v>
       </c>
       <c r="D5">
-        <v>1.030774434984812</v>
+        <v>1.030772714300146</v>
       </c>
       <c r="E5">
-        <v>0.993747985377976</v>
+        <v>0.993752511395645</v>
       </c>
       <c r="F5">
-        <v>1.024545311921051</v>
+        <v>1.024545037433272</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051588548245231</v>
+        <v>1.051587577688778</v>
       </c>
       <c r="J5">
-        <v>1.033461011237625</v>
+        <v>1.033458831810821</v>
       </c>
       <c r="K5">
-        <v>1.040299447011777</v>
+        <v>1.040297745115113</v>
       </c>
       <c r="L5">
-        <v>1.00369594601414</v>
+        <v>1.003700417944322</v>
       </c>
       <c r="M5">
-        <v>1.034138847438938</v>
+        <v>1.034138575993235</v>
+      </c>
+      <c r="N5">
+        <v>1.023970921016453</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015178567720868</v>
+        <v>1.0151761316205</v>
       </c>
       <c r="D6">
-        <v>1.031012182486518</v>
+        <v>1.031010295265052</v>
       </c>
       <c r="E6">
-        <v>0.9939836814276929</v>
+        <v>0.9939881090972612</v>
       </c>
       <c r="F6">
-        <v>1.024823183909315</v>
+        <v>1.024822756497701</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051701036412035</v>
+        <v>1.051699969517974</v>
       </c>
       <c r="J6">
-        <v>1.033682217020607</v>
+        <v>1.033679838854801</v>
       </c>
       <c r="K6">
-        <v>1.040498402331694</v>
+        <v>1.040496535616898</v>
       </c>
       <c r="L6">
-        <v>1.003890812301608</v>
+        <v>1.003895187318524</v>
       </c>
       <c r="M6">
-        <v>1.03437715268953</v>
+        <v>1.034376729991375</v>
+      </c>
+      <c r="N6">
+        <v>1.024126635017591</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013084518926961</v>
+        <v>1.013083490672676</v>
       </c>
       <c r="D7">
-        <v>1.029369636791482</v>
+        <v>1.029368902572685</v>
       </c>
       <c r="E7">
-        <v>0.9923565751829009</v>
+        <v>0.9923616853222813</v>
       </c>
       <c r="F7">
-        <v>1.022904061792918</v>
+        <v>1.022904693867738</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050922655560451</v>
+        <v>1.050922255453312</v>
       </c>
       <c r="J7">
-        <v>1.032153371328301</v>
+        <v>1.032152368460686</v>
       </c>
       <c r="K7">
-        <v>1.039123174531772</v>
+        <v>1.039122448559437</v>
       </c>
       <c r="L7">
-        <v>1.002545100656935</v>
+        <v>1.002550147955458</v>
       </c>
       <c r="M7">
-        <v>1.032730784456079</v>
+        <v>1.03273140932056</v>
+      </c>
+      <c r="N7">
+        <v>1.023050187194159</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004070006592921</v>
+        <v>1.004075131953955</v>
       </c>
       <c r="D8">
-        <v>1.022302896083382</v>
+        <v>1.022307191285006</v>
       </c>
       <c r="E8">
-        <v>0.9853889470169411</v>
+        <v>0.9853970743977711</v>
       </c>
       <c r="F8">
-        <v>1.014663448569689</v>
+        <v>1.014668721776149</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047542891064223</v>
+        <v>1.04754539426301</v>
       </c>
       <c r="J8">
-        <v>1.025560801776507</v>
+        <v>1.025565780108338</v>
       </c>
       <c r="K8">
-        <v>1.033189002927463</v>
+        <v>1.033193243079219</v>
       </c>
       <c r="L8">
-        <v>0.9967705404781408</v>
+        <v>0.9967785536076115</v>
       </c>
       <c r="M8">
-        <v>1.025648390940391</v>
+        <v>1.025653595281694</v>
+      </c>
+      <c r="N8">
+        <v>1.018402362737342</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9870771730896605</v>
+        <v>0.9870943663734285</v>
       </c>
       <c r="D9">
-        <v>1.009005172833116</v>
+        <v>1.009019279839714</v>
       </c>
       <c r="E9">
-        <v>0.9724113007511519</v>
+        <v>0.9724254758766584</v>
       </c>
       <c r="F9">
-        <v>0.9992187265092944</v>
+        <v>0.9992331416603989</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041064097741588</v>
+        <v>1.04107224238371</v>
       </c>
       <c r="J9">
-        <v>1.013094670408425</v>
+        <v>1.013111234014929</v>
       </c>
       <c r="K9">
-        <v>1.021953817621898</v>
+        <v>1.021967700959141</v>
       </c>
       <c r="L9">
-        <v>0.9859684278271393</v>
+        <v>0.9859823557685409</v>
       </c>
       <c r="M9">
-        <v>1.012324492060931</v>
+        <v>1.012338672870596</v>
+      </c>
+      <c r="N9">
+        <v>1.009591416162203</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9748714821718545</v>
+        <v>0.974897787347464</v>
       </c>
       <c r="D10">
-        <v>0.9994776500974636</v>
+        <v>0.9994991174727547</v>
       </c>
       <c r="E10">
-        <v>0.9632120356055408</v>
+        <v>0.9632308604506068</v>
       </c>
       <c r="F10">
-        <v>0.9881950657273029</v>
+        <v>0.9882164102244541</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036341879364721</v>
+        <v>1.036354238313042</v>
       </c>
       <c r="J10">
-        <v>1.004118821238714</v>
+        <v>1.004144004511355</v>
       </c>
       <c r="K10">
-        <v>1.013856342142099</v>
+        <v>1.013877421401169</v>
       </c>
       <c r="L10">
-        <v>0.9782788691940161</v>
+        <v>0.9782973191622699</v>
       </c>
       <c r="M10">
-        <v>1.002780784006046</v>
+        <v>1.002801731026014</v>
+      </c>
+      <c r="N10">
+        <v>1.003233590955994</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9693437614907928</v>
+        <v>0.969374333206093</v>
       </c>
       <c r="D11">
-        <v>0.9951705801614719</v>
+        <v>0.9951954790992374</v>
       </c>
       <c r="E11">
-        <v>0.9590790014079958</v>
+        <v>0.9591000211035509</v>
       </c>
       <c r="F11">
-        <v>0.9832217005495498</v>
+        <v>0.9832462954738426</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03418819377224</v>
+        <v>1.034202512786035</v>
       </c>
       <c r="J11">
-        <v>1.000049925264762</v>
+        <v>1.000079106912162</v>
       </c>
       <c r="K11">
-        <v>1.01018415059538</v>
+        <v>1.010208574008967</v>
       </c>
       <c r="L11">
-        <v>0.9748162117131354</v>
+        <v>0.9748367889865057</v>
       </c>
       <c r="M11">
-        <v>0.9984671225783719</v>
+        <v>0.9984912326712962</v>
+      </c>
+      <c r="N11">
+        <v>1.000348555192398</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672506862567949</v>
+        <v>0.9672828980702146</v>
       </c>
       <c r="D12">
-        <v>0.9935410676958704</v>
+        <v>0.99356728318762</v>
       </c>
       <c r="E12">
-        <v>0.957519398124996</v>
+        <v>0.9575412639536047</v>
       </c>
       <c r="F12">
-        <v>0.9813416254704692</v>
+        <v>0.9813674706953776</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033370547981013</v>
+        <v>1.033385618232026</v>
       </c>
       <c r="J12">
-        <v>0.9985087656709115</v>
+        <v>0.9985394779735237</v>
       </c>
       <c r="K12">
-        <v>1.008793065711341</v>
+        <v>1.008818770372384</v>
       </c>
       <c r="L12">
-        <v>0.9735083680591393</v>
+        <v>0.9735297642228762</v>
       </c>
       <c r="M12">
-        <v>0.9968352385973765</v>
+        <v>0.9968605635878813</v>
+      </c>
+      <c r="N12">
+        <v>0.9992553935393695</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9677015197695507</v>
+        <v>0.967733377145464</v>
       </c>
       <c r="D13">
-        <v>0.9938919882187821</v>
+        <v>0.9939179193150579</v>
       </c>
       <c r="E13">
-        <v>0.9578550762690123</v>
+        <v>0.9578767591377928</v>
       </c>
       <c r="F13">
-        <v>0.981746436647549</v>
+        <v>0.981772011638259</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033546758181649</v>
+        <v>1.033561666189294</v>
       </c>
       <c r="J13">
-        <v>0.9988407396355717</v>
+        <v>0.9988711214502934</v>
       </c>
       <c r="K13">
-        <v>1.009092720410643</v>
+        <v>1.009118148385404</v>
       </c>
       <c r="L13">
-        <v>0.9737899140909664</v>
+        <v>0.9738111332416085</v>
       </c>
       <c r="M13">
-        <v>0.9971866640660991</v>
+        <v>0.9972117265583265</v>
+      </c>
+      <c r="N13">
+        <v>0.999490884228829</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9691715809899873</v>
+        <v>0.969202287102359</v>
       </c>
       <c r="D14">
-        <v>0.9950365044191128</v>
+        <v>0.9950615112952605</v>
       </c>
       <c r="E14">
-        <v>0.958950593991321</v>
+        <v>0.9589716829757756</v>
       </c>
       <c r="F14">
-        <v>0.9830669777130859</v>
+        <v>0.9830916750769215</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034120975530177</v>
+        <v>1.034135356150244</v>
       </c>
       <c r="J14">
-        <v>0.9999231552273807</v>
+        <v>0.9999524624361076</v>
       </c>
       <c r="K14">
-        <v>1.010069728629468</v>
+        <v>1.010094257123524</v>
       </c>
       <c r="L14">
-        <v>0.974708557154774</v>
+        <v>0.974729201511093</v>
       </c>
       <c r="M14">
-        <v>0.9983328491406332</v>
+        <v>0.9983570588098544</v>
+      </c>
+      <c r="N14">
+        <v>1.000258643869599</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9700719470883212</v>
+        <v>0.9701019514326319</v>
       </c>
       <c r="D15">
-        <v>0.9957376697404983</v>
+        <v>0.9957621128993831</v>
       </c>
       <c r="E15">
-        <v>0.9596222827139906</v>
+        <v>0.959643009995181</v>
       </c>
       <c r="F15">
-        <v>0.9838761813498011</v>
+        <v>0.9839003438471273</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034472386390366</v>
+        <v>1.034486445235401</v>
       </c>
       <c r="J15">
-        <v>1.000586042638209</v>
+        <v>1.000614693954587</v>
       </c>
       <c r="K15">
-        <v>1.010668040087303</v>
+        <v>1.010692019717226</v>
       </c>
       <c r="L15">
-        <v>0.9752716401062559</v>
+        <v>0.9752919342256403</v>
       </c>
       <c r="M15">
-        <v>0.9990350533917154</v>
+        <v>0.9990587430704604</v>
+      </c>
+      <c r="N15">
+        <v>1.000728778679797</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9752329483936414</v>
+        <v>0.9752589777533012</v>
       </c>
       <c r="D16">
-        <v>0.9997594726549642</v>
+        <v>0.9997807178625024</v>
       </c>
       <c r="E16">
-        <v>0.9634830187164899</v>
+        <v>0.9635017020141025</v>
       </c>
       <c r="F16">
-        <v>0.9885206945649458</v>
+        <v>0.9885418290477875</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036482409523772</v>
+        <v>1.036494641471816</v>
       </c>
       <c r="J16">
-        <v>1.004384821401737</v>
+        <v>1.004409745369616</v>
       </c>
       <c r="K16">
-        <v>1.014096380736462</v>
+        <v>1.014117243254493</v>
       </c>
       <c r="L16">
-        <v>0.9785057332800837</v>
+        <v>0.9785240459000784</v>
       </c>
       <c r="M16">
-        <v>1.003063053924405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.003083796339279</v>
+      </c>
+      <c r="N16">
+        <v>1.003422139401887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784031024965897</v>
+        <v>0.9784267290236079</v>
       </c>
       <c r="D17">
-        <v>1.002232027586001</v>
+        <v>1.002251335649717</v>
       </c>
       <c r="E17">
-        <v>0.9658633919475573</v>
+        <v>0.9658808440568861</v>
       </c>
       <c r="F17">
-        <v>0.9913787176808134</v>
+        <v>0.9913980232179517</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037713207332619</v>
+        <v>1.037724331397999</v>
       </c>
       <c r="J17">
-        <v>1.006717285038067</v>
+        <v>1.006739945765679</v>
       </c>
       <c r="K17">
-        <v>1.016201034129786</v>
+        <v>1.016220005611295</v>
       </c>
       <c r="L17">
-        <v>0.9804976583760953</v>
+        <v>0.9805147755183512</v>
       </c>
       <c r="M17">
-        <v>1.005539616869201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.005558576227988</v>
+      </c>
+      <c r="N17">
+        <v>1.005075128664121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802290451848905</v>
+        <v>0.9802513006153029</v>
       </c>
       <c r="D18">
-        <v>1.003656882742189</v>
+        <v>1.003675084096827</v>
       </c>
       <c r="E18">
-        <v>0.9672375212691571</v>
+        <v>0.9672542724855</v>
       </c>
       <c r="F18">
-        <v>0.9930266508364336</v>
+        <v>0.9930449132894406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03842069658025</v>
+        <v>1.038431187268135</v>
       </c>
       <c r="J18">
-        <v>1.008060360221243</v>
+        <v>1.008081726085915</v>
       </c>
       <c r="K18">
-        <v>1.017412790774249</v>
+        <v>1.017430680908094</v>
       </c>
       <c r="L18">
-        <v>0.9816468021501276</v>
+        <v>0.9816632380703116</v>
       </c>
       <c r="M18">
-        <v>1.006966848891351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.006984790354043</v>
+      </c>
+      <c r="N18">
+        <v>1.006026672629177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9808478130875953</v>
+        <v>0.980869605976546</v>
       </c>
       <c r="D19">
-        <v>1.004139847581468</v>
+        <v>1.004157675367555</v>
       </c>
       <c r="E19">
-        <v>0.9677036927309186</v>
+        <v>0.9677202077850476</v>
       </c>
       <c r="F19">
-        <v>0.993585389643156</v>
+        <v>0.993603300303991</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038660202734418</v>
+        <v>1.038670479554228</v>
       </c>
       <c r="J19">
-        <v>1.008515429050956</v>
+        <v>1.008536357530455</v>
       </c>
       <c r="K19">
-        <v>1.017823340432434</v>
+        <v>1.017840865396557</v>
       </c>
       <c r="L19">
-        <v>0.9820365218859379</v>
+        <v>0.9820527281632855</v>
       </c>
       <c r="M19">
-        <v>1.007450630438267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.007468228441647</v>
+      </c>
+      <c r="N19">
+        <v>1.006349032522702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780653930742931</v>
+        <v>0.9780892742072541</v>
       </c>
       <c r="D20">
-        <v>1.001968556199414</v>
+        <v>1.001988069666566</v>
       </c>
       <c r="E20">
-        <v>0.9656094929341784</v>
+        <v>0.9656270753312172</v>
       </c>
       <c r="F20">
-        <v>0.991074073199867</v>
+        <v>0.9910935724772449</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037582240492701</v>
+        <v>1.037593482077018</v>
       </c>
       <c r="J20">
-        <v>1.006468851117746</v>
+        <v>1.006491752021324</v>
       </c>
       <c r="K20">
-        <v>1.0159768790149</v>
+        <v>1.015996051114144</v>
       </c>
       <c r="L20">
-        <v>0.9802852700354916</v>
+        <v>0.9803025137559566</v>
       </c>
       <c r="M20">
-        <v>1.00527571133071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.005294859672438</v>
+      </c>
+      <c r="N20">
+        <v>1.004899095119934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9687398136192779</v>
+        <v>0.9687708571597833</v>
       </c>
       <c r="D21">
-        <v>0.9947003128231664</v>
+        <v>0.9947255906557126</v>
       </c>
       <c r="E21">
-        <v>0.9586286817359378</v>
+        <v>0.9586499447204034</v>
       </c>
       <c r="F21">
-        <v>0.9826790385176125</v>
+        <v>0.9827039930870474</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033952381943982</v>
+        <v>1.033966917201132</v>
       </c>
       <c r="J21">
-        <v>0.999605254002483</v>
+        <v>0.9996348763512966</v>
       </c>
       <c r="K21">
-        <v>1.009782789851098</v>
+        <v>1.009807582098423</v>
       </c>
       <c r="L21">
-        <v>0.9744386519802247</v>
+        <v>0.9744594647772626</v>
       </c>
       <c r="M21">
-        <v>0.9979961638458803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.998020623502182</v>
+      </c>
+      <c r="N21">
+        <v>1.000033166798932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9626439728084698</v>
+        <v>0.9626798441812433</v>
       </c>
       <c r="D22">
-        <v>0.9899573748908749</v>
+        <v>0.9899865228140011</v>
       </c>
       <c r="E22">
-        <v>0.9540972136369371</v>
+        <v>0.9541209716077692</v>
       </c>
       <c r="F22">
-        <v>0.9772097012411951</v>
+        <v>0.9772383376614525</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031567134751141</v>
+        <v>1.031583876797641</v>
       </c>
       <c r="J22">
-        <v>0.9951160564729359</v>
+        <v>0.9951501714743979</v>
       </c>
       <c r="K22">
-        <v>1.005730438295429</v>
+        <v>1.005758993270955</v>
       </c>
       <c r="L22">
-        <v>0.9706363615583825</v>
+        <v>0.9706595865727711</v>
       </c>
       <c r="M22">
-        <v>0.9932465735809886</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9932746071740887</v>
+      </c>
+      <c r="N22">
+        <v>0.9968481929338753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9658987801579483</v>
+        <v>0.9659320587257324</v>
       </c>
       <c r="D23">
-        <v>0.9924889848943516</v>
+        <v>0.9925160559280728</v>
       </c>
       <c r="E23">
-        <v>0.9565136269688063</v>
+        <v>0.9565360437855207</v>
       </c>
       <c r="F23">
-        <v>0.9801281986163518</v>
+        <v>0.9801548572791815</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032841843884542</v>
+        <v>1.032857402093536</v>
       </c>
       <c r="J23">
-        <v>0.9975132224990773</v>
+        <v>0.997544928484167</v>
       </c>
       <c r="K23">
-        <v>1.007894419732999</v>
+        <v>1.007920956471857</v>
       </c>
       <c r="L23">
-        <v>0.9726646108214927</v>
+        <v>0.9726865398789993</v>
       </c>
       <c r="M23">
-        <v>0.9957816610746086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9958077759383329</v>
+      </c>
+      <c r="N23">
+        <v>0.998549132981815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782180607290721</v>
+        <v>0.9782418267230378</v>
       </c>
       <c r="D24">
-        <v>1.002087660999917</v>
+        <v>1.002107081582804</v>
       </c>
       <c r="E24">
-        <v>0.9657242630252378</v>
+        <v>0.9657417864978639</v>
       </c>
       <c r="F24">
-        <v>0.9912117877635024</v>
+        <v>0.9912311994251368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037641450856722</v>
+        <v>1.037652639299847</v>
       </c>
       <c r="J24">
-        <v>1.006581161340982</v>
+        <v>1.006603953641767</v>
       </c>
       <c r="K24">
-        <v>1.016078213891726</v>
+        <v>1.016097295273863</v>
       </c>
       <c r="L24">
-        <v>0.9803812783460082</v>
+        <v>0.9803984648217807</v>
       </c>
       <c r="M24">
-        <v>1.005395012186099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.005414075066548</v>
+      </c>
+      <c r="N24">
+        <v>1.004978675965334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9916142510854135</v>
+        <v>0.9916281566447915</v>
       </c>
       <c r="D25">
-        <v>1.012552183611031</v>
+        <v>1.012563624547454</v>
       </c>
       <c r="E25">
-        <v>0.9758567138351986</v>
+        <v>0.975869226962544</v>
       </c>
       <c r="F25">
-        <v>1.003331255703714</v>
+        <v>1.00334317573029</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042805960956755</v>
+        <v>1.042812575481688</v>
       </c>
       <c r="J25">
-        <v>1.016427162744205</v>
+        <v>1.016440589215969</v>
       </c>
       <c r="K25">
-        <v>1.02495871867205</v>
+        <v>1.024969987567288</v>
       </c>
       <c r="L25">
-        <v>0.9888417543190191</v>
+        <v>0.9888540606346454</v>
       </c>
       <c r="M25">
-        <v>1.015878077393155</v>
+        <v>1.015889813944638</v>
+      </c>
+      <c r="N25">
+        <v>1.011949233342631</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001685255444189</v>
+        <v>1.012929648064709</v>
       </c>
       <c r="D2">
-        <v>1.020435036774211</v>
+        <v>1.032484359688233</v>
       </c>
       <c r="E2">
-        <v>0.9835592238349909</v>
+        <v>1.028930784829552</v>
       </c>
       <c r="F2">
-        <v>1.012489342311</v>
+        <v>1.038895755287981</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046642274446451</v>
+        <v>1.049074292626825</v>
       </c>
       <c r="J2">
-        <v>1.023815677384763</v>
+        <v>1.034730395106961</v>
       </c>
       <c r="K2">
-        <v>1.031616834829842</v>
+        <v>1.043508951983408</v>
       </c>
       <c r="L2">
-        <v>0.9952524582800123</v>
+        <v>1.040001260920421</v>
       </c>
       <c r="M2">
-        <v>1.023777380244403</v>
+        <v>1.049838554925292</v>
       </c>
       <c r="N2">
-        <v>1.017165888004589</v>
+        <v>1.036199830953248</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008671872782288</v>
+        <v>1.019639191299533</v>
       </c>
       <c r="D3">
-        <v>1.025909710734038</v>
+        <v>1.037608339557999</v>
       </c>
       <c r="E3">
-        <v>0.988943555414959</v>
+        <v>1.034140701086286</v>
       </c>
       <c r="F3">
-        <v>1.01886713915493</v>
+        <v>1.044399760822679</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049274160355575</v>
+        <v>1.050926728880924</v>
       </c>
       <c r="J3">
-        <v>1.028928893358354</v>
+        <v>1.039608422655232</v>
       </c>
       <c r="K3">
-        <v>1.036221467061653</v>
+        <v>1.047781607362311</v>
       </c>
       <c r="L3">
-        <v>0.9997198879538416</v>
+        <v>1.04435461433057</v>
       </c>
       <c r="M3">
-        <v>1.029264171328661</v>
+        <v>1.054494389545584</v>
       </c>
       <c r="N3">
-        <v>1.020776722886326</v>
+        <v>1.041084785860155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013059133389371</v>
+        <v>1.02386516945837</v>
       </c>
       <c r="D4">
-        <v>1.029349799504165</v>
+        <v>1.040838786171511</v>
       </c>
       <c r="E4">
-        <v>0.9923427738077253</v>
+        <v>1.0374346300186</v>
       </c>
       <c r="F4">
-        <v>1.022882379484013</v>
+        <v>1.047874978594926</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050913187461661</v>
+        <v>1.052082301507325</v>
       </c>
       <c r="J4">
-        <v>1.032134583280367</v>
+        <v>1.042677494359462</v>
       </c>
       <c r="K4">
-        <v>1.03910644707769</v>
+        <v>1.050468094904613</v>
       </c>
       <c r="L4">
-        <v>1.00253450187174</v>
+        <v>1.047101307548117</v>
       </c>
       <c r="M4">
-        <v>1.032712260960446</v>
+        <v>1.057427991569749</v>
       </c>
       <c r="N4">
-        <v>1.023037650193768</v>
+        <v>1.044158215998233</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014873260432827</v>
+        <v>1.02561548123049</v>
       </c>
       <c r="D5">
-        <v>1.030772714300146</v>
+        <v>1.042177417434807</v>
       </c>
       <c r="E5">
-        <v>0.993752511395645</v>
+        <v>1.038801769724218</v>
       </c>
       <c r="F5">
-        <v>1.024545037433272</v>
+        <v>1.049316273915551</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051587577688778</v>
+        <v>1.052558171350236</v>
       </c>
       <c r="J5">
-        <v>1.033458831810821</v>
+        <v>1.043947777034742</v>
       </c>
       <c r="K5">
-        <v>1.040297745115113</v>
+        <v>1.051579589520651</v>
       </c>
       <c r="L5">
-        <v>1.003700417944322</v>
+        <v>1.048239962102709</v>
       </c>
       <c r="M5">
-        <v>1.034138575993235</v>
+        <v>1.058643202658088</v>
       </c>
       <c r="N5">
-        <v>1.023970921016453</v>
+        <v>1.045430302620615</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0151761316205</v>
+        <v>1.025907862707862</v>
       </c>
       <c r="D6">
-        <v>1.031010295265052</v>
+        <v>1.042401064802639</v>
       </c>
       <c r="E6">
-        <v>0.9939881090972612</v>
+        <v>1.039030308763745</v>
       </c>
       <c r="F6">
-        <v>1.024822756497701</v>
+        <v>1.0495571460202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051699969517974</v>
+        <v>1.05263750006851</v>
       </c>
       <c r="J6">
-        <v>1.033679838854801</v>
+        <v>1.044159919385911</v>
       </c>
       <c r="K6">
-        <v>1.040496535616898</v>
+        <v>1.051765187125691</v>
       </c>
       <c r="L6">
-        <v>1.003895187318524</v>
+        <v>1.048430226710503</v>
       </c>
       <c r="M6">
-        <v>1.034376729991375</v>
+        <v>1.058846205505778</v>
       </c>
       <c r="N6">
-        <v>1.024126635017591</v>
+        <v>1.045642746238256</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013083490672676</v>
+        <v>1.023888658767964</v>
       </c>
       <c r="D7">
-        <v>1.029368902572685</v>
+        <v>1.040856748268231</v>
       </c>
       <c r="E7">
-        <v>0.9923616853222813</v>
+        <v>1.037452965974667</v>
       </c>
       <c r="F7">
-        <v>1.022904693867738</v>
+        <v>1.047894313385456</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050922255453312</v>
+        <v>1.052088698649793</v>
       </c>
       <c r="J7">
-        <v>1.032152368460686</v>
+        <v>1.042694545136652</v>
       </c>
       <c r="K7">
-        <v>1.039122448559437</v>
+        <v>1.050483016063782</v>
       </c>
       <c r="L7">
-        <v>1.002550147955458</v>
+        <v>1.047116584431606</v>
       </c>
       <c r="M7">
-        <v>1.03273140932056</v>
+        <v>1.057444299227377</v>
       </c>
       <c r="N7">
-        <v>1.023050187194159</v>
+        <v>1.044175290989482</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004075131953955</v>
+        <v>1.0152219526084</v>
       </c>
       <c r="D8">
-        <v>1.022307191285006</v>
+        <v>1.034234234890226</v>
       </c>
       <c r="E8">
-        <v>0.9853970743977711</v>
+        <v>1.030708030763323</v>
       </c>
       <c r="F8">
-        <v>1.014668721776149</v>
+        <v>1.040774316455993</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04754539426301</v>
+        <v>1.049709489158948</v>
       </c>
       <c r="J8">
-        <v>1.025565780108338</v>
+        <v>1.036397627796469</v>
       </c>
       <c r="K8">
-        <v>1.033193243079219</v>
+        <v>1.04496962030548</v>
       </c>
       <c r="L8">
-        <v>0.9967785536076115</v>
+        <v>1.041487507566834</v>
       </c>
       <c r="M8">
-        <v>1.025653595281694</v>
+        <v>1.051428909052395</v>
       </c>
       <c r="N8">
-        <v>1.018402362737342</v>
+        <v>1.03786943130441</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9870943663734285</v>
+        <v>0.9989978003642926</v>
       </c>
       <c r="D9">
-        <v>1.009019279839714</v>
+        <v>1.021867304654766</v>
       </c>
       <c r="E9">
-        <v>0.9724254758766584</v>
+        <v>1.018188982163132</v>
       </c>
       <c r="F9">
-        <v>0.9992331416603989</v>
+        <v>1.027520531149575</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04107224238371</v>
+        <v>1.045168484712021</v>
       </c>
       <c r="J9">
-        <v>1.013111234014929</v>
+        <v>1.024585998588001</v>
       </c>
       <c r="K9">
-        <v>1.021967700959141</v>
+        <v>1.034615290137942</v>
       </c>
       <c r="L9">
-        <v>0.9859823557685409</v>
+        <v>1.03099369115036</v>
       </c>
       <c r="M9">
-        <v>1.012338672870596</v>
+        <v>1.0401823468259</v>
       </c>
       <c r="N9">
-        <v>1.009591416162203</v>
+        <v>1.026041028227653</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.974897787347464</v>
+        <v>0.9874371330304732</v>
       </c>
       <c r="D10">
-        <v>0.9994991174727547</v>
+        <v>1.013083986751326</v>
       </c>
       <c r="E10">
-        <v>0.9632308604506068</v>
+        <v>1.009352269304504</v>
       </c>
       <c r="F10">
-        <v>0.9882164102244541</v>
+        <v>1.01813677699638</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036354238313042</v>
+        <v>1.041878097971259</v>
       </c>
       <c r="J10">
-        <v>1.004144004511355</v>
+        <v>1.016158210369486</v>
       </c>
       <c r="K10">
-        <v>1.013877421401169</v>
+        <v>1.027220956984862</v>
       </c>
       <c r="L10">
-        <v>0.9782973191622699</v>
+        <v>1.023554694072629</v>
       </c>
       <c r="M10">
-        <v>1.002801731026014</v>
+        <v>1.03218610984117</v>
       </c>
       <c r="N10">
-        <v>1.003233590955994</v>
+        <v>1.017601271583186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.969374333206093</v>
+        <v>0.9822279262931686</v>
       </c>
       <c r="D11">
-        <v>0.9951954790992374</v>
+        <v>1.009135135889187</v>
       </c>
       <c r="E11">
-        <v>0.9591000211035509</v>
+        <v>1.005393087930781</v>
       </c>
       <c r="F11">
-        <v>0.9832462954738426</v>
+        <v>1.013925185721125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034202512786035</v>
+        <v>1.040383613711301</v>
       </c>
       <c r="J11">
-        <v>1.000079106912162</v>
+        <v>1.012359200806362</v>
       </c>
       <c r="K11">
-        <v>1.010208574008967</v>
+        <v>1.02388680894911</v>
       </c>
       <c r="L11">
-        <v>0.9748367889865057</v>
+        <v>1.020214010174499</v>
       </c>
       <c r="M11">
-        <v>0.9984912326712962</v>
+        <v>1.02858918617154</v>
       </c>
       <c r="N11">
-        <v>1.000348555192398</v>
+        <v>1.013796866990731</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672828980702146</v>
+        <v>0.9802598600715567</v>
       </c>
       <c r="D12">
-        <v>0.99356728318762</v>
+        <v>1.007644766773373</v>
       </c>
       <c r="E12">
-        <v>0.9575412639536047</v>
+        <v>1.003900942937865</v>
       </c>
       <c r="F12">
-        <v>0.9813674706953776</v>
+        <v>1.012336758464047</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033385618232026</v>
+        <v>1.039817315860028</v>
       </c>
       <c r="J12">
-        <v>0.9985394779735237</v>
+        <v>1.010923808414044</v>
       </c>
       <c r="K12">
-        <v>1.008818770372384</v>
+        <v>1.022626956199794</v>
       </c>
       <c r="L12">
-        <v>0.9735297642228762</v>
+        <v>1.018953786711885</v>
       </c>
       <c r="M12">
-        <v>0.9968605635878813</v>
+        <v>1.027231361759025</v>
       </c>
       <c r="N12">
-        <v>0.9992553935393695</v>
+        <v>1.012359436176574</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.967733377145464</v>
+        <v>0.9806835610659663</v>
       </c>
       <c r="D13">
-        <v>0.9939179193150579</v>
+        <v>1.007965553069694</v>
       </c>
       <c r="E13">
-        <v>0.9578767591377928</v>
+        <v>1.0042220144276</v>
       </c>
       <c r="F13">
-        <v>0.981772011638259</v>
+        <v>1.012678600465684</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033561666189294</v>
+        <v>1.039939306741305</v>
       </c>
       <c r="J13">
-        <v>0.9988711214502934</v>
+        <v>1.011232833977944</v>
       </c>
       <c r="K13">
-        <v>1.009118148385404</v>
+        <v>1.022898193559576</v>
       </c>
       <c r="L13">
-        <v>0.9738111332416085</v>
+        <v>1.019225008167155</v>
       </c>
       <c r="M13">
-        <v>0.9972117265583265</v>
+        <v>1.02752363160759</v>
       </c>
       <c r="N13">
-        <v>0.999490884228829</v>
+        <v>1.01266890059222</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.969202287102359</v>
+        <v>0.9820659372448475</v>
       </c>
       <c r="D14">
-        <v>0.9950615112952605</v>
+        <v>1.009012433315621</v>
       </c>
       <c r="E14">
-        <v>0.9589716829757756</v>
+        <v>1.005270195634045</v>
       </c>
       <c r="F14">
-        <v>0.9830916750769215</v>
+        <v>1.013794387423146</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034135356150244</v>
+        <v>1.040337035767913</v>
       </c>
       <c r="J14">
-        <v>0.9999524624361076</v>
+        <v>1.012241056926552</v>
       </c>
       <c r="K14">
-        <v>1.010094257123524</v>
+        <v>1.023783115084439</v>
       </c>
       <c r="L14">
-        <v>0.974729201511093</v>
+        <v>1.020110242868509</v>
       </c>
       <c r="M14">
-        <v>0.9983570588098544</v>
+        <v>1.028477401642026</v>
       </c>
       <c r="N14">
-        <v>1.000258643869599</v>
+        <v>1.01367855533306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9701019514326319</v>
+        <v>0.9829131919166895</v>
       </c>
       <c r="D15">
-        <v>0.9957621128993831</v>
+        <v>1.00965427045739</v>
       </c>
       <c r="E15">
-        <v>0.959643009995181</v>
+        <v>1.005913112000294</v>
       </c>
       <c r="F15">
-        <v>0.9839003438471273</v>
+        <v>1.014478617077431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034486445235401</v>
+        <v>1.040580585929207</v>
       </c>
       <c r="J15">
-        <v>1.000614693954587</v>
+        <v>1.012858983694967</v>
       </c>
       <c r="K15">
-        <v>1.010692019717226</v>
+        <v>1.024325460290624</v>
       </c>
       <c r="L15">
-        <v>0.9752919342256403</v>
+        <v>1.02065305790238</v>
       </c>
       <c r="M15">
-        <v>0.9990587430704604</v>
+        <v>1.029062116990523</v>
       </c>
       <c r="N15">
-        <v>1.000728778679797</v>
+        <v>1.014297359628364</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9752589777533012</v>
+        <v>0.9877783524799325</v>
       </c>
       <c r="D16">
-        <v>0.9997807178625024</v>
+        <v>1.013342848985125</v>
       </c>
       <c r="E16">
-        <v>0.9635017020141025</v>
+        <v>1.009612098107337</v>
       </c>
       <c r="F16">
-        <v>0.9885418290477875</v>
+        <v>1.018413014216554</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036494641471816</v>
+        <v>1.041975754533493</v>
       </c>
       <c r="J16">
-        <v>1.004409745369616</v>
+        <v>1.01640703638211</v>
       </c>
       <c r="K16">
-        <v>1.014117243254493</v>
+        <v>1.027439319111029</v>
       </c>
       <c r="L16">
-        <v>0.9785240459000784</v>
+        <v>1.023773770704684</v>
       </c>
       <c r="M16">
-        <v>1.003083796339279</v>
+        <v>1.032421862716515</v>
       </c>
       <c r="N16">
-        <v>1.003422139401887</v>
+        <v>1.017850450957289</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784267290236079</v>
+        <v>0.9907739595999688</v>
       </c>
       <c r="D17">
-        <v>1.002251335649717</v>
+        <v>1.015616458822049</v>
       </c>
       <c r="E17">
-        <v>0.9658808440568861</v>
+        <v>1.011895753365551</v>
       </c>
       <c r="F17">
-        <v>0.9913980232179517</v>
+        <v>1.020840048525409</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037724331397999</v>
+        <v>1.042831765626695</v>
       </c>
       <c r="J17">
-        <v>1.006739945765679</v>
+        <v>1.018591356716788</v>
       </c>
       <c r="K17">
-        <v>1.016220005611295</v>
+        <v>1.029356105424499</v>
       </c>
       <c r="L17">
-        <v>0.9805147755183512</v>
+        <v>1.025698372971752</v>
       </c>
       <c r="M17">
-        <v>1.005558576227988</v>
+        <v>1.034492283369055</v>
       </c>
       <c r="N17">
-        <v>1.005075128664121</v>
+        <v>1.020037873277387</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802513006153029</v>
+        <v>0.9925018141908888</v>
       </c>
       <c r="D18">
-        <v>1.003675084096827</v>
+        <v>1.016928692186136</v>
       </c>
       <c r="E18">
-        <v>0.9672542724855</v>
+        <v>1.013215069677147</v>
       </c>
       <c r="F18">
-        <v>0.9930449132894406</v>
+        <v>1.02224151038429</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038431187268135</v>
+        <v>1.043324386398584</v>
       </c>
       <c r="J18">
-        <v>1.008081726085915</v>
+        <v>1.01985111776242</v>
       </c>
       <c r="K18">
-        <v>1.017430680908094</v>
+        <v>1.0304614751438</v>
       </c>
       <c r="L18">
-        <v>0.9816632380703116</v>
+        <v>1.026809527085201</v>
       </c>
       <c r="M18">
-        <v>1.006984790354043</v>
+        <v>1.035687061227919</v>
       </c>
       <c r="N18">
-        <v>1.006026672629177</v>
+        <v>1.021299423328201</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.980869605976546</v>
+        <v>0.9930877456507523</v>
       </c>
       <c r="D19">
-        <v>1.004157675367555</v>
+        <v>1.017373817011694</v>
       </c>
       <c r="E19">
-        <v>0.9677202077850476</v>
+        <v>1.013662813214329</v>
       </c>
       <c r="F19">
-        <v>0.993603300303991</v>
+        <v>1.022717016996099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038670479554228</v>
+        <v>1.043491245152319</v>
       </c>
       <c r="J19">
-        <v>1.008536357530455</v>
+        <v>1.020278286306164</v>
       </c>
       <c r="K19">
-        <v>1.017840865396557</v>
+        <v>1.030836273838076</v>
       </c>
       <c r="L19">
-        <v>0.9820527281632855</v>
+        <v>1.027186502207978</v>
       </c>
       <c r="M19">
-        <v>1.007468228441647</v>
+        <v>1.036092312401077</v>
       </c>
       <c r="N19">
-        <v>1.006349032522702</v>
+        <v>1.021727198500274</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780892742072541</v>
+        <v>0.9904545870235554</v>
       </c>
       <c r="D20">
-        <v>1.001988069666566</v>
+        <v>1.015373974099448</v>
       </c>
       <c r="E20">
-        <v>0.9656270753312172</v>
+        <v>1.011652063350056</v>
       </c>
       <c r="F20">
-        <v>0.9910935724772449</v>
+        <v>1.020581130209995</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037593482077018</v>
+        <v>1.042740619117856</v>
       </c>
       <c r="J20">
-        <v>1.006491752021324</v>
+        <v>1.018358492814478</v>
       </c>
       <c r="K20">
-        <v>1.015996051114144</v>
+        <v>1.029151772243959</v>
       </c>
       <c r="L20">
-        <v>0.9803025137559566</v>
+        <v>1.02549307354941</v>
       </c>
       <c r="M20">
-        <v>1.005294859672438</v>
+        <v>1.034271488094402</v>
       </c>
       <c r="N20">
-        <v>1.004899095119934</v>
+        <v>1.019804678681626</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9687708571597833</v>
+        <v>0.981659798814372</v>
       </c>
       <c r="D21">
-        <v>0.9947255906557126</v>
+        <v>1.008704819076149</v>
       </c>
       <c r="E21">
-        <v>0.9586499447204034</v>
+        <v>1.004962140170466</v>
       </c>
       <c r="F21">
-        <v>0.9827039930870474</v>
+        <v>1.013466495136928</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033966917201132</v>
+        <v>1.040220229146599</v>
       </c>
       <c r="J21">
-        <v>0.9996348763512966</v>
+        <v>1.011944845664434</v>
       </c>
       <c r="K21">
-        <v>1.009807582098423</v>
+        <v>1.023523131568244</v>
       </c>
       <c r="L21">
-        <v>0.9744594647772626</v>
+        <v>1.019850109184236</v>
       </c>
       <c r="M21">
-        <v>0.998020623502182</v>
+        <v>1.028197154389494</v>
       </c>
       <c r="N21">
-        <v>1.000033166798932</v>
+        <v>1.013381923416974</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9626798441812433</v>
+        <v>0.9759369553758307</v>
       </c>
       <c r="D22">
-        <v>0.9899865228140011</v>
+        <v>1.004374180745756</v>
       </c>
       <c r="E22">
-        <v>0.9541209716077692</v>
+        <v>1.000630454505945</v>
       </c>
       <c r="F22">
-        <v>0.9772383376614525</v>
+        <v>1.008853048948181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031583876797641</v>
+        <v>1.038570469197049</v>
       </c>
       <c r="J22">
-        <v>0.9951501714743979</v>
+        <v>1.007770875415658</v>
       </c>
       <c r="K22">
-        <v>1.005758993270955</v>
+        <v>1.019859479459602</v>
       </c>
       <c r="L22">
-        <v>0.9706595865727711</v>
+        <v>1.016189432307014</v>
       </c>
       <c r="M22">
-        <v>0.9932746071740887</v>
+        <v>1.02425114192994</v>
       </c>
       <c r="N22">
-        <v>0.9968481929338753</v>
+        <v>1.009202025651683</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9659320587257324</v>
+        <v>0.9789899988511309</v>
       </c>
       <c r="D23">
-        <v>0.9925160559280728</v>
+        <v>1.00668358780502</v>
       </c>
       <c r="E23">
-        <v>0.9565360437855207</v>
+        <v>1.002939226346744</v>
       </c>
       <c r="F23">
-        <v>0.9801548572791815</v>
+        <v>1.011312653665014</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032857402093536</v>
+        <v>1.039451464078695</v>
       </c>
       <c r="J23">
-        <v>0.997544928484167</v>
+        <v>1.009997631267248</v>
       </c>
       <c r="K23">
-        <v>1.007920956471857</v>
+        <v>1.021814022890722</v>
       </c>
       <c r="L23">
-        <v>0.9726865398789993</v>
+        <v>1.018141213380725</v>
       </c>
       <c r="M23">
-        <v>0.9958077759383329</v>
+        <v>1.026355587278473</v>
       </c>
       <c r="N23">
-        <v>0.998549132981815</v>
+        <v>1.011431943751994</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782418267230378</v>
+        <v>0.9905989576041234</v>
       </c>
       <c r="D24">
-        <v>1.002107081582804</v>
+        <v>1.015483585413081</v>
       </c>
       <c r="E24">
-        <v>0.9657417864978639</v>
+        <v>1.011762215512852</v>
       </c>
       <c r="F24">
-        <v>0.9912311994251368</v>
+        <v>1.020698167960919</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037652639299847</v>
+        <v>1.042781824880515</v>
       </c>
       <c r="J24">
-        <v>1.006603953641767</v>
+        <v>1.018463758097726</v>
       </c>
       <c r="K24">
-        <v>1.016097295273863</v>
+        <v>1.029244140621581</v>
       </c>
       <c r="L24">
-        <v>0.9803984648217807</v>
+        <v>1.025585874753075</v>
       </c>
       <c r="M24">
-        <v>1.005414075066548</v>
+        <v>1.034371295611671</v>
       </c>
       <c r="N24">
-        <v>1.004978675965334</v>
+        <v>1.019910093453651</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9916281566447915</v>
+        <v>1.003315090033434</v>
       </c>
       <c r="D25">
-        <v>1.012563624547454</v>
+        <v>1.025153866978751</v>
       </c>
       <c r="E25">
-        <v>0.975869226962544</v>
+        <v>1.021506832781932</v>
       </c>
       <c r="F25">
-        <v>1.00334317573029</v>
+        <v>1.031037808679394</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042812575481688</v>
+        <v>1.046386533704594</v>
       </c>
       <c r="J25">
-        <v>1.016440589215969</v>
+        <v>1.027731400919354</v>
       </c>
       <c r="K25">
-        <v>1.024969987567288</v>
+        <v>1.037373858873421</v>
       </c>
       <c r="L25">
-        <v>0.9888540606346454</v>
+        <v>1.033780210897416</v>
       </c>
       <c r="M25">
-        <v>1.015889813944638</v>
+        <v>1.043172678313689</v>
       </c>
       <c r="N25">
-        <v>1.011949233342631</v>
+        <v>1.029190897391099</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012929648064709</v>
+        <v>1.005514725818302</v>
       </c>
       <c r="D2">
-        <v>1.032484359688233</v>
+        <v>1.027147699082976</v>
       </c>
       <c r="E2">
-        <v>1.028930784829552</v>
+        <v>1.025556020748675</v>
       </c>
       <c r="F2">
-        <v>1.038895755287981</v>
+        <v>1.034202279263991</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049074292626825</v>
+        <v>1.046954219811443</v>
       </c>
       <c r="J2">
-        <v>1.034730395106961</v>
+        <v>1.027531734270933</v>
       </c>
       <c r="K2">
-        <v>1.043508951983408</v>
+        <v>1.038241348181423</v>
       </c>
       <c r="L2">
-        <v>1.040001260920421</v>
+        <v>1.036670440596111</v>
       </c>
       <c r="M2">
-        <v>1.049838554925292</v>
+        <v>1.045204831086735</v>
       </c>
       <c r="N2">
-        <v>1.036199830953248</v>
+        <v>1.012534541190381</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019639191299533</v>
+        <v>1.011195666865455</v>
       </c>
       <c r="D3">
-        <v>1.037608339557999</v>
+        <v>1.031456106792344</v>
       </c>
       <c r="E3">
-        <v>1.034140701086286</v>
+        <v>1.03016692941223</v>
       </c>
       <c r="F3">
-        <v>1.044399760822679</v>
+        <v>1.038966474032978</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050926728880924</v>
+        <v>1.048430584532873</v>
       </c>
       <c r="J3">
-        <v>1.039608422655232</v>
+        <v>1.031385710905442</v>
       </c>
       <c r="K3">
-        <v>1.047781607362311</v>
+        <v>1.041701719632236</v>
       </c>
       <c r="L3">
-        <v>1.04435461433057</v>
+        <v>1.040427837581043</v>
       </c>
       <c r="M3">
-        <v>1.054494389545584</v>
+        <v>1.049123914080996</v>
       </c>
       <c r="N3">
-        <v>1.041084785860155</v>
+        <v>1.013868286421337</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02386516945837</v>
+        <v>1.014784611474089</v>
       </c>
       <c r="D4">
-        <v>1.040838786171511</v>
+        <v>1.034180952341525</v>
       </c>
       <c r="E4">
-        <v>1.0374346300186</v>
+        <v>1.033091176260382</v>
       </c>
       <c r="F4">
-        <v>1.047874978594926</v>
+        <v>1.041983976605887</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052082301507325</v>
+        <v>1.049352674006649</v>
       </c>
       <c r="J4">
-        <v>1.042677494359462</v>
+        <v>1.033817540063626</v>
       </c>
       <c r="K4">
-        <v>1.050468094904613</v>
+        <v>1.043883629577059</v>
       </c>
       <c r="L4">
-        <v>1.047101307548117</v>
+        <v>1.04280597348366</v>
       </c>
       <c r="M4">
-        <v>1.057427991569749</v>
+        <v>1.051600781495762</v>
       </c>
       <c r="N4">
-        <v>1.044158215998233</v>
+        <v>1.01470915670675</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02561548123049</v>
+        <v>1.016273472342787</v>
       </c>
       <c r="D5">
-        <v>1.042177417434807</v>
+        <v>1.035311982799009</v>
       </c>
       <c r="E5">
-        <v>1.038801769724218</v>
+        <v>1.034306906216432</v>
       </c>
       <c r="F5">
-        <v>1.049316273915551</v>
+        <v>1.043237540298272</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052558171350236</v>
+        <v>1.049732601474462</v>
       </c>
       <c r="J5">
-        <v>1.043947777034742</v>
+        <v>1.034825622920676</v>
       </c>
       <c r="K5">
-        <v>1.051579589520651</v>
+        <v>1.044787716138</v>
       </c>
       <c r="L5">
-        <v>1.048239962102709</v>
+        <v>1.043793509167394</v>
       </c>
       <c r="M5">
-        <v>1.058643202658088</v>
+        <v>1.052628459061672</v>
       </c>
       <c r="N5">
-        <v>1.045430302620615</v>
+        <v>1.015057547852858</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025907862707862</v>
+        <v>1.01652231491232</v>
       </c>
       <c r="D6">
-        <v>1.042401064802639</v>
+        <v>1.035501054143466</v>
       </c>
       <c r="E6">
-        <v>1.039030308763745</v>
+        <v>1.034510249926187</v>
       </c>
       <c r="F6">
-        <v>1.0495571460202</v>
+        <v>1.043447157420555</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05263750006851</v>
+        <v>1.049795946845651</v>
       </c>
       <c r="J6">
-        <v>1.044159919385911</v>
+        <v>1.034994064386324</v>
       </c>
       <c r="K6">
-        <v>1.051765187125691</v>
+        <v>1.044938756886768</v>
       </c>
       <c r="L6">
-        <v>1.048430226710503</v>
+        <v>1.043958617196052</v>
       </c>
       <c r="M6">
-        <v>1.058846205505778</v>
+        <v>1.052800228312238</v>
       </c>
       <c r="N6">
-        <v>1.045642746238256</v>
+        <v>1.015115749945011</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023888658767964</v>
+        <v>1.014804582875842</v>
       </c>
       <c r="D7">
-        <v>1.040856748268231</v>
+        <v>1.034196121432457</v>
       </c>
       <c r="E7">
-        <v>1.037452965974667</v>
+        <v>1.033107473693544</v>
       </c>
       <c r="F7">
-        <v>1.047894313385456</v>
+        <v>1.042000784900162</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052088698649793</v>
+        <v>1.049357780647429</v>
       </c>
       <c r="J7">
-        <v>1.042694545136652</v>
+        <v>1.033831065407397</v>
       </c>
       <c r="K7">
-        <v>1.050483016063782</v>
+        <v>1.043895761205799</v>
       </c>
       <c r="L7">
-        <v>1.047116584431606</v>
+        <v>1.042819216419387</v>
       </c>
       <c r="M7">
-        <v>1.057444299227377</v>
+        <v>1.051614566114548</v>
       </c>
       <c r="N7">
-        <v>1.044175290989482</v>
+        <v>1.014713831761544</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0152219526084</v>
+        <v>1.007453199598976</v>
       </c>
       <c r="D8">
-        <v>1.034234234890226</v>
+        <v>1.028617149061557</v>
       </c>
       <c r="E8">
-        <v>1.030708030763323</v>
+        <v>1.02712693999903</v>
       </c>
       <c r="F8">
-        <v>1.040774316455993</v>
+        <v>1.035826260768378</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049709489158948</v>
+        <v>1.047460187116558</v>
       </c>
       <c r="J8">
-        <v>1.036397627796469</v>
+        <v>1.028847387545067</v>
       </c>
       <c r="K8">
-        <v>1.04496962030548</v>
+        <v>1.039422948222991</v>
       </c>
       <c r="L8">
-        <v>1.041487507566834</v>
+        <v>1.03795158122525</v>
       </c>
       <c r="M8">
-        <v>1.051428909052395</v>
+        <v>1.046541862118116</v>
       </c>
       <c r="N8">
-        <v>1.03786943130441</v>
+        <v>1.012989993079195</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9989978003642926</v>
+        <v>0.9937893632032003</v>
       </c>
       <c r="D9">
-        <v>1.021867304654766</v>
+        <v>1.018275793224901</v>
       </c>
       <c r="E9">
-        <v>1.018188982163132</v>
+        <v>1.016106378069979</v>
       </c>
       <c r="F9">
-        <v>1.027520531149575</v>
+        <v>1.024416052806324</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045168484712021</v>
+        <v>1.043850711089052</v>
       </c>
       <c r="J9">
-        <v>1.024585998588001</v>
+        <v>1.019563357523031</v>
       </c>
       <c r="K9">
-        <v>1.034615290137942</v>
+        <v>1.031079157465298</v>
       </c>
       <c r="L9">
-        <v>1.03099369115036</v>
+        <v>1.028943435674668</v>
       </c>
       <c r="M9">
-        <v>1.0401823468259</v>
+        <v>1.037125038645385</v>
       </c>
       <c r="N9">
-        <v>1.026041028227653</v>
+        <v>1.009773412280951</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9874371330304732</v>
+        <v>0.9841369738771286</v>
       </c>
       <c r="D10">
-        <v>1.013083986751326</v>
+        <v>1.010995775258724</v>
       </c>
       <c r="E10">
-        <v>1.009352269304504</v>
+        <v>1.008393279258799</v>
       </c>
       <c r="F10">
-        <v>1.01813677699638</v>
+        <v>1.016407371457438</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041878097971259</v>
+        <v>1.041248684598163</v>
       </c>
       <c r="J10">
-        <v>1.016158210369486</v>
+        <v>1.01299441512571</v>
       </c>
       <c r="K10">
-        <v>1.027220956984862</v>
+        <v>1.025169295681636</v>
       </c>
       <c r="L10">
-        <v>1.023554694072629</v>
+        <v>1.022612626236888</v>
       </c>
       <c r="M10">
-        <v>1.03218610984117</v>
+        <v>1.030486572834526</v>
       </c>
       <c r="N10">
-        <v>1.017601271583186</v>
+        <v>1.007494604692117</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9822279262931686</v>
+        <v>0.9798120980934549</v>
       </c>
       <c r="D11">
-        <v>1.009135135889187</v>
+        <v>1.007741393276296</v>
       </c>
       <c r="E11">
-        <v>1.005393087930781</v>
+        <v>1.004956239818325</v>
       </c>
       <c r="F11">
-        <v>1.013925185721125</v>
+        <v>1.012832915196103</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040383613711301</v>
+        <v>1.040071313403641</v>
       </c>
       <c r="J11">
-        <v>1.012359200806362</v>
+        <v>1.010049519998735</v>
       </c>
       <c r="K11">
-        <v>1.02388680894911</v>
+        <v>1.022518780158937</v>
       </c>
       <c r="L11">
-        <v>1.020214010174499</v>
+        <v>1.019785290096016</v>
       </c>
       <c r="M11">
-        <v>1.02858918617154</v>
+        <v>1.027516812545941</v>
       </c>
       <c r="N11">
-        <v>1.013796866990731</v>
+        <v>1.006472467061047</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9802598600715567</v>
+        <v>0.9781822588874314</v>
       </c>
       <c r="D12">
-        <v>1.007644766773373</v>
+        <v>1.006516241937934</v>
       </c>
       <c r="E12">
-        <v>1.003900942937865</v>
+        <v>1.003663993921708</v>
       </c>
       <c r="F12">
-        <v>1.012336758464047</v>
+        <v>1.011488121198616</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039817315860028</v>
+        <v>1.039625972125589</v>
       </c>
       <c r="J12">
-        <v>1.010923808414044</v>
+        <v>1.008939572656274</v>
       </c>
       <c r="K12">
-        <v>1.022626956199794</v>
+        <v>1.021519656862744</v>
       </c>
       <c r="L12">
-        <v>1.018953786711885</v>
+        <v>1.018721332645003</v>
       </c>
       <c r="M12">
-        <v>1.027231361759025</v>
+        <v>1.02639848761589</v>
       </c>
       <c r="N12">
-        <v>1.012359436176574</v>
+        <v>1.006087151105288</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9806835610659663</v>
+        <v>0.9785329498155135</v>
       </c>
       <c r="D13">
-        <v>1.007965553069694</v>
+        <v>1.006779796868179</v>
       </c>
       <c r="E13">
-        <v>1.0042220144276</v>
+        <v>1.003941906425796</v>
       </c>
       <c r="F13">
-        <v>1.012678600465684</v>
+        <v>1.011777375099147</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039939306741305</v>
+        <v>1.039721868763935</v>
       </c>
       <c r="J13">
-        <v>1.011232833977944</v>
+        <v>1.009178404647613</v>
       </c>
       <c r="K13">
-        <v>1.022898193559576</v>
+        <v>1.021734647642197</v>
       </c>
       <c r="L13">
-        <v>1.019225008167155</v>
+        <v>1.018950191877388</v>
       </c>
       <c r="M13">
-        <v>1.02752363160759</v>
+        <v>1.026639076542458</v>
       </c>
       <c r="N13">
-        <v>1.01266890059222</v>
+        <v>1.006170063924078</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9820659372448475</v>
+        <v>0.9796778616789263</v>
       </c>
       <c r="D14">
-        <v>1.009012433315621</v>
+        <v>1.00764046103668</v>
       </c>
       <c r="E14">
-        <v>1.005270195634045</v>
+        <v>1.004849746033624</v>
       </c>
       <c r="F14">
-        <v>1.013794387423146</v>
+        <v>1.012722109025214</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040337035767913</v>
+        <v>1.040034667258719</v>
       </c>
       <c r="J14">
-        <v>1.012241056926552</v>
+        <v>1.009958105478314</v>
       </c>
       <c r="K14">
-        <v>1.023783115084439</v>
+        <v>1.022436495450984</v>
       </c>
       <c r="L14">
-        <v>1.020110242868509</v>
+        <v>1.019697628776877</v>
       </c>
       <c r="M14">
-        <v>1.028477401642026</v>
+        <v>1.027424687576487</v>
       </c>
       <c r="N14">
-        <v>1.01367855533306</v>
+        <v>1.006440733967727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9829131919166895</v>
+        <v>0.9803801316309473</v>
       </c>
       <c r="D15">
-        <v>1.00965427045739</v>
+        <v>1.0081685497411</v>
       </c>
       <c r="E15">
-        <v>1.005913112000294</v>
+        <v>1.005407001501646</v>
       </c>
       <c r="F15">
-        <v>1.014478617077431</v>
+        <v>1.013301894007315</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040580585929207</v>
+        <v>1.040226318352879</v>
       </c>
       <c r="J15">
-        <v>1.012858983694967</v>
+        <v>1.010436342933266</v>
       </c>
       <c r="K15">
-        <v>1.024325460290624</v>
+        <v>1.022866965001406</v>
       </c>
       <c r="L15">
-        <v>1.02065305790238</v>
+        <v>1.020156300069977</v>
       </c>
       <c r="M15">
-        <v>1.029062116990523</v>
+        <v>1.027906682533803</v>
       </c>
       <c r="N15">
-        <v>1.014297359628364</v>
+        <v>1.00660674384741</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9877783524799325</v>
+        <v>0.9844208103507738</v>
       </c>
       <c r="D16">
-        <v>1.013342848985125</v>
+        <v>1.011209524356861</v>
       </c>
       <c r="E16">
-        <v>1.009612098107337</v>
+        <v>1.00861925502256</v>
       </c>
       <c r="F16">
-        <v>1.018413014216554</v>
+        <v>1.016642261103061</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041975754533493</v>
+        <v>1.041325721839351</v>
       </c>
       <c r="J16">
-        <v>1.01640703638211</v>
+        <v>1.013187658773359</v>
       </c>
       <c r="K16">
-        <v>1.027439319111029</v>
+        <v>1.02534320238344</v>
       </c>
       <c r="L16">
-        <v>1.023773770704684</v>
+        <v>1.022798384917921</v>
       </c>
       <c r="M16">
-        <v>1.032421862716515</v>
+        <v>1.030681582978326</v>
       </c>
       <c r="N16">
-        <v>1.017850450957289</v>
+        <v>1.007561667265701</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9907739595999688</v>
+        <v>0.9869154601146345</v>
       </c>
       <c r="D17">
-        <v>1.015616458822049</v>
+        <v>1.013089042776113</v>
       </c>
       <c r="E17">
-        <v>1.011895753365551</v>
+        <v>1.010607529415442</v>
       </c>
       <c r="F17">
-        <v>1.020840048525409</v>
+        <v>1.01870831367954</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042831765626695</v>
+        <v>1.042001509831269</v>
       </c>
       <c r="J17">
-        <v>1.018591356716788</v>
+        <v>1.014885912958779</v>
       </c>
       <c r="K17">
-        <v>1.029356105424499</v>
+        <v>1.026871400905699</v>
       </c>
       <c r="L17">
-        <v>1.025698372971752</v>
+        <v>1.024432091814317</v>
       </c>
       <c r="M17">
-        <v>1.034492283369055</v>
+        <v>1.032396081543867</v>
       </c>
       <c r="N17">
-        <v>1.020037873277387</v>
+        <v>1.008150964172668</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9925018141908888</v>
+        <v>0.9883566373912395</v>
       </c>
       <c r="D18">
-        <v>1.016928692186136</v>
+        <v>1.014175555670391</v>
       </c>
       <c r="E18">
-        <v>1.013215069677147</v>
+        <v>1.01175794602971</v>
       </c>
       <c r="F18">
-        <v>1.02224151038429</v>
+        <v>1.019903193835403</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043324386398584</v>
+        <v>1.042390824783456</v>
       </c>
       <c r="J18">
-        <v>1.01985111776242</v>
+        <v>1.015866850050405</v>
       </c>
       <c r="K18">
-        <v>1.0304614751438</v>
+        <v>1.027754005914024</v>
       </c>
       <c r="L18">
-        <v>1.026809527085201</v>
+        <v>1.025376762203154</v>
       </c>
       <c r="M18">
-        <v>1.035687061227919</v>
+        <v>1.033386993937751</v>
       </c>
       <c r="N18">
-        <v>1.021299423328201</v>
+        <v>1.00849129942491</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9930877456507523</v>
+        <v>0.9888457271520739</v>
       </c>
       <c r="D19">
-        <v>1.017373817011694</v>
+        <v>1.014544398613269</v>
       </c>
       <c r="E19">
-        <v>1.013662813214329</v>
+        <v>1.012148657332629</v>
       </c>
       <c r="F19">
-        <v>1.022717016996099</v>
+        <v>1.020308915422426</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043491245152319</v>
+        <v>1.0425227582187</v>
       </c>
       <c r="J19">
-        <v>1.020278286306164</v>
+        <v>1.016199719974159</v>
       </c>
       <c r="K19">
-        <v>1.030836273838076</v>
+        <v>1.028053489091572</v>
       </c>
       <c r="L19">
-        <v>1.027186502207978</v>
+        <v>1.025697496260271</v>
       </c>
       <c r="M19">
-        <v>1.036092312401077</v>
+        <v>1.033723347998581</v>
       </c>
       <c r="N19">
-        <v>1.021727198500274</v>
+        <v>1.00860677921797</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9904545870235554</v>
+        <v>0.98664925732654</v>
       </c>
       <c r="D20">
-        <v>1.015373974099448</v>
+        <v>1.012888406552882</v>
       </c>
       <c r="E20">
-        <v>1.011652063350056</v>
+        <v>1.010395176138647</v>
       </c>
       <c r="F20">
-        <v>1.020581130209995</v>
+        <v>1.018487709571734</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042740619117856</v>
+        <v>1.041929509721149</v>
       </c>
       <c r="J20">
-        <v>1.018358492814478</v>
+        <v>1.014704708827602</v>
       </c>
       <c r="K20">
-        <v>1.029151772243959</v>
+        <v>1.026708352458277</v>
       </c>
       <c r="L20">
-        <v>1.02549307354941</v>
+        <v>1.024257668931209</v>
       </c>
       <c r="M20">
-        <v>1.034271488094402</v>
+        <v>1.032213082314677</v>
       </c>
       <c r="N20">
-        <v>1.019804678681626</v>
+        <v>1.008088091299878</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.981659798814372</v>
+        <v>0.9793413724951747</v>
       </c>
       <c r="D21">
-        <v>1.008704819076149</v>
+        <v>1.007387476056143</v>
       </c>
       <c r="E21">
-        <v>1.004962140170466</v>
+        <v>1.004582848098619</v>
       </c>
       <c r="F21">
-        <v>1.013466495136928</v>
+        <v>1.012444388949316</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040220229146599</v>
+        <v>1.039942780490368</v>
       </c>
       <c r="J21">
-        <v>1.011944845664434</v>
+        <v>1.009728955308174</v>
       </c>
       <c r="K21">
-        <v>1.023523131568244</v>
+        <v>1.022230229161409</v>
       </c>
       <c r="L21">
-        <v>1.019850109184236</v>
+        <v>1.019477914084941</v>
       </c>
       <c r="M21">
-        <v>1.028197154389494</v>
+        <v>1.027193772685571</v>
       </c>
       <c r="N21">
-        <v>1.013381923416974</v>
+        <v>1.006361187115396</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9759369553758307</v>
+        <v>0.9746104221341547</v>
       </c>
       <c r="D22">
-        <v>1.004374180745756</v>
+        <v>1.003833791036309</v>
       </c>
       <c r="E22">
-        <v>1.000630454505945</v>
+        <v>1.000837742679993</v>
       </c>
       <c r="F22">
-        <v>1.008853048948181</v>
+        <v>1.00854528871123</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038570469197049</v>
+        <v>1.038647058343275</v>
       </c>
       <c r="J22">
-        <v>1.007770875415658</v>
+        <v>1.006506901016062</v>
       </c>
       <c r="K22">
-        <v>1.019859479459602</v>
+        <v>1.019329680447245</v>
       </c>
       <c r="L22">
-        <v>1.016189432307014</v>
+        <v>1.016392621972206</v>
       </c>
       <c r="M22">
-        <v>1.02425114192994</v>
+        <v>1.02394934145435</v>
       </c>
       <c r="N22">
-        <v>1.009202025651683</v>
+        <v>1.005242547240168</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9789899988511309</v>
+        <v>0.9771318556972622</v>
       </c>
       <c r="D23">
-        <v>1.00668358780502</v>
+        <v>1.005727029323691</v>
       </c>
       <c r="E23">
-        <v>1.002939226346744</v>
+        <v>1.002832034418955</v>
       </c>
       <c r="F23">
-        <v>1.011312653665014</v>
+        <v>1.010622078594167</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039451464078695</v>
+        <v>1.039338504047481</v>
       </c>
       <c r="J23">
-        <v>1.009997631267248</v>
+        <v>1.008224197443292</v>
       </c>
       <c r="K23">
-        <v>1.021814022890722</v>
+        <v>1.020875677243263</v>
       </c>
       <c r="L23">
-        <v>1.018141213380725</v>
+        <v>1.018036080111204</v>
       </c>
       <c r="M23">
-        <v>1.026355587278473</v>
+        <v>1.025677999433202</v>
       </c>
       <c r="N23">
-        <v>1.011431943751994</v>
+        <v>1.005838793063952</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9905989576041234</v>
+        <v>0.9867695857783862</v>
       </c>
       <c r="D24">
-        <v>1.015483585413081</v>
+        <v>1.012979095571164</v>
       </c>
       <c r="E24">
-        <v>1.011762215512852</v>
+        <v>1.010491158143929</v>
       </c>
       <c r="F24">
-        <v>1.020698167960919</v>
+        <v>1.018587422556768</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042781824880515</v>
+        <v>1.041962058463365</v>
       </c>
       <c r="J24">
-        <v>1.018463758097726</v>
+        <v>1.014786616848893</v>
       </c>
       <c r="K24">
-        <v>1.029244140621581</v>
+        <v>1.026782054063961</v>
       </c>
       <c r="L24">
-        <v>1.025585874753075</v>
+        <v>1.02433650853714</v>
       </c>
       <c r="M24">
-        <v>1.034371295611671</v>
+        <v>1.032295799923055</v>
       </c>
       <c r="N24">
-        <v>1.019910093453651</v>
+        <v>1.008116511301693</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003315090033434</v>
+        <v>0.9974123584495045</v>
       </c>
       <c r="D25">
-        <v>1.025153866978751</v>
+        <v>1.02101395214372</v>
       </c>
       <c r="E25">
-        <v>1.021506832781932</v>
+        <v>1.019016706767122</v>
       </c>
       <c r="F25">
-        <v>1.031037808679394</v>
+        <v>1.02743313738709</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046386533704594</v>
+        <v>1.044817005454588</v>
       </c>
       <c r="J25">
-        <v>1.027731400919354</v>
+        <v>1.022027121972064</v>
       </c>
       <c r="K25">
-        <v>1.037373858873421</v>
+        <v>1.033294582322905</v>
       </c>
       <c r="L25">
-        <v>1.033780210897416</v>
+        <v>1.031326814923571</v>
       </c>
       <c r="M25">
-        <v>1.043172678313689</v>
+        <v>1.039620008709359</v>
       </c>
       <c r="N25">
-        <v>1.029190897391099</v>
+        <v>1.010627564457705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005514725818302</v>
+        <v>1.042453823061956</v>
       </c>
       <c r="D2">
-        <v>1.027147699082976</v>
+        <v>1.050059299706727</v>
       </c>
       <c r="E2">
-        <v>1.025556020748675</v>
+        <v>1.056309181877289</v>
       </c>
       <c r="F2">
-        <v>1.034202279263991</v>
+        <v>1.062944626805408</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046954219811443</v>
+        <v>1.03940610317222</v>
       </c>
       <c r="J2">
-        <v>1.027531734270933</v>
+        <v>1.047529560930557</v>
       </c>
       <c r="K2">
-        <v>1.038241348181423</v>
+        <v>1.052814629854615</v>
       </c>
       <c r="L2">
-        <v>1.036670440596111</v>
+        <v>1.059047246760224</v>
       </c>
       <c r="M2">
-        <v>1.045204831086735</v>
+        <v>1.065664601864454</v>
       </c>
       <c r="N2">
-        <v>1.012534541190381</v>
+        <v>1.0196536817771</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011195666865455</v>
+        <v>1.043635600619232</v>
       </c>
       <c r="D3">
-        <v>1.031456106792344</v>
+        <v>1.050974513174485</v>
       </c>
       <c r="E3">
-        <v>1.03016692941223</v>
+        <v>1.057342277321322</v>
       </c>
       <c r="F3">
-        <v>1.038966474032978</v>
+        <v>1.063990447109192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048430584532873</v>
+        <v>1.0396440004701</v>
       </c>
       <c r="J3">
-        <v>1.031385710905442</v>
+        <v>1.048356628932064</v>
       </c>
       <c r="K3">
-        <v>1.041701719632236</v>
+        <v>1.053541948625701</v>
       </c>
       <c r="L3">
-        <v>1.040427837581043</v>
+        <v>1.059893396887044</v>
       </c>
       <c r="M3">
-        <v>1.049123914080996</v>
+        <v>1.066524756850403</v>
       </c>
       <c r="N3">
-        <v>1.013868286421337</v>
+        <v>1.019935004194602</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014784611474089</v>
+        <v>1.044400224528282</v>
       </c>
       <c r="D4">
-        <v>1.034180952341525</v>
+        <v>1.051566530633798</v>
       </c>
       <c r="E4">
-        <v>1.033091176260382</v>
+        <v>1.0580114406879</v>
       </c>
       <c r="F4">
-        <v>1.041983976605887</v>
+        <v>1.064667483877108</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049352674006649</v>
+        <v>1.039796534382274</v>
       </c>
       <c r="J4">
-        <v>1.033817540063626</v>
+        <v>1.048891207229141</v>
       </c>
       <c r="K4">
-        <v>1.043883629577059</v>
+        <v>1.054011756249492</v>
       </c>
       <c r="L4">
-        <v>1.04280597348366</v>
+        <v>1.060440986180277</v>
       </c>
       <c r="M4">
-        <v>1.051600781495762</v>
+        <v>1.067081049616671</v>
       </c>
       <c r="N4">
-        <v>1.01470915670675</v>
+        <v>1.020116671886963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016273472342787</v>
+        <v>1.044721658085566</v>
       </c>
       <c r="D5">
-        <v>1.035311982799009</v>
+        <v>1.051815370156864</v>
       </c>
       <c r="E5">
-        <v>1.034306906216432</v>
+        <v>1.05829292009656</v>
       </c>
       <c r="F5">
-        <v>1.043237540298272</v>
+        <v>1.064952187132097</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049732601474462</v>
+        <v>1.039860324112157</v>
       </c>
       <c r="J5">
-        <v>1.034825622920676</v>
+        <v>1.04911580319181</v>
       </c>
       <c r="K5">
-        <v>1.044787716138</v>
+        <v>1.054209068188491</v>
       </c>
       <c r="L5">
-        <v>1.043793509167394</v>
+        <v>1.060671210367289</v>
       </c>
       <c r="M5">
-        <v>1.052628459061672</v>
+        <v>1.067314847012016</v>
       </c>
       <c r="N5">
-        <v>1.015057547852858</v>
+        <v>1.020192957249295</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01652231491232</v>
+        <v>1.044775627390731</v>
       </c>
       <c r="D6">
-        <v>1.035501054143466</v>
+        <v>1.05185714879474</v>
       </c>
       <c r="E6">
-        <v>1.034510249926187</v>
+        <v>1.058340191292936</v>
       </c>
       <c r="F6">
-        <v>1.043447157420555</v>
+        <v>1.064999994580218</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049795946845651</v>
+        <v>1.039871015013235</v>
       </c>
       <c r="J6">
-        <v>1.034994064386324</v>
+        <v>1.049153505602756</v>
       </c>
       <c r="K6">
-        <v>1.044938756886768</v>
+        <v>1.054242186292058</v>
       </c>
       <c r="L6">
-        <v>1.043958617196052</v>
+        <v>1.060709867057177</v>
       </c>
       <c r="M6">
-        <v>1.052800228312238</v>
+        <v>1.06735409863543</v>
       </c>
       <c r="N6">
-        <v>1.015115749945011</v>
+        <v>1.020205760754145</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014804582875842</v>
+        <v>1.04440451959393</v>
       </c>
       <c r="D7">
-        <v>1.034196121432457</v>
+        <v>1.051569855814859</v>
       </c>
       <c r="E7">
-        <v>1.033107473693544</v>
+        <v>1.058015201188588</v>
       </c>
       <c r="F7">
-        <v>1.042000784900162</v>
+        <v>1.064671287793231</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049357780647429</v>
+        <v>1.03979738806215</v>
       </c>
       <c r="J7">
-        <v>1.033831065407397</v>
+        <v>1.048894208843835</v>
       </c>
       <c r="K7">
-        <v>1.043895761205799</v>
+        <v>1.054014393507947</v>
       </c>
       <c r="L7">
-        <v>1.042819216419387</v>
+        <v>1.060444062377748</v>
       </c>
       <c r="M7">
-        <v>1.051614566114548</v>
+        <v>1.067084173896246</v>
       </c>
       <c r="N7">
-        <v>1.014713831761544</v>
+        <v>1.020117691560376</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007453199598976</v>
+        <v>1.042853224585336</v>
       </c>
       <c r="D8">
-        <v>1.028617149061557</v>
+        <v>1.050368639143124</v>
       </c>
       <c r="E8">
-        <v>1.02712693999903</v>
+        <v>1.056658180185456</v>
       </c>
       <c r="F8">
-        <v>1.035826260768378</v>
+        <v>1.063298000264248</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047460187116558</v>
+        <v>1.03948679188159</v>
       </c>
       <c r="J8">
-        <v>1.028847387545067</v>
+        <v>1.047809194896475</v>
       </c>
       <c r="K8">
-        <v>1.039422948222991</v>
+        <v>1.053060599787044</v>
       </c>
       <c r="L8">
-        <v>1.03795158122525</v>
+        <v>1.059333191942108</v>
       </c>
       <c r="M8">
-        <v>1.046541862118116</v>
+        <v>1.065955354378079</v>
       </c>
       <c r="N8">
-        <v>1.012989993079195</v>
+        <v>1.019748831973483</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9937893632032003</v>
+        <v>1.040119088004062</v>
       </c>
       <c r="D9">
-        <v>1.018275793224901</v>
+        <v>1.048250504990133</v>
       </c>
       <c r="E9">
-        <v>1.016106378069979</v>
+        <v>1.054272156315677</v>
       </c>
       <c r="F9">
-        <v>1.024416052806324</v>
+        <v>1.060880545171168</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043850711089052</v>
+        <v>1.038928746994578</v>
       </c>
       <c r="J9">
-        <v>1.019563357523031</v>
+        <v>1.045892720383075</v>
       </c>
       <c r="K9">
-        <v>1.031079157465298</v>
+        <v>1.051373631175817</v>
       </c>
       <c r="L9">
-        <v>1.028943435674668</v>
+        <v>1.05737625785066</v>
       </c>
       <c r="M9">
-        <v>1.037125038645385</v>
+        <v>1.063964039839361</v>
       </c>
       <c r="N9">
-        <v>1.009773412280951</v>
+        <v>1.019096042727262</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9841369738771286</v>
+        <v>1.038295873517269</v>
       </c>
       <c r="D10">
-        <v>1.010995775258724</v>
+        <v>1.046837438252679</v>
       </c>
       <c r="E10">
-        <v>1.008393279258799</v>
+        <v>1.052684981709342</v>
       </c>
       <c r="F10">
-        <v>1.016407371457438</v>
+        <v>1.05927054579334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041248684598163</v>
+        <v>1.038549497520085</v>
       </c>
       <c r="J10">
-        <v>1.01299441512571</v>
+        <v>1.044611983346377</v>
       </c>
       <c r="K10">
-        <v>1.025169295681636</v>
+        <v>1.050244757614871</v>
       </c>
       <c r="L10">
-        <v>1.022612626236888</v>
+        <v>1.056072007184128</v>
       </c>
       <c r="M10">
-        <v>1.030486572834526</v>
+        <v>1.062635011075451</v>
       </c>
       <c r="N10">
-        <v>1.007494604692117</v>
+        <v>1.018658954506477</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9798120980934549</v>
+        <v>1.0375062740172</v>
       </c>
       <c r="D11">
-        <v>1.007741393276296</v>
+        <v>1.04622532949823</v>
       </c>
       <c r="E11">
-        <v>1.004956239818325</v>
+        <v>1.051998548208311</v>
       </c>
       <c r="F11">
-        <v>1.012832915196103</v>
+        <v>1.058573783003971</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040071313403641</v>
+        <v>1.038383565018666</v>
       </c>
       <c r="J11">
-        <v>1.010049519998735</v>
+        <v>1.044056669432194</v>
       </c>
       <c r="K11">
-        <v>1.022518780158937</v>
+        <v>1.049754935425051</v>
       </c>
       <c r="L11">
-        <v>1.019785290096016</v>
+        <v>1.055507338422639</v>
       </c>
       <c r="M11">
-        <v>1.027516812545941</v>
+        <v>1.062059170755968</v>
       </c>
       <c r="N11">
-        <v>1.006472467061047</v>
+        <v>1.018469239450405</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9781822588874314</v>
+        <v>1.037212959481741</v>
       </c>
       <c r="D12">
-        <v>1.006516241937934</v>
+        <v>1.045997928356798</v>
       </c>
       <c r="E12">
-        <v>1.003663993921708</v>
+        <v>1.051743699749998</v>
       </c>
       <c r="F12">
-        <v>1.011488121198616</v>
+        <v>1.058315030581159</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039625972125589</v>
+        <v>1.038321672499894</v>
       </c>
       <c r="J12">
-        <v>1.008939572656274</v>
+        <v>1.043850288173203</v>
       </c>
       <c r="K12">
-        <v>1.021519656862744</v>
+        <v>1.04957284103352</v>
       </c>
       <c r="L12">
-        <v>1.018721332645003</v>
+        <v>1.055297607104644</v>
       </c>
       <c r="M12">
-        <v>1.02639848761589</v>
+        <v>1.061845223189939</v>
       </c>
       <c r="N12">
-        <v>1.006087151105288</v>
+        <v>1.018398702608704</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9785329498155135</v>
+        <v>1.037275877474593</v>
       </c>
       <c r="D13">
-        <v>1.006779796868179</v>
+        <v>1.046046708340723</v>
       </c>
       <c r="E13">
-        <v>1.003941906425796</v>
+        <v>1.051798360024085</v>
       </c>
       <c r="F13">
-        <v>1.011777375099147</v>
+        <v>1.05837053131333</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039721868763935</v>
+        <v>1.038334960323555</v>
       </c>
       <c r="J13">
-        <v>1.009178404647613</v>
+        <v>1.043894562778042</v>
       </c>
       <c r="K13">
-        <v>1.021734647642197</v>
+        <v>1.049611907813199</v>
       </c>
       <c r="L13">
-        <v>1.018950191877388</v>
+        <v>1.055342594654674</v>
       </c>
       <c r="M13">
-        <v>1.026639076542458</v>
+        <v>1.061891118157329</v>
       </c>
       <c r="N13">
-        <v>1.006170063924078</v>
+        <v>1.018413836090643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9796778616789263</v>
+        <v>1.037482029007662</v>
       </c>
       <c r="D14">
-        <v>1.00764046103668</v>
+        <v>1.046206533199898</v>
       </c>
       <c r="E14">
-        <v>1.004849746033624</v>
+        <v>1.051977479837044</v>
       </c>
       <c r="F14">
-        <v>1.012722109025214</v>
+        <v>1.05855239330193</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040034667258719</v>
+        <v>1.038378454223622</v>
       </c>
       <c r="J14">
-        <v>1.009958105478314</v>
+        <v>1.044039612201748</v>
       </c>
       <c r="K14">
-        <v>1.022436495450984</v>
+        <v>1.049739886562195</v>
       </c>
       <c r="L14">
-        <v>1.019697628776877</v>
+        <v>1.055490001727307</v>
       </c>
       <c r="M14">
-        <v>1.027424687576487</v>
+        <v>1.062041486904477</v>
       </c>
       <c r="N14">
-        <v>1.006440733967727</v>
+        <v>1.018463410245771</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9803801316309473</v>
+        <v>1.037609042786945</v>
       </c>
       <c r="D15">
-        <v>1.0081685497411</v>
+        <v>1.046305001695696</v>
       </c>
       <c r="E15">
-        <v>1.005407001501646</v>
+        <v>1.05208785782466</v>
       </c>
       <c r="F15">
-        <v>1.013301894007315</v>
+        <v>1.058664451922947</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040226318352879</v>
+        <v>1.038405218085684</v>
       </c>
       <c r="J15">
-        <v>1.010436342933266</v>
+        <v>1.044128966947979</v>
       </c>
       <c r="K15">
-        <v>1.022866965001406</v>
+        <v>1.049818718254369</v>
       </c>
       <c r="L15">
-        <v>1.020156300069977</v>
+        <v>1.055580825645424</v>
       </c>
       <c r="M15">
-        <v>1.027906682533803</v>
+        <v>1.062134126773673</v>
       </c>
       <c r="N15">
-        <v>1.00660674384741</v>
+        <v>1.018493945473643</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9844208103507738</v>
+        <v>1.038348273629187</v>
       </c>
       <c r="D16">
-        <v>1.011209524356861</v>
+        <v>1.046878056771183</v>
       </c>
       <c r="E16">
-        <v>1.00861925502256</v>
+        <v>1.05273055537269</v>
       </c>
       <c r="F16">
-        <v>1.016642261103061</v>
+        <v>1.059316795563631</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041325721839351</v>
+        <v>1.038560473768866</v>
       </c>
       <c r="J16">
-        <v>1.013187658773359</v>
+        <v>1.044648821907892</v>
       </c>
       <c r="K16">
-        <v>1.02534320238344</v>
+        <v>1.050277244125307</v>
       </c>
       <c r="L16">
-        <v>1.022798384917921</v>
+        <v>1.056109484060306</v>
       </c>
       <c r="M16">
-        <v>1.030681582978326</v>
+        <v>1.062673220035267</v>
       </c>
       <c r="N16">
-        <v>1.007561667265701</v>
+        <v>1.01867153571195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9869154601146345</v>
+        <v>1.038811936067059</v>
       </c>
       <c r="D17">
-        <v>1.013089042776113</v>
+        <v>1.047237454128038</v>
       </c>
       <c r="E17">
-        <v>1.010607529415442</v>
+        <v>1.053133922901225</v>
       </c>
       <c r="F17">
-        <v>1.01870831367954</v>
+        <v>1.059726094281147</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042001509831269</v>
+        <v>1.038657402307915</v>
       </c>
       <c r="J17">
-        <v>1.014885912958779</v>
+        <v>1.044974712800047</v>
       </c>
       <c r="K17">
-        <v>1.026871400905699</v>
+        <v>1.050564593861866</v>
       </c>
       <c r="L17">
-        <v>1.024432091814317</v>
+        <v>1.056441118844744</v>
       </c>
       <c r="M17">
-        <v>1.032396081543867</v>
+        <v>1.063011281748905</v>
       </c>
       <c r="N17">
-        <v>1.008150964172668</v>
+        <v>1.018782811984376</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9883566373912395</v>
+        <v>1.039082369557092</v>
       </c>
       <c r="D18">
-        <v>1.014175555670391</v>
+        <v>1.047447061248985</v>
       </c>
       <c r="E18">
-        <v>1.01175794602971</v>
+        <v>1.053369279834717</v>
       </c>
       <c r="F18">
-        <v>1.019903193835403</v>
+        <v>1.059964867756506</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042390824783456</v>
+        <v>1.038713773624149</v>
       </c>
       <c r="J18">
-        <v>1.015866850050405</v>
+        <v>1.045164727489224</v>
       </c>
       <c r="K18">
-        <v>1.027754005914024</v>
+        <v>1.050732102445219</v>
       </c>
       <c r="L18">
-        <v>1.025376762203154</v>
+        <v>1.05663456357811</v>
       </c>
       <c r="M18">
-        <v>1.033386993937751</v>
+        <v>1.063208432519109</v>
       </c>
       <c r="N18">
-        <v>1.00849129942491</v>
+        <v>1.018847673857602</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9888457271520739</v>
+        <v>1.039174578242696</v>
       </c>
       <c r="D19">
-        <v>1.014544398613269</v>
+        <v>1.047518527924719</v>
       </c>
       <c r="E19">
-        <v>1.012148657332629</v>
+        <v>1.053449543954639</v>
       </c>
       <c r="F19">
-        <v>1.020308915422426</v>
+        <v>1.060046289537962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0425227582187</v>
+        <v>1.038732966725588</v>
       </c>
       <c r="J19">
-        <v>1.016199719974159</v>
+        <v>1.045229505407952</v>
       </c>
       <c r="K19">
-        <v>1.028053489091572</v>
+        <v>1.050789201994472</v>
       </c>
       <c r="L19">
-        <v>1.025697496260271</v>
+        <v>1.056700524560136</v>
       </c>
       <c r="M19">
-        <v>1.033723347998581</v>
+        <v>1.06327564992904</v>
       </c>
       <c r="N19">
-        <v>1.00860677921797</v>
+        <v>1.018869782674074</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.98664925732654</v>
+        <v>1.038762190829015</v>
       </c>
       <c r="D20">
-        <v>1.012888406552882</v>
+        <v>1.047198896603371</v>
       </c>
       <c r="E20">
-        <v>1.010395176138647</v>
+        <v>1.0530906371635</v>
       </c>
       <c r="F20">
-        <v>1.018487709571734</v>
+        <v>1.059682176634183</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041929509721149</v>
+        <v>1.038647019908348</v>
       </c>
       <c r="J20">
-        <v>1.014704708827602</v>
+        <v>1.044939755239863</v>
       </c>
       <c r="K20">
-        <v>1.026708352458277</v>
+        <v>1.050533774059153</v>
       </c>
       <c r="L20">
-        <v>1.024257668931209</v>
+        <v>1.056405536768647</v>
       </c>
       <c r="M20">
-        <v>1.032213082314677</v>
+        <v>1.062975014540064</v>
       </c>
       <c r="N20">
-        <v>1.008088091299878</v>
+        <v>1.018770877614074</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9793413724951747</v>
+        <v>1.037421323144179</v>
       </c>
       <c r="D21">
-        <v>1.007387476056143</v>
+        <v>1.046159469778682</v>
       </c>
       <c r="E21">
-        <v>1.004582848098619</v>
+        <v>1.051924730108985</v>
       </c>
       <c r="F21">
-        <v>1.012444388949316</v>
+        <v>1.058498837928328</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039942780490368</v>
+        <v>1.038365653471796</v>
       </c>
       <c r="J21">
-        <v>1.009728955308174</v>
+        <v>1.043996901886173</v>
       </c>
       <c r="K21">
-        <v>1.022230229161409</v>
+        <v>1.049702204227559</v>
       </c>
       <c r="L21">
-        <v>1.019477914084941</v>
+        <v>1.055446593694867</v>
       </c>
       <c r="M21">
-        <v>1.027193772685571</v>
+        <v>1.061997208573393</v>
       </c>
       <c r="N21">
-        <v>1.006361187115396</v>
+        <v>1.018448813777336</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9746104221341547</v>
+        <v>1.036578137539882</v>
       </c>
       <c r="D22">
-        <v>1.003833791036309</v>
+        <v>1.045505728363819</v>
       </c>
       <c r="E22">
-        <v>1.000837742679993</v>
+        <v>1.051192392531882</v>
       </c>
       <c r="F22">
-        <v>1.00854528871123</v>
+        <v>1.057755151443189</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038647058343275</v>
+        <v>1.038187255605519</v>
       </c>
       <c r="J22">
-        <v>1.006506901016062</v>
+        <v>1.043403438684185</v>
       </c>
       <c r="K22">
-        <v>1.019329680447245</v>
+        <v>1.049178480000237</v>
       </c>
       <c r="L22">
-        <v>1.016392621972206</v>
+        <v>1.054843736268998</v>
       </c>
       <c r="M22">
-        <v>1.02394934145435</v>
+        <v>1.061382105696739</v>
       </c>
       <c r="N22">
-        <v>1.005242547240168</v>
+        <v>1.018245924659812</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9771318556972622</v>
+        <v>1.037025138983444</v>
       </c>
       <c r="D23">
-        <v>1.005727029323691</v>
+        <v>1.045852309338312</v>
       </c>
       <c r="E23">
-        <v>1.002832034418955</v>
+        <v>1.051580550890916</v>
       </c>
       <c r="F23">
-        <v>1.010622078594167</v>
+        <v>1.058149363006284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039338504047481</v>
+        <v>1.038281969126272</v>
       </c>
       <c r="J23">
-        <v>1.008224197443292</v>
+        <v>1.043718107010217</v>
       </c>
       <c r="K23">
-        <v>1.020875677243263</v>
+        <v>1.049456200015599</v>
       </c>
       <c r="L23">
-        <v>1.018036080111204</v>
+        <v>1.055163316029811</v>
       </c>
       <c r="M23">
-        <v>1.025677999433202</v>
+        <v>1.06170821360563</v>
       </c>
       <c r="N23">
-        <v>1.005838793063952</v>
+        <v>1.018353517499109</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9867695857783862</v>
+        <v>1.038784668600396</v>
       </c>
       <c r="D24">
-        <v>1.012979095571164</v>
+        <v>1.047216319160779</v>
       </c>
       <c r="E24">
-        <v>1.010491158143929</v>
+        <v>1.053110195879412</v>
       </c>
       <c r="F24">
-        <v>1.018587422556768</v>
+        <v>1.059702021015556</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041962058463365</v>
+        <v>1.038651711778958</v>
       </c>
       <c r="J24">
-        <v>1.014786616848893</v>
+        <v>1.044955551278616</v>
       </c>
       <c r="K24">
-        <v>1.026782054063961</v>
+        <v>1.050547700502891</v>
       </c>
       <c r="L24">
-        <v>1.02433650853714</v>
+        <v>1.056421614753025</v>
       </c>
       <c r="M24">
-        <v>1.032295799923055</v>
+        <v>1.062991402238277</v>
       </c>
       <c r="N24">
-        <v>1.008116511301693</v>
+        <v>1.018776270377229</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9974123584495045</v>
+        <v>1.040826002303825</v>
       </c>
       <c r="D25">
-        <v>1.02101395214372</v>
+        <v>1.048798264861683</v>
       </c>
       <c r="E25">
-        <v>1.019016706767122</v>
+        <v>1.054888382218776</v>
       </c>
       <c r="F25">
-        <v>1.02743313738709</v>
+        <v>1.06150522578271</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044817005454588</v>
+        <v>1.03907428731193</v>
       </c>
       <c r="J25">
-        <v>1.022027121972064</v>
+        <v>1.046388716649252</v>
       </c>
       <c r="K25">
-        <v>1.033294582322905</v>
+        <v>1.051810496891991</v>
       </c>
       <c r="L25">
-        <v>1.031326814923571</v>
+        <v>1.057882106232485</v>
       </c>
       <c r="M25">
-        <v>1.039620008709359</v>
+        <v>1.064479103283156</v>
       </c>
       <c r="N25">
-        <v>1.010627564457705</v>
+        <v>1.019265138092452</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042453823061956</v>
+        <v>1.005514725818301</v>
       </c>
       <c r="D2">
-        <v>1.050059299706727</v>
+        <v>1.027147699082974</v>
       </c>
       <c r="E2">
-        <v>1.056309181877289</v>
+        <v>1.025556020748674</v>
       </c>
       <c r="F2">
-        <v>1.062944626805408</v>
+        <v>1.03420227926399</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03940610317222</v>
+        <v>1.046954219811442</v>
       </c>
       <c r="J2">
-        <v>1.047529560930557</v>
+        <v>1.027531734270932</v>
       </c>
       <c r="K2">
-        <v>1.052814629854615</v>
+        <v>1.038241348181422</v>
       </c>
       <c r="L2">
-        <v>1.059047246760224</v>
+        <v>1.036670440596109</v>
       </c>
       <c r="M2">
-        <v>1.065664601864454</v>
+        <v>1.045204831086733</v>
       </c>
       <c r="N2">
-        <v>1.0196536817771</v>
+        <v>1.012534541190381</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043635600619232</v>
+        <v>1.011195666865455</v>
       </c>
       <c r="D3">
-        <v>1.050974513174485</v>
+        <v>1.031456106792344</v>
       </c>
       <c r="E3">
-        <v>1.057342277321322</v>
+        <v>1.03016692941223</v>
       </c>
       <c r="F3">
-        <v>1.063990447109192</v>
+        <v>1.038966474032978</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0396440004701</v>
+        <v>1.048430584532873</v>
       </c>
       <c r="J3">
-        <v>1.048356628932064</v>
+        <v>1.031385710905442</v>
       </c>
       <c r="K3">
-        <v>1.053541948625701</v>
+        <v>1.041701719632236</v>
       </c>
       <c r="L3">
-        <v>1.059893396887044</v>
+        <v>1.040427837581043</v>
       </c>
       <c r="M3">
-        <v>1.066524756850403</v>
+        <v>1.049123914080996</v>
       </c>
       <c r="N3">
-        <v>1.019935004194602</v>
+        <v>1.013868286421336</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044400224528282</v>
+        <v>1.014784611474089</v>
       </c>
       <c r="D4">
-        <v>1.051566530633798</v>
+        <v>1.034180952341524</v>
       </c>
       <c r="E4">
-        <v>1.0580114406879</v>
+        <v>1.033091176260382</v>
       </c>
       <c r="F4">
-        <v>1.064667483877108</v>
+        <v>1.041983976605887</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039796534382274</v>
+        <v>1.049352674006649</v>
       </c>
       <c r="J4">
-        <v>1.048891207229141</v>
+        <v>1.033817540063626</v>
       </c>
       <c r="K4">
-        <v>1.054011756249492</v>
+        <v>1.043883629577059</v>
       </c>
       <c r="L4">
-        <v>1.060440986180277</v>
+        <v>1.04280597348366</v>
       </c>
       <c r="M4">
-        <v>1.067081049616671</v>
+        <v>1.051600781495762</v>
       </c>
       <c r="N4">
-        <v>1.020116671886963</v>
+        <v>1.01470915670675</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044721658085566</v>
+        <v>1.016273472342786</v>
       </c>
       <c r="D5">
-        <v>1.051815370156864</v>
+        <v>1.035311982799007</v>
       </c>
       <c r="E5">
-        <v>1.05829292009656</v>
+        <v>1.034306906216431</v>
       </c>
       <c r="F5">
-        <v>1.064952187132097</v>
+        <v>1.04323754029827</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039860324112157</v>
+        <v>1.049732601474461</v>
       </c>
       <c r="J5">
-        <v>1.04911580319181</v>
+        <v>1.034825622920674</v>
       </c>
       <c r="K5">
-        <v>1.054209068188491</v>
+        <v>1.044787716137999</v>
       </c>
       <c r="L5">
-        <v>1.060671210367289</v>
+        <v>1.043793509167393</v>
       </c>
       <c r="M5">
-        <v>1.067314847012016</v>
+        <v>1.052628459061671</v>
       </c>
       <c r="N5">
-        <v>1.020192957249295</v>
+        <v>1.015057547852858</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044775627390731</v>
+        <v>1.016522314912319</v>
       </c>
       <c r="D6">
-        <v>1.05185714879474</v>
+        <v>1.035501054143466</v>
       </c>
       <c r="E6">
-        <v>1.058340191292936</v>
+        <v>1.034510249926187</v>
       </c>
       <c r="F6">
-        <v>1.064999994580218</v>
+        <v>1.043447157420555</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039871015013235</v>
+        <v>1.049795946845651</v>
       </c>
       <c r="J6">
-        <v>1.049153505602756</v>
+        <v>1.034994064386324</v>
       </c>
       <c r="K6">
-        <v>1.054242186292058</v>
+        <v>1.044938756886767</v>
       </c>
       <c r="L6">
-        <v>1.060709867057177</v>
+        <v>1.043958617196052</v>
       </c>
       <c r="M6">
-        <v>1.06735409863543</v>
+        <v>1.052800228312238</v>
       </c>
       <c r="N6">
-        <v>1.020205760754145</v>
+        <v>1.01511574994501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04440451959393</v>
+        <v>1.014804582875842</v>
       </c>
       <c r="D7">
-        <v>1.051569855814859</v>
+        <v>1.034196121432458</v>
       </c>
       <c r="E7">
-        <v>1.058015201188588</v>
+        <v>1.033107473693544</v>
       </c>
       <c r="F7">
-        <v>1.064671287793231</v>
+        <v>1.042000784900162</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03979738806215</v>
+        <v>1.04935778064743</v>
       </c>
       <c r="J7">
-        <v>1.048894208843835</v>
+        <v>1.033831065407398</v>
       </c>
       <c r="K7">
-        <v>1.054014393507947</v>
+        <v>1.0438957612058</v>
       </c>
       <c r="L7">
-        <v>1.060444062377748</v>
+        <v>1.042819216419387</v>
       </c>
       <c r="M7">
-        <v>1.067084173896246</v>
+        <v>1.051614566114548</v>
       </c>
       <c r="N7">
-        <v>1.020117691560376</v>
+        <v>1.014713831761544</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042853224585336</v>
+        <v>1.007453199598975</v>
       </c>
       <c r="D8">
-        <v>1.050368639143124</v>
+        <v>1.028617149061556</v>
       </c>
       <c r="E8">
-        <v>1.056658180185456</v>
+        <v>1.027126939999029</v>
       </c>
       <c r="F8">
-        <v>1.063298000264248</v>
+        <v>1.035826260768377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03948679188159</v>
+        <v>1.047460187116557</v>
       </c>
       <c r="J8">
-        <v>1.047809194896475</v>
+        <v>1.028847387545067</v>
       </c>
       <c r="K8">
-        <v>1.053060599787044</v>
+        <v>1.03942294822299</v>
       </c>
       <c r="L8">
-        <v>1.059333191942108</v>
+        <v>1.037951581225249</v>
       </c>
       <c r="M8">
-        <v>1.065955354378079</v>
+        <v>1.046541862118116</v>
       </c>
       <c r="N8">
-        <v>1.019748831973483</v>
+        <v>1.012989993079195</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040119088004062</v>
+        <v>0.9937893632032007</v>
       </c>
       <c r="D9">
-        <v>1.048250504990133</v>
+        <v>1.018275793224902</v>
       </c>
       <c r="E9">
-        <v>1.054272156315677</v>
+        <v>1.016106378069979</v>
       </c>
       <c r="F9">
-        <v>1.060880545171168</v>
+        <v>1.024416052806324</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038928746994578</v>
+        <v>1.043850711089053</v>
       </c>
       <c r="J9">
-        <v>1.045892720383075</v>
+        <v>1.019563357523031</v>
       </c>
       <c r="K9">
-        <v>1.051373631175817</v>
+        <v>1.031079157465298</v>
       </c>
       <c r="L9">
-        <v>1.05737625785066</v>
+        <v>1.028943435674668</v>
       </c>
       <c r="M9">
-        <v>1.063964039839361</v>
+        <v>1.037125038645385</v>
       </c>
       <c r="N9">
-        <v>1.019096042727262</v>
+        <v>1.009773412280951</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038295873517269</v>
+        <v>0.9841369738771288</v>
       </c>
       <c r="D10">
-        <v>1.046837438252679</v>
+        <v>1.010995775258724</v>
       </c>
       <c r="E10">
-        <v>1.052684981709342</v>
+        <v>1.0083932792588</v>
       </c>
       <c r="F10">
-        <v>1.05927054579334</v>
+        <v>1.016407371457438</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038549497520085</v>
+        <v>1.041248684598163</v>
       </c>
       <c r="J10">
-        <v>1.044611983346377</v>
+        <v>1.01299441512571</v>
       </c>
       <c r="K10">
-        <v>1.050244757614871</v>
+        <v>1.025169295681637</v>
       </c>
       <c r="L10">
-        <v>1.056072007184128</v>
+        <v>1.022612626236888</v>
       </c>
       <c r="M10">
-        <v>1.062635011075451</v>
+        <v>1.030486572834526</v>
       </c>
       <c r="N10">
-        <v>1.018658954506477</v>
+        <v>1.007494604692117</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0375062740172</v>
+        <v>0.9798120980934544</v>
       </c>
       <c r="D11">
-        <v>1.04622532949823</v>
+        <v>1.007741393276295</v>
       </c>
       <c r="E11">
-        <v>1.051998548208311</v>
+        <v>1.004956239818324</v>
       </c>
       <c r="F11">
-        <v>1.058573783003971</v>
+        <v>1.012832915196102</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038383565018666</v>
+        <v>1.040071313403641</v>
       </c>
       <c r="J11">
-        <v>1.044056669432194</v>
+        <v>1.010049519998734</v>
       </c>
       <c r="K11">
-        <v>1.049754935425051</v>
+        <v>1.022518780158936</v>
       </c>
       <c r="L11">
-        <v>1.055507338422639</v>
+        <v>1.019785290096016</v>
       </c>
       <c r="M11">
-        <v>1.062059170755968</v>
+        <v>1.02751681254594</v>
       </c>
       <c r="N11">
-        <v>1.018469239450405</v>
+        <v>1.006472467061046</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037212959481741</v>
+        <v>0.9781822588874324</v>
       </c>
       <c r="D12">
-        <v>1.045997928356798</v>
+        <v>1.006516241937935</v>
       </c>
       <c r="E12">
-        <v>1.051743699749998</v>
+        <v>1.003663993921709</v>
       </c>
       <c r="F12">
-        <v>1.058315030581159</v>
+        <v>1.011488121198617</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038321672499894</v>
+        <v>1.03962597212559</v>
       </c>
       <c r="J12">
-        <v>1.043850288173203</v>
+        <v>1.008939572656275</v>
       </c>
       <c r="K12">
-        <v>1.04957284103352</v>
+        <v>1.021519656862746</v>
       </c>
       <c r="L12">
-        <v>1.055297607104644</v>
+        <v>1.018721332645004</v>
       </c>
       <c r="M12">
-        <v>1.061845223189939</v>
+        <v>1.02639848761589</v>
       </c>
       <c r="N12">
-        <v>1.018398702608704</v>
+        <v>1.006087151105288</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037275877474593</v>
+        <v>0.9785329498155146</v>
       </c>
       <c r="D13">
-        <v>1.046046708340723</v>
+        <v>1.00677979686818</v>
       </c>
       <c r="E13">
-        <v>1.051798360024085</v>
+        <v>1.003941906425798</v>
       </c>
       <c r="F13">
-        <v>1.05837053131333</v>
+        <v>1.011777375099148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038334960323555</v>
+        <v>1.039721868763936</v>
       </c>
       <c r="J13">
-        <v>1.043894562778042</v>
+        <v>1.009178404647614</v>
       </c>
       <c r="K13">
-        <v>1.049611907813199</v>
+        <v>1.021734647642199</v>
       </c>
       <c r="L13">
-        <v>1.055342594654674</v>
+        <v>1.018950191877389</v>
       </c>
       <c r="M13">
-        <v>1.061891118157329</v>
+        <v>1.02663907654246</v>
       </c>
       <c r="N13">
-        <v>1.018413836090643</v>
+        <v>1.006170063924078</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037482029007662</v>
+        <v>0.9796778616789267</v>
       </c>
       <c r="D14">
-        <v>1.046206533199898</v>
+        <v>1.007640461036681</v>
       </c>
       <c r="E14">
-        <v>1.051977479837044</v>
+        <v>1.004849746033624</v>
       </c>
       <c r="F14">
-        <v>1.05855239330193</v>
+        <v>1.012722109025214</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038378454223622</v>
+        <v>1.040034667258719</v>
       </c>
       <c r="J14">
-        <v>1.044039612201748</v>
+        <v>1.009958105478315</v>
       </c>
       <c r="K14">
-        <v>1.049739886562195</v>
+        <v>1.022436495450984</v>
       </c>
       <c r="L14">
-        <v>1.055490001727307</v>
+        <v>1.019697628776877</v>
       </c>
       <c r="M14">
-        <v>1.062041486904477</v>
+        <v>1.027424687576487</v>
       </c>
       <c r="N14">
-        <v>1.018463410245771</v>
+        <v>1.006440733967727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037609042786945</v>
+        <v>0.9803801316309462</v>
       </c>
       <c r="D15">
-        <v>1.046305001695696</v>
+        <v>1.008168549741098</v>
       </c>
       <c r="E15">
-        <v>1.05208785782466</v>
+        <v>1.005407001501644</v>
       </c>
       <c r="F15">
-        <v>1.058664451922947</v>
+        <v>1.013301894007313</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038405218085684</v>
+        <v>1.040226318352879</v>
       </c>
       <c r="J15">
-        <v>1.044128966947979</v>
+        <v>1.010436342933265</v>
       </c>
       <c r="K15">
-        <v>1.049818718254369</v>
+        <v>1.022866965001405</v>
       </c>
       <c r="L15">
-        <v>1.055580825645424</v>
+        <v>1.020156300069975</v>
       </c>
       <c r="M15">
-        <v>1.062134126773673</v>
+        <v>1.027906682533801</v>
       </c>
       <c r="N15">
-        <v>1.018493945473643</v>
+        <v>1.00660674384741</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038348273629187</v>
+        <v>0.9844208103507742</v>
       </c>
       <c r="D16">
-        <v>1.046878056771183</v>
+        <v>1.011209524356861</v>
       </c>
       <c r="E16">
-        <v>1.05273055537269</v>
+        <v>1.008619255022561</v>
       </c>
       <c r="F16">
-        <v>1.059316795563631</v>
+        <v>1.016642261103061</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038560473768866</v>
+        <v>1.041325721839351</v>
       </c>
       <c r="J16">
-        <v>1.044648821907892</v>
+        <v>1.013187658773359</v>
       </c>
       <c r="K16">
-        <v>1.050277244125307</v>
+        <v>1.02534320238344</v>
       </c>
       <c r="L16">
-        <v>1.056109484060306</v>
+        <v>1.022798384917921</v>
       </c>
       <c r="M16">
-        <v>1.062673220035267</v>
+        <v>1.030681582978326</v>
       </c>
       <c r="N16">
-        <v>1.01867153571195</v>
+        <v>1.007561667265701</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038811936067059</v>
+        <v>0.9869154601146339</v>
       </c>
       <c r="D17">
-        <v>1.047237454128038</v>
+        <v>1.013089042776112</v>
       </c>
       <c r="E17">
-        <v>1.053133922901225</v>
+        <v>1.010607529415442</v>
       </c>
       <c r="F17">
-        <v>1.059726094281147</v>
+        <v>1.01870831367954</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038657402307915</v>
+        <v>1.042001509831269</v>
       </c>
       <c r="J17">
-        <v>1.044974712800047</v>
+        <v>1.014885912958779</v>
       </c>
       <c r="K17">
-        <v>1.050564593861866</v>
+        <v>1.026871400905698</v>
       </c>
       <c r="L17">
-        <v>1.056441118844744</v>
+        <v>1.024432091814317</v>
       </c>
       <c r="M17">
-        <v>1.063011281748905</v>
+        <v>1.032396081543867</v>
       </c>
       <c r="N17">
-        <v>1.018782811984376</v>
+        <v>1.008150964172667</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039082369557092</v>
+        <v>0.9883566373912386</v>
       </c>
       <c r="D18">
-        <v>1.047447061248985</v>
+        <v>1.01417555567039</v>
       </c>
       <c r="E18">
-        <v>1.053369279834717</v>
+        <v>1.011757946029709</v>
       </c>
       <c r="F18">
-        <v>1.059964867756506</v>
+        <v>1.019903193835402</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038713773624149</v>
+        <v>1.042390824783456</v>
       </c>
       <c r="J18">
-        <v>1.045164727489224</v>
+        <v>1.015866850050404</v>
       </c>
       <c r="K18">
-        <v>1.050732102445219</v>
+        <v>1.027754005914024</v>
       </c>
       <c r="L18">
-        <v>1.05663456357811</v>
+        <v>1.025376762203154</v>
       </c>
       <c r="M18">
-        <v>1.063208432519109</v>
+        <v>1.03338699393775</v>
       </c>
       <c r="N18">
-        <v>1.018847673857602</v>
+        <v>1.00849129942491</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039174578242696</v>
+        <v>0.9888457271520733</v>
       </c>
       <c r="D19">
-        <v>1.047518527924719</v>
+        <v>1.014544398613268</v>
       </c>
       <c r="E19">
-        <v>1.053449543954639</v>
+        <v>1.012148657332629</v>
       </c>
       <c r="F19">
-        <v>1.060046289537962</v>
+        <v>1.020308915422425</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038732966725588</v>
+        <v>1.0425227582187</v>
       </c>
       <c r="J19">
-        <v>1.045229505407952</v>
+        <v>1.016199719974158</v>
       </c>
       <c r="K19">
-        <v>1.050789201994472</v>
+        <v>1.028053489091572</v>
       </c>
       <c r="L19">
-        <v>1.056700524560136</v>
+        <v>1.025697496260271</v>
       </c>
       <c r="M19">
-        <v>1.06327564992904</v>
+        <v>1.033723347998581</v>
       </c>
       <c r="N19">
-        <v>1.018869782674074</v>
+        <v>1.00860677921797</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038762190829015</v>
+        <v>0.9866492573265411</v>
       </c>
       <c r="D20">
-        <v>1.047198896603371</v>
+        <v>1.012888406552883</v>
       </c>
       <c r="E20">
-        <v>1.0530906371635</v>
+        <v>1.010395176138648</v>
       </c>
       <c r="F20">
-        <v>1.059682176634183</v>
+        <v>1.018487709571734</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038647019908348</v>
+        <v>1.041929509721149</v>
       </c>
       <c r="J20">
-        <v>1.044939755239863</v>
+        <v>1.014704708827603</v>
       </c>
       <c r="K20">
-        <v>1.050533774059153</v>
+        <v>1.026708352458278</v>
       </c>
       <c r="L20">
-        <v>1.056405536768647</v>
+        <v>1.02425766893121</v>
       </c>
       <c r="M20">
-        <v>1.062975014540064</v>
+        <v>1.032213082314678</v>
       </c>
       <c r="N20">
-        <v>1.018770877614074</v>
+        <v>1.008088091299878</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037421323144179</v>
+        <v>0.9793413724951756</v>
       </c>
       <c r="D21">
-        <v>1.046159469778682</v>
+        <v>1.007387476056144</v>
       </c>
       <c r="E21">
-        <v>1.051924730108985</v>
+        <v>1.00458284809862</v>
       </c>
       <c r="F21">
-        <v>1.058498837928328</v>
+        <v>1.012444388949317</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038365653471796</v>
+        <v>1.039942780490369</v>
       </c>
       <c r="J21">
-        <v>1.043996901886173</v>
+        <v>1.009728955308175</v>
       </c>
       <c r="K21">
-        <v>1.049702204227559</v>
+        <v>1.02223022916141</v>
       </c>
       <c r="L21">
-        <v>1.055446593694867</v>
+        <v>1.019477914084942</v>
       </c>
       <c r="M21">
-        <v>1.061997208573393</v>
+        <v>1.027193772685572</v>
       </c>
       <c r="N21">
-        <v>1.018448813777336</v>
+        <v>1.006361187115397</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036578137539882</v>
+        <v>0.9746104221341539</v>
       </c>
       <c r="D22">
-        <v>1.045505728363819</v>
+        <v>1.003833791036309</v>
       </c>
       <c r="E22">
-        <v>1.051192392531882</v>
+        <v>1.000837742679992</v>
       </c>
       <c r="F22">
-        <v>1.057755151443189</v>
+        <v>1.00854528871123</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038187255605519</v>
+        <v>1.038647058343275</v>
       </c>
       <c r="J22">
-        <v>1.043403438684185</v>
+        <v>1.006506901016062</v>
       </c>
       <c r="K22">
-        <v>1.049178480000237</v>
+        <v>1.019329680447245</v>
       </c>
       <c r="L22">
-        <v>1.054843736268998</v>
+        <v>1.016392621972206</v>
       </c>
       <c r="M22">
-        <v>1.061382105696739</v>
+        <v>1.02394934145435</v>
       </c>
       <c r="N22">
-        <v>1.018245924659812</v>
+        <v>1.005242547240168</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037025138983444</v>
+        <v>0.9771318556972632</v>
       </c>
       <c r="D23">
-        <v>1.045852309338312</v>
+        <v>1.005727029323692</v>
       </c>
       <c r="E23">
-        <v>1.051580550890916</v>
+        <v>1.002832034418956</v>
       </c>
       <c r="F23">
-        <v>1.058149363006284</v>
+        <v>1.010622078594168</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038281969126272</v>
+        <v>1.039338504047482</v>
       </c>
       <c r="J23">
-        <v>1.043718107010217</v>
+        <v>1.008224197443293</v>
       </c>
       <c r="K23">
-        <v>1.049456200015599</v>
+        <v>1.020875677243264</v>
       </c>
       <c r="L23">
-        <v>1.055163316029811</v>
+        <v>1.018036080111204</v>
       </c>
       <c r="M23">
-        <v>1.06170821360563</v>
+        <v>1.025677999433203</v>
       </c>
       <c r="N23">
-        <v>1.018353517499109</v>
+        <v>1.005838793063953</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038784668600396</v>
+        <v>0.9867695857783869</v>
       </c>
       <c r="D24">
-        <v>1.047216319160779</v>
+        <v>1.012979095571165</v>
       </c>
       <c r="E24">
-        <v>1.053110195879412</v>
+        <v>1.010491158143929</v>
       </c>
       <c r="F24">
-        <v>1.059702021015556</v>
+        <v>1.018587422556768</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038651711778958</v>
+        <v>1.041962058463365</v>
       </c>
       <c r="J24">
-        <v>1.044955551278616</v>
+        <v>1.014786616848894</v>
       </c>
       <c r="K24">
-        <v>1.050547700502891</v>
+        <v>1.026782054063961</v>
       </c>
       <c r="L24">
-        <v>1.056421614753025</v>
+        <v>1.024336508537141</v>
       </c>
       <c r="M24">
-        <v>1.062991402238277</v>
+        <v>1.032295799923055</v>
       </c>
       <c r="N24">
-        <v>1.018776270377229</v>
+        <v>1.008116511301693</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040826002303825</v>
+        <v>0.9974123584495057</v>
       </c>
       <c r="D25">
-        <v>1.048798264861683</v>
+        <v>1.021013952143722</v>
       </c>
       <c r="E25">
-        <v>1.054888382218776</v>
+        <v>1.019016706767123</v>
       </c>
       <c r="F25">
-        <v>1.06150522578271</v>
+        <v>1.027433137387091</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03907428731193</v>
+        <v>1.044817005454588</v>
       </c>
       <c r="J25">
-        <v>1.046388716649252</v>
+        <v>1.022027121972065</v>
       </c>
       <c r="K25">
-        <v>1.051810496891991</v>
+        <v>1.033294582322906</v>
       </c>
       <c r="L25">
-        <v>1.057882106232485</v>
+        <v>1.031326814923572</v>
       </c>
       <c r="M25">
-        <v>1.064479103283156</v>
+        <v>1.039620008709359</v>
       </c>
       <c r="N25">
-        <v>1.019265138092452</v>
+        <v>1.010627564457705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005514725818301</v>
+        <v>1.002290083315035</v>
       </c>
       <c r="D2">
-        <v>1.027147699082974</v>
+        <v>1.026731673640824</v>
       </c>
       <c r="E2">
-        <v>1.025556020748674</v>
+        <v>1.027080025372065</v>
       </c>
       <c r="F2">
-        <v>1.03420227926399</v>
+        <v>1.035742646438897</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046954219811442</v>
+        <v>1.047067310407347</v>
       </c>
       <c r="J2">
-        <v>1.027531734270932</v>
+        <v>1.024402513472171</v>
       </c>
       <c r="K2">
-        <v>1.038241348181422</v>
+        <v>1.037830743915011</v>
       </c>
       <c r="L2">
-        <v>1.036670440596109</v>
+        <v>1.03817455594375</v>
       </c>
       <c r="M2">
-        <v>1.045204831086733</v>
+        <v>1.046725513415444</v>
       </c>
       <c r="N2">
-        <v>1.012534541190381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012049487923045</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045552482735887</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037819880778135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011195666865455</v>
+        <v>1.005625866558134</v>
       </c>
       <c r="D3">
-        <v>1.031456106792344</v>
+        <v>1.028911298353823</v>
       </c>
       <c r="E3">
-        <v>1.03016692941223</v>
+        <v>1.029890847474705</v>
       </c>
       <c r="F3">
-        <v>1.038966474032978</v>
+        <v>1.038230372841486</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048430584532873</v>
+        <v>1.04758501010371</v>
       </c>
       <c r="J3">
-        <v>1.031385710905442</v>
+        <v>1.025964330914628</v>
       </c>
       <c r="K3">
-        <v>1.041701719632236</v>
+        <v>1.039187149521103</v>
       </c>
       <c r="L3">
-        <v>1.040427837581043</v>
+        <v>1.040155037362807</v>
       </c>
       <c r="M3">
-        <v>1.049123914080996</v>
+        <v>1.048396385087917</v>
       </c>
       <c r="N3">
-        <v>1.013868286421336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012578909291441</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046874855262269</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038776310617729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014784611474089</v>
+        <v>1.007750321913077</v>
       </c>
       <c r="D4">
-        <v>1.034180952341524</v>
+        <v>1.030303071786214</v>
       </c>
       <c r="E4">
-        <v>1.033091176260382</v>
+        <v>1.031689416630754</v>
       </c>
       <c r="F4">
-        <v>1.041983976605887</v>
+        <v>1.039821025247349</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049352674006649</v>
+        <v>1.04790582593233</v>
       </c>
       <c r="J4">
-        <v>1.033817540063626</v>
+        <v>1.026957830178088</v>
       </c>
       <c r="K4">
-        <v>1.043883629577059</v>
+        <v>1.04004902070501</v>
       </c>
       <c r="L4">
-        <v>1.04280597348366</v>
+        <v>1.041419849914257</v>
       </c>
       <c r="M4">
-        <v>1.051600781495762</v>
+        <v>1.049461474862553</v>
       </c>
       <c r="N4">
-        <v>1.01470915670675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01291561138473</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047717794556195</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039386624366377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016273472342786</v>
+        <v>1.008638139767185</v>
       </c>
       <c r="D5">
-        <v>1.035311982799007</v>
+        <v>1.030887306684277</v>
       </c>
       <c r="E5">
-        <v>1.034306906216431</v>
+        <v>1.032442785809021</v>
       </c>
       <c r="F5">
-        <v>1.04323754029827</v>
+        <v>1.040487513015011</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049732601474461</v>
+        <v>1.048038954408264</v>
       </c>
       <c r="J5">
-        <v>1.034825622920674</v>
+        <v>1.027374048581831</v>
       </c>
       <c r="K5">
-        <v>1.044787716137999</v>
+        <v>1.040411086443518</v>
       </c>
       <c r="L5">
-        <v>1.043793509167393</v>
+        <v>1.041949617423684</v>
       </c>
       <c r="M5">
-        <v>1.052628459061671</v>
+        <v>1.049907681675165</v>
       </c>
       <c r="N5">
-        <v>1.015057547852858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013056858836835</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048070933756614</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039649809215689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016522314912319</v>
+        <v>1.008789943605669</v>
       </c>
       <c r="D6">
-        <v>1.035501054143466</v>
+        <v>1.030989398834802</v>
       </c>
       <c r="E6">
-        <v>1.034510249926187</v>
+        <v>1.032571408143587</v>
       </c>
       <c r="F6">
-        <v>1.043447157420555</v>
+        <v>1.040601887090125</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049795946845651</v>
+        <v>1.048063082371388</v>
       </c>
       <c r="J6">
-        <v>1.034994064386324</v>
+        <v>1.027446817937528</v>
       </c>
       <c r="K6">
-        <v>1.044938756886767</v>
+        <v>1.040475866254774</v>
       </c>
       <c r="L6">
-        <v>1.043958617196052</v>
+        <v>1.042040716758928</v>
       </c>
       <c r="M6">
-        <v>1.052800228312238</v>
+        <v>1.049985080402149</v>
       </c>
       <c r="N6">
-        <v>1.01511574994501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013081805527468</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048132189022427</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039704362385595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014804582875842</v>
+        <v>1.007770801947782</v>
       </c>
       <c r="D7">
-        <v>1.034196121432458</v>
+        <v>1.030322289595921</v>
       </c>
       <c r="E7">
-        <v>1.033107473693544</v>
+        <v>1.031705966929353</v>
       </c>
       <c r="F7">
-        <v>1.042000784900162</v>
+        <v>1.039837266784505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04935778064743</v>
+        <v>1.047912909706373</v>
       </c>
       <c r="J7">
-        <v>1.033831065407398</v>
+        <v>1.02697177841554</v>
       </c>
       <c r="K7">
-        <v>1.0438957612058</v>
+        <v>1.04006513969816</v>
       </c>
       <c r="L7">
-        <v>1.042819216419387</v>
+        <v>1.041433337073658</v>
       </c>
       <c r="M7">
-        <v>1.051614566114548</v>
+        <v>1.049474690135025</v>
       </c>
       <c r="N7">
-        <v>1.014713831761544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01292103371196</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047728253454854</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039418143218117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007453199598975</v>
+        <v>1.003435319760235</v>
       </c>
       <c r="D8">
-        <v>1.028617149061556</v>
+        <v>1.027486285614705</v>
       </c>
       <c r="E8">
-        <v>1.027126939999029</v>
+        <v>1.02804232085948</v>
       </c>
       <c r="F8">
-        <v>1.035826260768377</v>
+        <v>1.036596481257274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047460187116557</v>
+        <v>1.047251791252025</v>
       </c>
       <c r="J8">
-        <v>1.028847387545067</v>
+        <v>1.024944337853498</v>
       </c>
       <c r="K8">
-        <v>1.03942294822299</v>
+        <v>1.038306377066617</v>
       </c>
       <c r="L8">
-        <v>1.037951581225249</v>
+        <v>1.038855380018634</v>
       </c>
       <c r="M8">
-        <v>1.046541862118116</v>
+        <v>1.047302538255208</v>
       </c>
       <c r="N8">
-        <v>1.012989993079195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012234071133477</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046009155894334</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038179117914218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9937893632032007</v>
+        <v>0.9955111528130036</v>
       </c>
       <c r="D9">
-        <v>1.018275793224902</v>
+        <v>1.022324134130814</v>
       </c>
       <c r="E9">
-        <v>1.016106378069979</v>
+        <v>1.021415688258892</v>
       </c>
       <c r="F9">
-        <v>1.024416052806324</v>
+        <v>1.03072326107602</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043850711089053</v>
+        <v>1.045968414321137</v>
       </c>
       <c r="J9">
-        <v>1.019563357523031</v>
+        <v>1.021223425756829</v>
       </c>
       <c r="K9">
-        <v>1.031079157465298</v>
+        <v>1.03506511119283</v>
       </c>
       <c r="L9">
-        <v>1.028943435674668</v>
+        <v>1.03417061005152</v>
       </c>
       <c r="M9">
-        <v>1.037125038645385</v>
+        <v>1.043336792779979</v>
       </c>
       <c r="N9">
-        <v>1.009773412280951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010971642131568</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042870551272909</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035884148812275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9841369738771288</v>
+        <v>0.9900738432811587</v>
       </c>
       <c r="D10">
-        <v>1.010995775258724</v>
+        <v>1.018825406732734</v>
       </c>
       <c r="E10">
-        <v>1.0083932792588</v>
+        <v>1.016964814073267</v>
       </c>
       <c r="F10">
-        <v>1.016407371457438</v>
+        <v>1.026794560645063</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041248684598163</v>
+        <v>1.045062256338291</v>
       </c>
       <c r="J10">
-        <v>1.01299441512571</v>
+        <v>1.018686897844655</v>
       </c>
       <c r="K10">
-        <v>1.025169295681637</v>
+        <v>1.032862882759939</v>
       </c>
       <c r="L10">
-        <v>1.022612626236888</v>
+        <v>1.031034373516653</v>
       </c>
       <c r="M10">
-        <v>1.030486572834526</v>
+        <v>1.040696316285466</v>
       </c>
       <c r="N10">
-        <v>1.007494604692117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010113867798023</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040832086887673</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03434386760398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9798120980934544</v>
+        <v>0.9880015131022021</v>
       </c>
       <c r="D11">
-        <v>1.007741393276295</v>
+        <v>1.017654352536047</v>
       </c>
       <c r="E11">
-        <v>1.004956239818324</v>
+        <v>1.015665006927545</v>
       </c>
       <c r="F11">
-        <v>1.012832915196102</v>
+        <v>1.025819350632035</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040071313403641</v>
+        <v>1.04485075594141</v>
       </c>
       <c r="J11">
-        <v>1.010049519998734</v>
+        <v>1.017882104509818</v>
       </c>
       <c r="K11">
-        <v>1.022518780158936</v>
+        <v>1.032250840460664</v>
       </c>
       <c r="L11">
-        <v>1.019785290096016</v>
+        <v>1.030297429566207</v>
       </c>
       <c r="M11">
-        <v>1.02751681254594</v>
+        <v>1.040270242508183</v>
       </c>
       <c r="N11">
-        <v>1.006472467061046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009866525832254</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040929875851377</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033944016837641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9781822588874324</v>
+        <v>0.9873442241364261</v>
       </c>
       <c r="D12">
-        <v>1.006516241937935</v>
+        <v>1.017346346760856</v>
       </c>
       <c r="E12">
-        <v>1.003663993921709</v>
+        <v>1.015421500610656</v>
       </c>
       <c r="F12">
-        <v>1.011488121198617</v>
+        <v>1.025730392306828</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03962597212559</v>
+        <v>1.044841249447435</v>
       </c>
       <c r="J12">
-        <v>1.008939572656275</v>
+        <v>1.017694027606425</v>
       </c>
       <c r="K12">
-        <v>1.021519656862746</v>
+        <v>1.032148596559055</v>
       </c>
       <c r="L12">
-        <v>1.018721332645004</v>
+        <v>1.030259095155766</v>
       </c>
       <c r="M12">
-        <v>1.02639848761589</v>
+        <v>1.040380701031669</v>
       </c>
       <c r="N12">
-        <v>1.006087151105288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009822849326697</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041342770579801</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033871726908185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9785329498155146</v>
+        <v>0.9877429212419884</v>
       </c>
       <c r="D13">
-        <v>1.00677979686818</v>
+        <v>1.017696307361831</v>
       </c>
       <c r="E13">
-        <v>1.003941906425798</v>
+        <v>1.015985871127972</v>
       </c>
       <c r="F13">
-        <v>1.011777375099148</v>
+        <v>1.02633494624838</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039721868763936</v>
+        <v>1.044997987944677</v>
       </c>
       <c r="J13">
-        <v>1.009178404647614</v>
+        <v>1.017980680916929</v>
       </c>
       <c r="K13">
-        <v>1.021734647642199</v>
+        <v>1.032449226710305</v>
       </c>
       <c r="L13">
-        <v>1.018950191877389</v>
+        <v>1.030770056446583</v>
       </c>
       <c r="M13">
-        <v>1.02663907654246</v>
+        <v>1.04093202261411</v>
       </c>
       <c r="N13">
-        <v>1.006170063924078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009938198602471</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042054685493202</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034081786848592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9796778616789267</v>
+        <v>0.9885020479898933</v>
       </c>
       <c r="D14">
-        <v>1.007640461036681</v>
+        <v>1.018241201643704</v>
       </c>
       <c r="E14">
-        <v>1.004849746033624</v>
+        <v>1.01674702522833</v>
       </c>
       <c r="F14">
-        <v>1.012722109025214</v>
+        <v>1.02707301506642</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040034667258719</v>
+        <v>1.045183442953589</v>
       </c>
       <c r="J14">
-        <v>1.009958105478315</v>
+        <v>1.018397453616608</v>
       </c>
       <c r="K14">
-        <v>1.022436495450984</v>
+        <v>1.032843652772644</v>
       </c>
       <c r="L14">
-        <v>1.019697628776877</v>
+        <v>1.03137644418521</v>
       </c>
       <c r="M14">
-        <v>1.027424687576487</v>
+        <v>1.041518141719698</v>
       </c>
       <c r="N14">
-        <v>1.006440733967727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010091468785167</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042690937518262</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034362086051259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9803801316309462</v>
+        <v>0.9889199696701142</v>
       </c>
       <c r="D15">
-        <v>1.008168549741098</v>
+        <v>1.018523260499041</v>
       </c>
       <c r="E15">
-        <v>1.005407001501644</v>
+        <v>1.017117083723153</v>
       </c>
       <c r="F15">
-        <v>1.013301894007313</v>
+        <v>1.027415211016939</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040226318352879</v>
+        <v>1.045268063194635</v>
       </c>
       <c r="J15">
-        <v>1.010436342933265</v>
+        <v>1.018607139547408</v>
       </c>
       <c r="K15">
-        <v>1.022866965001405</v>
+        <v>1.033034074119675</v>
       </c>
       <c r="L15">
-        <v>1.020156300069975</v>
+        <v>1.031653082585727</v>
       </c>
       <c r="M15">
-        <v>1.027906682533801</v>
+        <v>1.041768833536154</v>
       </c>
       <c r="N15">
-        <v>1.00660674384741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01016526822965</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042926542554725</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034502598374771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9844208103507742</v>
+        <v>0.991141442920797</v>
       </c>
       <c r="D16">
-        <v>1.011209524356861</v>
+        <v>1.019939285604522</v>
       </c>
       <c r="E16">
-        <v>1.008619255022561</v>
+        <v>1.018898029016746</v>
       </c>
       <c r="F16">
-        <v>1.016642261103061</v>
+        <v>1.028983549267365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041325721839351</v>
+        <v>1.045637314479798</v>
       </c>
       <c r="J16">
-        <v>1.013187658773359</v>
+        <v>1.019633064840332</v>
       </c>
       <c r="K16">
-        <v>1.02534320238344</v>
+        <v>1.033921977784593</v>
       </c>
       <c r="L16">
-        <v>1.022798384917921</v>
+        <v>1.032898554646996</v>
       </c>
       <c r="M16">
-        <v>1.030681582978326</v>
+        <v>1.042813298214791</v>
       </c>
       <c r="N16">
-        <v>1.007561667265701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010508866738923</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043713452746124</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035133550989968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9869154601146339</v>
+        <v>0.9924501727010792</v>
       </c>
       <c r="D17">
-        <v>1.013089042776112</v>
+        <v>1.020741635914392</v>
       </c>
       <c r="E17">
-        <v>1.010607529415442</v>
+        <v>1.019865997328588</v>
       </c>
       <c r="F17">
-        <v>1.01870831367954</v>
+        <v>1.029797205492932</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042001509831269</v>
+        <v>1.045820846784416</v>
       </c>
       <c r="J17">
-        <v>1.014885912958779</v>
+        <v>1.02020160349788</v>
       </c>
       <c r="K17">
-        <v>1.026871400905698</v>
+        <v>1.034395506949532</v>
       </c>
       <c r="L17">
-        <v>1.024432091814317</v>
+        <v>1.033534444494232</v>
       </c>
       <c r="M17">
-        <v>1.032396081543867</v>
+        <v>1.043302202324276</v>
       </c>
       <c r="N17">
-        <v>1.008150964172667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010692024005371</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04397115591672</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035470946649784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9883566373912386</v>
+        <v>0.9930899782301931</v>
       </c>
       <c r="D18">
-        <v>1.01417555567039</v>
+        <v>1.021073871079011</v>
       </c>
       <c r="E18">
-        <v>1.011757946029709</v>
+        <v>1.020196047753448</v>
       </c>
       <c r="F18">
-        <v>1.019903193835402</v>
+        <v>1.030001332534784</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042390824783456</v>
+        <v>1.045854165020043</v>
       </c>
       <c r="J18">
-        <v>1.015866850050404</v>
+        <v>1.020416603816402</v>
       </c>
       <c r="K18">
-        <v>1.027754005914024</v>
+        <v>1.034538493557034</v>
       </c>
       <c r="L18">
-        <v>1.025376762203154</v>
+        <v>1.033675045118106</v>
       </c>
       <c r="M18">
-        <v>1.03338699393775</v>
+        <v>1.043321546900958</v>
       </c>
       <c r="N18">
-        <v>1.00849129942491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010749030455474</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043749376492385</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035560394889577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9888457271520733</v>
+        <v>0.9931361401551799</v>
       </c>
       <c r="D19">
-        <v>1.014544398613268</v>
+        <v>1.020996870403174</v>
       </c>
       <c r="E19">
-        <v>1.012148657332629</v>
+        <v>1.019954775465002</v>
       </c>
       <c r="F19">
-        <v>1.020308915422425</v>
+        <v>1.029661809059122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0425227582187</v>
+        <v>1.045761616863813</v>
       </c>
       <c r="J19">
-        <v>1.016199719974158</v>
+        <v>1.020324827452795</v>
       </c>
       <c r="K19">
-        <v>1.028053489091572</v>
+        <v>1.034400097934695</v>
       </c>
       <c r="L19">
-        <v>1.025697496260271</v>
+        <v>1.033374983657479</v>
       </c>
       <c r="M19">
-        <v>1.033723347998581</v>
+        <v>1.042925549555398</v>
       </c>
       <c r="N19">
-        <v>1.00860677921797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010699092073959</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043111709056802</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035468946484875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9866492573265411</v>
+        <v>0.9915034979804638</v>
       </c>
       <c r="D20">
-        <v>1.012888406552883</v>
+        <v>1.019758599968079</v>
       </c>
       <c r="E20">
-        <v>1.010395176138648</v>
+        <v>1.018132484895251</v>
       </c>
       <c r="F20">
-        <v>1.018487709571734</v>
+        <v>1.02783035535346</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041929509721149</v>
+        <v>1.045314115343935</v>
       </c>
       <c r="J20">
-        <v>1.014704708827603</v>
+        <v>1.019365920667213</v>
       </c>
       <c r="K20">
-        <v>1.026708352458278</v>
+        <v>1.033462693518527</v>
       </c>
       <c r="L20">
-        <v>1.02425766893121</v>
+        <v>1.031863817600449</v>
       </c>
       <c r="M20">
-        <v>1.032213082314678</v>
+        <v>1.041400878646461</v>
       </c>
       <c r="N20">
-        <v>1.008088091299878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010345685235822</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041379152881344</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034810088158061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9793413724951756</v>
+        <v>0.9873666342868739</v>
       </c>
       <c r="D21">
-        <v>1.007387476056144</v>
+        <v>1.017072949118833</v>
       </c>
       <c r="E21">
-        <v>1.00458284809862</v>
+        <v>1.014690048455616</v>
       </c>
       <c r="F21">
-        <v>1.012444388949317</v>
+        <v>1.024755295868129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039942780490369</v>
+        <v>1.044581056315238</v>
       </c>
       <c r="J21">
-        <v>1.009728955308175</v>
+        <v>1.017402214847</v>
       </c>
       <c r="K21">
-        <v>1.02223022916141</v>
+        <v>1.031737930971156</v>
       </c>
       <c r="L21">
-        <v>1.019477914084942</v>
+        <v>1.029398357379662</v>
       </c>
       <c r="M21">
-        <v>1.027193772685572</v>
+        <v>1.039282374010351</v>
       </c>
       <c r="N21">
-        <v>1.006361187115397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00967691168154</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039661754056653</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033593841814286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9746104221341539</v>
+        <v>0.9847306358312921</v>
       </c>
       <c r="D22">
-        <v>1.003833791036309</v>
+        <v>1.015371171819731</v>
       </c>
       <c r="E22">
-        <v>1.000837742679992</v>
+        <v>1.012532164944013</v>
       </c>
       <c r="F22">
-        <v>1.00854528871123</v>
+        <v>1.022835917589852</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038647058343275</v>
+        <v>1.044110201987207</v>
       </c>
       <c r="J22">
-        <v>1.006506901016062</v>
+        <v>1.016155960413049</v>
       </c>
       <c r="K22">
-        <v>1.019329680447245</v>
+        <v>1.030644151489919</v>
       </c>
       <c r="L22">
-        <v>1.016392621972206</v>
+        <v>1.027859379253793</v>
       </c>
       <c r="M22">
-        <v>1.02394934145435</v>
+        <v>1.037968170078604</v>
       </c>
       <c r="N22">
-        <v>1.005242547240168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009252968692987</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038621647794385</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032806960038209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9771318556972632</v>
+        <v>0.9861244765045909</v>
       </c>
       <c r="D23">
-        <v>1.005727029323692</v>
+        <v>1.01626546029707</v>
       </c>
       <c r="E23">
-        <v>1.002832034418956</v>
+        <v>1.013672548867752</v>
       </c>
       <c r="F23">
-        <v>1.010622078594168</v>
+        <v>1.023849177187208</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039338504047482</v>
+        <v>1.044356592813144</v>
       </c>
       <c r="J23">
-        <v>1.008224197443293</v>
+        <v>1.016811103401142</v>
       </c>
       <c r="K23">
-        <v>1.020875677243264</v>
+        <v>1.031215924011742</v>
       </c>
       <c r="L23">
-        <v>1.018036080111204</v>
+        <v>1.028671275672398</v>
       </c>
       <c r="M23">
-        <v>1.025677999433203</v>
+        <v>1.038660307250108</v>
       </c>
       <c r="N23">
-        <v>1.005838793063953</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009475069274707</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039169429182118</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033201577736611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9867695857783869</v>
+        <v>0.9915277139103628</v>
       </c>
       <c r="D24">
-        <v>1.012979095571165</v>
+        <v>1.019751534384296</v>
       </c>
       <c r="E24">
-        <v>1.010491158143929</v>
+        <v>1.018115455875019</v>
       </c>
       <c r="F24">
-        <v>1.018587422556768</v>
+        <v>1.027796271577997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041962058463365</v>
+        <v>1.045299339446352</v>
       </c>
       <c r="J24">
-        <v>1.014786616848894</v>
+        <v>1.019355843818534</v>
       </c>
       <c r="K24">
-        <v>1.026782054063961</v>
+        <v>1.033440447683335</v>
       </c>
       <c r="L24">
-        <v>1.024336508537141</v>
+        <v>1.031831740918401</v>
       </c>
       <c r="M24">
-        <v>1.032295799923055</v>
+        <v>1.041352225324539</v>
       </c>
       <c r="N24">
-        <v>1.008116511301693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010338964199368</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041299902636824</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034766915056611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9974123584495057</v>
+        <v>0.9976070157447194</v>
       </c>
       <c r="D25">
-        <v>1.021013952143722</v>
+        <v>1.023694486996084</v>
       </c>
       <c r="E25">
-        <v>1.019016706767123</v>
+        <v>1.023159071649403</v>
       </c>
       <c r="F25">
-        <v>1.027433137387091</v>
+        <v>1.032271740452595</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044817005454588</v>
+        <v>1.04632178094906</v>
       </c>
       <c r="J25">
-        <v>1.022027121972065</v>
+        <v>1.022215182603737</v>
       </c>
       <c r="K25">
-        <v>1.033294582322906</v>
+        <v>1.035935783735733</v>
       </c>
       <c r="L25">
-        <v>1.031326814923572</v>
+        <v>1.035408204022358</v>
       </c>
       <c r="M25">
-        <v>1.039620008709359</v>
+        <v>1.044388914779265</v>
       </c>
       <c r="N25">
-        <v>1.010627564457705</v>
+        <v>1.011309381406823</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043703232089537</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036528385243611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002290083315035</v>
+        <v>1.002144760482778</v>
       </c>
       <c r="D2">
-        <v>1.026731673640824</v>
+        <v>1.02612715576531</v>
       </c>
       <c r="E2">
-        <v>1.027080025372065</v>
+        <v>1.026833338762802</v>
       </c>
       <c r="F2">
-        <v>1.035742646438897</v>
+        <v>1.03540692785357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047067310407347</v>
+        <v>1.046822792282284</v>
       </c>
       <c r="J2">
-        <v>1.024402513472171</v>
+        <v>1.02426151082611</v>
       </c>
       <c r="K2">
-        <v>1.037830743915011</v>
+        <v>1.037234113250151</v>
       </c>
       <c r="L2">
-        <v>1.03817455594375</v>
+        <v>1.037931083743533</v>
       </c>
       <c r="M2">
-        <v>1.046725513415444</v>
+        <v>1.046394078849019</v>
       </c>
       <c r="N2">
-        <v>1.012049487923045</v>
+        <v>1.013641257045256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045552482735887</v>
+        <v>1.045290176273602</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037819880778135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037406793228556</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021971947063762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005625866558134</v>
+        <v>1.005369615743533</v>
       </c>
       <c r="D3">
-        <v>1.028911298353823</v>
+        <v>1.028171335724065</v>
       </c>
       <c r="E3">
-        <v>1.029890847474705</v>
+        <v>1.029574397594022</v>
       </c>
       <c r="F3">
-        <v>1.038230372841486</v>
+        <v>1.037807606913562</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04758501010371</v>
+        <v>1.04728165417782</v>
       </c>
       <c r="J3">
-        <v>1.025964330914628</v>
+        <v>1.025714962305377</v>
       </c>
       <c r="K3">
-        <v>1.039187149521103</v>
+        <v>1.038456014222598</v>
       </c>
       <c r="L3">
-        <v>1.040155037362807</v>
+        <v>1.039842351728712</v>
       </c>
       <c r="M3">
-        <v>1.048396385087917</v>
+        <v>1.047978549240632</v>
       </c>
       <c r="N3">
-        <v>1.012578909291441</v>
+        <v>1.014032843688626</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046874855262269</v>
+        <v>1.046544169021089</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038776310617729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03826784135237</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022200607512692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007750321913077</v>
+        <v>1.007424122484763</v>
       </c>
       <c r="D4">
-        <v>1.030303071786214</v>
+        <v>1.029477264084183</v>
       </c>
       <c r="E4">
-        <v>1.031689416630754</v>
+        <v>1.031329006091583</v>
       </c>
       <c r="F4">
-        <v>1.039821025247349</v>
+        <v>1.03934320877617</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04790582593233</v>
+        <v>1.047565141340014</v>
       </c>
       <c r="J4">
-        <v>1.026957830178088</v>
+        <v>1.026639806310101</v>
       </c>
       <c r="K4">
-        <v>1.04004902070501</v>
+        <v>1.039232479698871</v>
       </c>
       <c r="L4">
-        <v>1.041419849914257</v>
+        <v>1.041063468063398</v>
       </c>
       <c r="M4">
-        <v>1.049461474862553</v>
+        <v>1.048988898035773</v>
       </c>
       <c r="N4">
-        <v>1.01291561138473</v>
+        <v>1.014281996786522</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047717794556195</v>
+        <v>1.047343785285084</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039386624366377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038817848361705</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022343603806795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008638139767185</v>
+        <v>1.008282883854762</v>
       </c>
       <c r="D5">
-        <v>1.030887306684277</v>
+        <v>1.030025786908392</v>
       </c>
       <c r="E5">
-        <v>1.032442785809021</v>
+        <v>1.032064135897313</v>
       </c>
       <c r="F5">
-        <v>1.040487513015011</v>
+        <v>1.039986811743072</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048038954408264</v>
+        <v>1.047682727600721</v>
       </c>
       <c r="J5">
-        <v>1.027374048581831</v>
+        <v>1.027027433683434</v>
       </c>
       <c r="K5">
-        <v>1.040411086443518</v>
+        <v>1.039558980634342</v>
       </c>
       <c r="L5">
-        <v>1.041949617423684</v>
+        <v>1.041575087421522</v>
       </c>
       <c r="M5">
-        <v>1.049907681675165</v>
+        <v>1.049412326356834</v>
       </c>
       <c r="N5">
-        <v>1.013056858836835</v>
+        <v>1.014386584044315</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048070933756614</v>
+        <v>1.047678897192646</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039649809215689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039056595737593</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022403578514636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008789943605669</v>
+        <v>1.008429746694433</v>
       </c>
       <c r="D6">
-        <v>1.030989398834802</v>
+        <v>1.030121857600529</v>
       </c>
       <c r="E6">
-        <v>1.032571408143587</v>
+        <v>1.032189673006181</v>
       </c>
       <c r="F6">
-        <v>1.040601887090125</v>
+        <v>1.040097315573808</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048063082371388</v>
+        <v>1.047704228419031</v>
       </c>
       <c r="J6">
-        <v>1.027446817937528</v>
+        <v>1.027095337718422</v>
       </c>
       <c r="K6">
-        <v>1.040475866254774</v>
+        <v>1.039617762012822</v>
       </c>
       <c r="L6">
-        <v>1.042040716758928</v>
+        <v>1.041663116095359</v>
       </c>
       <c r="M6">
-        <v>1.049985080402149</v>
+        <v>1.049485871760639</v>
       </c>
       <c r="N6">
-        <v>1.013081805527468</v>
+        <v>1.014405106379749</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048132189022427</v>
+        <v>1.047737102874181</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039704362385595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039107774704033</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022414837467056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007770801947782</v>
+        <v>1.007451376580371</v>
       </c>
       <c r="D7">
-        <v>1.030322289595921</v>
+        <v>1.029500672018607</v>
       </c>
       <c r="E7">
-        <v>1.031705966929353</v>
+        <v>1.03134839778649</v>
       </c>
       <c r="F7">
-        <v>1.039837266784505</v>
+        <v>1.039362715452772</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047912909706373</v>
+        <v>1.047574172657701</v>
       </c>
       <c r="J7">
-        <v>1.02697177841554</v>
+        <v>1.026660355393283</v>
       </c>
       <c r="K7">
-        <v>1.04006513969816</v>
+        <v>1.039252738253843</v>
       </c>
       <c r="L7">
-        <v>1.041433337073658</v>
+        <v>1.041079763354306</v>
       </c>
       <c r="M7">
-        <v>1.049474690135025</v>
+        <v>1.049005340692376</v>
       </c>
       <c r="N7">
-        <v>1.01292103371196</v>
+        <v>1.014313912188301</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047728253454854</v>
+        <v>1.04735679842319</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039418143218117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038854289364785</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022349197237821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003435319760235</v>
+        <v>1.003274541365518</v>
       </c>
       <c r="D8">
-        <v>1.027486285614705</v>
+        <v>1.026850263351504</v>
       </c>
       <c r="E8">
-        <v>1.02804232085948</v>
+        <v>1.027781610581129</v>
       </c>
       <c r="F8">
-        <v>1.036596481257274</v>
+        <v>1.036242321672667</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047251791252025</v>
+        <v>1.046994033626667</v>
       </c>
       <c r="J8">
-        <v>1.024944337853498</v>
+        <v>1.024788180685586</v>
       </c>
       <c r="K8">
-        <v>1.038306377066617</v>
+        <v>1.037678410366103</v>
       </c>
       <c r="L8">
-        <v>1.038855380018634</v>
+        <v>1.038597965814603</v>
       </c>
       <c r="M8">
-        <v>1.047302538255208</v>
+        <v>1.046952765120634</v>
       </c>
       <c r="N8">
-        <v>1.012234071133477</v>
+        <v>1.013862372463167</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046009155894334</v>
+        <v>1.045732335952525</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038179117914218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037746136373359</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022058828314045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9955111528130036</v>
+        <v>0.9956214800669996</v>
       </c>
       <c r="D9">
-        <v>1.022324134130814</v>
+        <v>1.022014404502111</v>
       </c>
       <c r="E9">
-        <v>1.021415688258892</v>
+        <v>1.021325173356736</v>
       </c>
       <c r="F9">
-        <v>1.03072326107602</v>
+        <v>1.030579910698902</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045968414321137</v>
+        <v>1.045852278534624</v>
       </c>
       <c r="J9">
-        <v>1.021223425756829</v>
+        <v>1.021329808282222</v>
       </c>
       <c r="K9">
-        <v>1.03506511119283</v>
+        <v>1.034760132389462</v>
       </c>
       <c r="L9">
-        <v>1.03417061005152</v>
+        <v>1.034081486296139</v>
       </c>
       <c r="M9">
-        <v>1.043336792779979</v>
+        <v>1.043195595369522</v>
       </c>
       <c r="N9">
-        <v>1.010971642131568</v>
+        <v>1.012939434162794</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042870551272909</v>
+        <v>1.042758803346889</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035884148812275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035679261382769</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021498603455132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9900738432811587</v>
+        <v>0.9904052548759004</v>
       </c>
       <c r="D10">
-        <v>1.018825406732734</v>
+        <v>1.018761267927415</v>
       </c>
       <c r="E10">
-        <v>1.016964814073267</v>
+        <v>1.017006964609333</v>
       </c>
       <c r="F10">
-        <v>1.026794560645063</v>
+        <v>1.026813208860094</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045062256338291</v>
+        <v>1.045052972960642</v>
       </c>
       <c r="J10">
-        <v>1.018686897844655</v>
+        <v>1.019004789670298</v>
       </c>
       <c r="K10">
-        <v>1.032862882759939</v>
+        <v>1.03279984742048</v>
       </c>
       <c r="L10">
-        <v>1.031034373516653</v>
+        <v>1.031075795542348</v>
       </c>
       <c r="M10">
-        <v>1.040696316285466</v>
+        <v>1.040714650094937</v>
       </c>
       <c r="N10">
-        <v>1.010113867798023</v>
+        <v>1.012431699974699</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040832086887673</v>
+        <v>1.040846595962404</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03434386760398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034311725319979</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021117396865778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9880015131022021</v>
+        <v>0.9884516171073632</v>
       </c>
       <c r="D11">
-        <v>1.017654352536047</v>
+        <v>1.017698061309404</v>
       </c>
       <c r="E11">
-        <v>1.015665006927545</v>
+        <v>1.015765233538801</v>
       </c>
       <c r="F11">
-        <v>1.025819350632035</v>
+        <v>1.025911782680844</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04485075594141</v>
+        <v>1.044887366049578</v>
       </c>
       <c r="J11">
-        <v>1.017882104509818</v>
+        <v>1.018312840987523</v>
       </c>
       <c r="K11">
-        <v>1.032250840460664</v>
+        <v>1.0322937617469</v>
       </c>
       <c r="L11">
-        <v>1.030297429566207</v>
+        <v>1.030395841346686</v>
       </c>
       <c r="M11">
-        <v>1.040270242508183</v>
+        <v>1.040361043535242</v>
       </c>
       <c r="N11">
-        <v>1.009866525832254</v>
+        <v>1.012491883900355</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040929875851377</v>
+        <v>1.041001698360587</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033944016837641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033990000435363</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021054300005448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9873442241364261</v>
+        <v>0.9878308840985205</v>
       </c>
       <c r="D12">
-        <v>1.017346346760856</v>
+        <v>1.017419549686707</v>
       </c>
       <c r="E12">
-        <v>1.015421500610656</v>
+        <v>1.015535116124757</v>
       </c>
       <c r="F12">
-        <v>1.025730392306828</v>
+        <v>1.025842962304149</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044841249447435</v>
+        <v>1.044889344684991</v>
       </c>
       <c r="J12">
-        <v>1.017694027606425</v>
+        <v>1.01815934372842</v>
       </c>
       <c r="K12">
-        <v>1.032148596559055</v>
+        <v>1.032220458742792</v>
       </c>
       <c r="L12">
-        <v>1.030259095155766</v>
+        <v>1.030370619571186</v>
       </c>
       <c r="M12">
-        <v>1.040380701031669</v>
+        <v>1.040491252912024</v>
       </c>
       <c r="N12">
-        <v>1.009822849326697</v>
+        <v>1.012566363353423</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041342770579801</v>
+        <v>1.041430186334667</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033871726908185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033938173802001</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021065298844428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9877429212419884</v>
+        <v>0.9881941411573371</v>
       </c>
       <c r="D13">
-        <v>1.017696307361831</v>
+        <v>1.017732994925766</v>
       </c>
       <c r="E13">
-        <v>1.015985871127972</v>
+        <v>1.016074841447806</v>
       </c>
       <c r="F13">
-        <v>1.02633494624838</v>
+        <v>1.02642206827922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044997987944677</v>
+        <v>1.045028476763535</v>
       </c>
       <c r="J13">
-        <v>1.017980680916929</v>
+        <v>1.018412205673603</v>
       </c>
       <c r="K13">
-        <v>1.032449226710305</v>
+        <v>1.032485245141272</v>
       </c>
       <c r="L13">
-        <v>1.030770056446583</v>
+        <v>1.030857397051137</v>
       </c>
       <c r="M13">
-        <v>1.04093202261411</v>
+        <v>1.04101759029058</v>
       </c>
       <c r="N13">
-        <v>1.009938198602471</v>
+        <v>1.012624547614112</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042054685493202</v>
+        <v>1.042122328773723</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034081786848592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034122644980795</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021138075210952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9885020479898933</v>
+        <v>0.9888962434974657</v>
       </c>
       <c r="D14">
-        <v>1.018241201643704</v>
+        <v>1.018222785740763</v>
       </c>
       <c r="E14">
-        <v>1.01674702522833</v>
+        <v>1.016802232995426</v>
       </c>
       <c r="F14">
-        <v>1.02707301506642</v>
+        <v>1.0271220614176</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045183442953589</v>
+        <v>1.045188719707363</v>
       </c>
       <c r="J14">
-        <v>1.018397453616608</v>
+        <v>1.018774686126108</v>
       </c>
       <c r="K14">
-        <v>1.032843652772644</v>
+        <v>1.032825568625272</v>
       </c>
       <c r="L14">
-        <v>1.03137644418521</v>
+        <v>1.031430653694519</v>
       </c>
       <c r="M14">
-        <v>1.041518141719698</v>
+        <v>1.041566324182494</v>
       </c>
       <c r="N14">
-        <v>1.010091468785167</v>
+        <v>1.012659421706551</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042690937518262</v>
+        <v>1.042729021775408</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034362086051259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034364825122333</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021217558219225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9889199696701142</v>
+        <v>0.9892851370173872</v>
       </c>
       <c r="D15">
-        <v>1.018523260499041</v>
+        <v>1.018477324257973</v>
       </c>
       <c r="E15">
-        <v>1.017117083723153</v>
+        <v>1.017156203802442</v>
       </c>
       <c r="F15">
-        <v>1.027415211016939</v>
+        <v>1.027445331745442</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045268063194635</v>
+        <v>1.045261045264946</v>
       </c>
       <c r="J15">
-        <v>1.018607139547408</v>
+        <v>1.018956728938432</v>
       </c>
       <c r="K15">
-        <v>1.033034074119675</v>
+        <v>1.03298895918987</v>
       </c>
       <c r="L15">
-        <v>1.031653082585727</v>
+        <v>1.031691500783911</v>
       </c>
       <c r="M15">
-        <v>1.041768833536154</v>
+        <v>1.04179842778216</v>
       </c>
       <c r="N15">
-        <v>1.01016526822965</v>
+        <v>1.012668672249361</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042926542554725</v>
+        <v>1.042949933747592</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034502598374771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034486793547471</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021252457189913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.991141442920797</v>
+        <v>0.9913699667820849</v>
       </c>
       <c r="D16">
-        <v>1.019939285604522</v>
+        <v>1.019763384768377</v>
       </c>
       <c r="E16">
-        <v>1.018898029016746</v>
+        <v>1.018864973907763</v>
       </c>
       <c r="F16">
-        <v>1.028983549267365</v>
+        <v>1.02892514189823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045637314479798</v>
+        <v>1.045573656621355</v>
       </c>
       <c r="J16">
-        <v>1.019633064840332</v>
+        <v>1.019852323128148</v>
       </c>
       <c r="K16">
-        <v>1.033921977784593</v>
+        <v>1.033749086273295</v>
       </c>
       <c r="L16">
-        <v>1.032898554646996</v>
+        <v>1.032866066439558</v>
       </c>
       <c r="M16">
-        <v>1.042813298214791</v>
+        <v>1.042755867428789</v>
       </c>
       <c r="N16">
-        <v>1.010508866738923</v>
+        <v>1.012700360505657</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043713452746124</v>
+        <v>1.043668058358016</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035133550989968</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035027701644525</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021397170000859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9924501727010792</v>
+        <v>0.9926122912285531</v>
       </c>
       <c r="D17">
-        <v>1.020741635914392</v>
+        <v>1.02050053920948</v>
       </c>
       <c r="E17">
-        <v>1.019865997328588</v>
+        <v>1.019798486397141</v>
       </c>
       <c r="F17">
-        <v>1.029797205492932</v>
+        <v>1.029694991023471</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045820846784416</v>
+        <v>1.045729365472948</v>
       </c>
       <c r="J17">
-        <v>1.02020160349788</v>
+        <v>1.020357358662314</v>
       </c>
       <c r="K17">
-        <v>1.034395506949532</v>
+        <v>1.034158420395355</v>
       </c>
       <c r="L17">
-        <v>1.033534444494232</v>
+        <v>1.033468058707936</v>
       </c>
       <c r="M17">
-        <v>1.043302202324276</v>
+        <v>1.043201649498699</v>
       </c>
       <c r="N17">
-        <v>1.010692024005371</v>
+        <v>1.012735481407659</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04397115591672</v>
+        <v>1.043891669161652</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035470946649784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035319955852725</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021467138853039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9930899782301931</v>
+        <v>0.9932298970347756</v>
       </c>
       <c r="D18">
-        <v>1.021073871079011</v>
+        <v>1.02081094076929</v>
       </c>
       <c r="E18">
-        <v>1.020196047753448</v>
+        <v>1.020119030715597</v>
       </c>
       <c r="F18">
-        <v>1.030001332534784</v>
+        <v>1.029884826814775</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045854165020043</v>
+        <v>1.045754207835207</v>
       </c>
       <c r="J18">
-        <v>1.020416603816402</v>
+        <v>1.020551133319993</v>
       </c>
       <c r="K18">
-        <v>1.034538493557034</v>
+        <v>1.03427986555576</v>
       </c>
       <c r="L18">
-        <v>1.033675045118106</v>
+        <v>1.033599290798562</v>
       </c>
       <c r="M18">
-        <v>1.043321546900958</v>
+        <v>1.043206905071863</v>
       </c>
       <c r="N18">
-        <v>1.010749030455474</v>
+        <v>1.012735334544149</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043749376492385</v>
+        <v>1.043658733614609</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035560394889577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035393040309502</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021472416326781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9931361401551799</v>
+        <v>0.993287227689542</v>
       </c>
       <c r="D19">
-        <v>1.020996870403174</v>
+        <v>1.020746956994937</v>
       </c>
       <c r="E19">
-        <v>1.019954775465002</v>
+        <v>1.019887920254161</v>
       </c>
       <c r="F19">
-        <v>1.029661809059122</v>
+        <v>1.029554381621665</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045761616863813</v>
+        <v>1.045668627774223</v>
       </c>
       <c r="J19">
-        <v>1.020324827452795</v>
+        <v>1.020470130445934</v>
       </c>
       <c r="K19">
-        <v>1.034400097934695</v>
+        <v>1.03415425273891</v>
       </c>
       <c r="L19">
-        <v>1.033374983657479</v>
+        <v>1.033309219356767</v>
       </c>
       <c r="M19">
-        <v>1.042925549555398</v>
+        <v>1.042819833049599</v>
       </c>
       <c r="N19">
-        <v>1.010699092073959</v>
+        <v>1.012688493145673</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043111709056802</v>
+        <v>1.043028095925159</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035468946484875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035311253891189</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021424047554951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9915034979804638</v>
+        <v>0.9917559080855831</v>
       </c>
       <c r="D20">
-        <v>1.019758599968079</v>
+        <v>1.019616443638781</v>
       </c>
       <c r="E20">
-        <v>1.018132484895251</v>
+        <v>1.018130172634202</v>
       </c>
       <c r="F20">
-        <v>1.02783035535346</v>
+        <v>1.027795835833512</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045314115343935</v>
+        <v>1.045270349029396</v>
       </c>
       <c r="J20">
-        <v>1.019365920667213</v>
+        <v>1.019608366805845</v>
       </c>
       <c r="K20">
-        <v>1.033462693518527</v>
+        <v>1.033322913992525</v>
       </c>
       <c r="L20">
-        <v>1.031863817600449</v>
+        <v>1.031861544152096</v>
       </c>
       <c r="M20">
-        <v>1.041400878646461</v>
+        <v>1.041366924607653</v>
       </c>
       <c r="N20">
-        <v>1.010345685235822</v>
+        <v>1.012497310383828</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041379152881344</v>
+        <v>1.041352281891998</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034810088158061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034727778744337</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021221844083062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9873666342868739</v>
+        <v>0.9878919413090996</v>
       </c>
       <c r="D21">
-        <v>1.017072949118833</v>
+        <v>1.017188759948332</v>
       </c>
       <c r="E21">
-        <v>1.014690048455616</v>
+        <v>1.014839054946667</v>
       </c>
       <c r="F21">
-        <v>1.024755295868129</v>
+        <v>1.024898850894327</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044581056315238</v>
+        <v>1.044652163340194</v>
       </c>
       <c r="J21">
-        <v>1.017402214847</v>
+        <v>1.017904765569866</v>
       </c>
       <c r="K21">
-        <v>1.031737930971156</v>
+        <v>1.031851642798914</v>
       </c>
       <c r="L21">
-        <v>1.029398357379662</v>
+        <v>1.029544646799374</v>
       </c>
       <c r="M21">
-        <v>1.039282374010351</v>
+        <v>1.03942337765394</v>
       </c>
       <c r="N21">
-        <v>1.00967691168154</v>
+        <v>1.012453223888978</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039661754056653</v>
+        <v>1.039773349107846</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033593841814286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033691089715148</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020932006463254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9847306358312921</v>
+        <v>0.9854280313202354</v>
       </c>
       <c r="D22">
-        <v>1.015371171819731</v>
+        <v>1.015650121632465</v>
       </c>
       <c r="E22">
-        <v>1.012532164944013</v>
+        <v>1.012777931810594</v>
       </c>
       <c r="F22">
-        <v>1.022835917589852</v>
+        <v>1.023092313716768</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044110201987207</v>
+        <v>1.044254089535797</v>
       </c>
       <c r="J22">
-        <v>1.016155960413049</v>
+        <v>1.016821399327532</v>
       </c>
       <c r="K22">
-        <v>1.030644151489919</v>
+        <v>1.030917793812301</v>
       </c>
       <c r="L22">
-        <v>1.027859379253793</v>
+        <v>1.028100435405594</v>
       </c>
       <c r="M22">
-        <v>1.037968170078604</v>
+        <v>1.038219780168015</v>
       </c>
       <c r="N22">
-        <v>1.009252968692987</v>
+        <v>1.012417983800506</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038621647794385</v>
+        <v>1.038820780803204</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032806960038209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033015988614018</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020746643310035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9861244765045909</v>
+        <v>0.986718846698491</v>
       </c>
       <c r="D23">
-        <v>1.01626546029707</v>
+        <v>1.016449866341725</v>
       </c>
       <c r="E23">
-        <v>1.013672548867752</v>
+        <v>1.013861297411937</v>
       </c>
       <c r="F23">
-        <v>1.023849177187208</v>
+        <v>1.02403958337734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044356592813144</v>
+        <v>1.044458107164686</v>
       </c>
       <c r="J23">
-        <v>1.016811103401142</v>
+        <v>1.017379030456836</v>
       </c>
       <c r="K23">
-        <v>1.031215924011742</v>
+        <v>1.031396909849464</v>
       </c>
       <c r="L23">
-        <v>1.028671275672398</v>
+        <v>1.028856500078071</v>
       </c>
       <c r="M23">
-        <v>1.038660307250108</v>
+        <v>1.038847249712373</v>
       </c>
       <c r="N23">
-        <v>1.009475069274707</v>
+        <v>1.012392082632444</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039169429182118</v>
+        <v>1.039317381865395</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033201577736611</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033344152482594</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02083998052148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9915277139103628</v>
+        <v>0.9917802478409858</v>
       </c>
       <c r="D24">
-        <v>1.019751534384296</v>
+        <v>1.01960964161251</v>
       </c>
       <c r="E24">
-        <v>1.018115455875019</v>
+        <v>1.018113750249723</v>
       </c>
       <c r="F24">
-        <v>1.027796271577997</v>
+        <v>1.027762046818078</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045299339446352</v>
+        <v>1.045255896671036</v>
       </c>
       <c r="J24">
-        <v>1.019355843818534</v>
+        <v>1.019598423618641</v>
       </c>
       <c r="K24">
-        <v>1.033440447683335</v>
+        <v>1.033300924308285</v>
       </c>
       <c r="L24">
-        <v>1.031831740918401</v>
+        <v>1.031830063887545</v>
       </c>
       <c r="M24">
-        <v>1.041352225324539</v>
+        <v>1.041318560547595</v>
       </c>
       <c r="N24">
-        <v>1.010338964199368</v>
+        <v>1.012488220082385</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041299902636824</v>
+        <v>1.041273259252063</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034766915056611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034682118317784</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021212614477473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9976070157447194</v>
+        <v>0.9976359077043907</v>
       </c>
       <c r="D25">
-        <v>1.023694486996084</v>
+        <v>1.02329238822034</v>
       </c>
       <c r="E25">
-        <v>1.023159071649403</v>
+        <v>1.023019087915121</v>
       </c>
       <c r="F25">
-        <v>1.032271740452595</v>
+        <v>1.032067770048706</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04632178094906</v>
+        <v>1.046165349801134</v>
       </c>
       <c r="J25">
-        <v>1.022215182603737</v>
+        <v>1.022243095761026</v>
       </c>
       <c r="K25">
-        <v>1.035935783735733</v>
+        <v>1.035539568574694</v>
       </c>
       <c r="L25">
-        <v>1.035408204022358</v>
+        <v>1.035270270622134</v>
       </c>
       <c r="M25">
-        <v>1.044388914779265</v>
+        <v>1.044187865735425</v>
       </c>
       <c r="N25">
-        <v>1.011309381406823</v>
+        <v>1.013153752599067</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043703232089537</v>
+        <v>1.043544115936928</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036528385243611</v>
+        <v>1.03626178724569</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021651660104588</v>
       </c>
     </row>
   </sheetData>
